--- a/副本泰国HB改造物料单及IO.xlsx
+++ b/副本泰国HB改造物料单及IO.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="696" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="696" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="倍福IO表" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="535">
   <si>
     <t>物料清单（电气）:</t>
   </si>
@@ -766,6 +769,1107 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>*2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG上料X轴B工位到位传感器</t>
+  </si>
+  <si>
+    <t>ng盘到位</t>
+  </si>
+  <si>
+    <t>FG上料X轴A工位到位传感器（抽屉）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>信号</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>端子</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input2</t>
+  </si>
+  <si>
+    <t>Input3</t>
+  </si>
+  <si>
+    <t>Input4</t>
+  </si>
+  <si>
+    <t>Input5</t>
+  </si>
+  <si>
+    <t>Input6</t>
+  </si>
+  <si>
+    <t>Input7</t>
+  </si>
+  <si>
+    <t>Input8</t>
+  </si>
+  <si>
+    <t>Input9</t>
+  </si>
+  <si>
+    <t>Input10</t>
+  </si>
+  <si>
+    <t>Input11</t>
+  </si>
+  <si>
+    <t>Input12</t>
+  </si>
+  <si>
+    <t>Input13</t>
+  </si>
+  <si>
+    <t>Input14</t>
+  </si>
+  <si>
+    <t>Input15</t>
+  </si>
+  <si>
+    <t>Input16</t>
+  </si>
+  <si>
+    <t>X0_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>X0_2</t>
+  </si>
+  <si>
+    <t>X0_3</t>
+  </si>
+  <si>
+    <t>X0_4</t>
+  </si>
+  <si>
+    <t>X0_5</t>
+  </si>
+  <si>
+    <t>X0_6</t>
+  </si>
+  <si>
+    <t>X0_7</t>
+  </si>
+  <si>
+    <t>X0_8</t>
+  </si>
+  <si>
+    <t>X0_9</t>
+  </si>
+  <si>
+    <t>X0_10</t>
+  </si>
+  <si>
+    <t>X0_11</t>
+  </si>
+  <si>
+    <t>X0_12</t>
+  </si>
+  <si>
+    <t>X0_13</t>
+  </si>
+  <si>
+    <t>X0_14</t>
+  </si>
+  <si>
+    <t>X0_15</t>
+  </si>
+  <si>
+    <t>X0_16</t>
+  </si>
+  <si>
+    <t>EL1889_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EL2889_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output2</t>
+  </si>
+  <si>
+    <t>Output3</t>
+  </si>
+  <si>
+    <t>Output4</t>
+  </si>
+  <si>
+    <t>Output5</t>
+  </si>
+  <si>
+    <t>Output6</t>
+  </si>
+  <si>
+    <t>Output7</t>
+  </si>
+  <si>
+    <t>Output8</t>
+  </si>
+  <si>
+    <t>Output9</t>
+  </si>
+  <si>
+    <t>Output10</t>
+  </si>
+  <si>
+    <t>Output11</t>
+  </si>
+  <si>
+    <t>Output12</t>
+  </si>
+  <si>
+    <t>Output13</t>
+  </si>
+  <si>
+    <t>Output14</t>
+  </si>
+  <si>
+    <t>Output15</t>
+  </si>
+  <si>
+    <t>Output16</t>
+  </si>
+  <si>
+    <t>Y0_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y0_2</t>
+  </si>
+  <si>
+    <t>Y0_3</t>
+  </si>
+  <si>
+    <t>Y0_4</t>
+  </si>
+  <si>
+    <t>Y0_5</t>
+  </si>
+  <si>
+    <t>Y0_6</t>
+  </si>
+  <si>
+    <t>Y0_7</t>
+  </si>
+  <si>
+    <t>Y0_8</t>
+  </si>
+  <si>
+    <t>Y0_9</t>
+  </si>
+  <si>
+    <t>Y0_10</t>
+  </si>
+  <si>
+    <t>Y0_11</t>
+  </si>
+  <si>
+    <t>Y0_12</t>
+  </si>
+  <si>
+    <t>Y0_13</t>
+  </si>
+  <si>
+    <t>Y0_14</t>
+  </si>
+  <si>
+    <t>Y0_15</t>
+  </si>
+  <si>
+    <t>Y0_16</t>
+  </si>
+  <si>
+    <t>EL1889_2</t>
+  </si>
+  <si>
+    <t>Input1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1_2</t>
+  </si>
+  <si>
+    <t>X1_3</t>
+  </si>
+  <si>
+    <t>X1_4</t>
+  </si>
+  <si>
+    <t>X1_5</t>
+  </si>
+  <si>
+    <t>X1_6</t>
+  </si>
+  <si>
+    <t>X1_7</t>
+  </si>
+  <si>
+    <t>X1_8</t>
+  </si>
+  <si>
+    <t>X1_9</t>
+  </si>
+  <si>
+    <t>X1_10</t>
+  </si>
+  <si>
+    <t>X1_11</t>
+  </si>
+  <si>
+    <t>X1_12</t>
+  </si>
+  <si>
+    <t>X1_13</t>
+  </si>
+  <si>
+    <t>X1_14</t>
+  </si>
+  <si>
+    <t>X1_15</t>
+  </si>
+  <si>
+    <t>X1_16</t>
+  </si>
+  <si>
+    <t>Output1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1_2</t>
+  </si>
+  <si>
+    <t>Y1_3</t>
+  </si>
+  <si>
+    <t>Y1_4</t>
+  </si>
+  <si>
+    <t>Y1_5</t>
+  </si>
+  <si>
+    <t>Y1_6</t>
+  </si>
+  <si>
+    <t>Y1_7</t>
+  </si>
+  <si>
+    <t>Y1_8</t>
+  </si>
+  <si>
+    <t>Y1_9</t>
+  </si>
+  <si>
+    <t>Y1_10</t>
+  </si>
+  <si>
+    <t>Y1_11</t>
+  </si>
+  <si>
+    <t>Y1_12</t>
+  </si>
+  <si>
+    <t>Y1_13</t>
+  </si>
+  <si>
+    <t>Y1_14</t>
+  </si>
+  <si>
+    <t>Y1_15</t>
+  </si>
+  <si>
+    <t>Y1_16</t>
+  </si>
+  <si>
+    <t>EL1889_3</t>
+  </si>
+  <si>
+    <t>EL1889_4</t>
+  </si>
+  <si>
+    <t>EL1889_5</t>
+  </si>
+  <si>
+    <t>X2_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>X2_2</t>
+  </si>
+  <si>
+    <t>X2_3</t>
+  </si>
+  <si>
+    <t>X2_4</t>
+  </si>
+  <si>
+    <t>X2_5</t>
+  </si>
+  <si>
+    <t>X2_6</t>
+  </si>
+  <si>
+    <t>X2_7</t>
+  </si>
+  <si>
+    <t>X2_8</t>
+  </si>
+  <si>
+    <t>X2_9</t>
+  </si>
+  <si>
+    <t>X2_10</t>
+  </si>
+  <si>
+    <t>X2_11</t>
+  </si>
+  <si>
+    <t>X2_12</t>
+  </si>
+  <si>
+    <t>X2_13</t>
+  </si>
+  <si>
+    <t>X2_14</t>
+  </si>
+  <si>
+    <t>X2_15</t>
+  </si>
+  <si>
+    <t>X2_16</t>
+  </si>
+  <si>
+    <t>X3_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>X3_2</t>
+  </si>
+  <si>
+    <t>X3_3</t>
+  </si>
+  <si>
+    <t>X3_4</t>
+  </si>
+  <si>
+    <t>X3_5</t>
+  </si>
+  <si>
+    <t>X3_6</t>
+  </si>
+  <si>
+    <t>X3_7</t>
+  </si>
+  <si>
+    <t>X3_8</t>
+  </si>
+  <si>
+    <t>X3_9</t>
+  </si>
+  <si>
+    <t>X3_10</t>
+  </si>
+  <si>
+    <t>X3_11</t>
+  </si>
+  <si>
+    <t>X3_12</t>
+  </si>
+  <si>
+    <t>X3_13</t>
+  </si>
+  <si>
+    <t>X3_14</t>
+  </si>
+  <si>
+    <t>X3_15</t>
+  </si>
+  <si>
+    <t>X3_16</t>
+  </si>
+  <si>
+    <t>Input1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>X4_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>X4_2</t>
+  </si>
+  <si>
+    <t>X4_3</t>
+  </si>
+  <si>
+    <t>X4_4</t>
+  </si>
+  <si>
+    <t>X4_5</t>
+  </si>
+  <si>
+    <t>X4_6</t>
+  </si>
+  <si>
+    <t>X4_7</t>
+  </si>
+  <si>
+    <t>X4_8</t>
+  </si>
+  <si>
+    <t>X4_9</t>
+  </si>
+  <si>
+    <t>X4_10</t>
+  </si>
+  <si>
+    <t>X4_11</t>
+  </si>
+  <si>
+    <t>X4_12</t>
+  </si>
+  <si>
+    <t>X4_13</t>
+  </si>
+  <si>
+    <t>X4_14</t>
+  </si>
+  <si>
+    <t>X4_15</t>
+  </si>
+  <si>
+    <t>X4_16</t>
+  </si>
+  <si>
+    <t>Input1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EL1889_6</t>
+  </si>
+  <si>
+    <t>EL1889_7</t>
+  </si>
+  <si>
+    <t>X100_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>X100_2</t>
+  </si>
+  <si>
+    <t>X100_3</t>
+  </si>
+  <si>
+    <t>X100_4</t>
+  </si>
+  <si>
+    <t>X100_5</t>
+  </si>
+  <si>
+    <t>X100_6</t>
+  </si>
+  <si>
+    <t>X100_7</t>
+  </si>
+  <si>
+    <t>X100_8</t>
+  </si>
+  <si>
+    <t>X100_9</t>
+  </si>
+  <si>
+    <t>X100_10</t>
+  </si>
+  <si>
+    <t>X100_11</t>
+  </si>
+  <si>
+    <t>X100_12</t>
+  </si>
+  <si>
+    <t>X100_13</t>
+  </si>
+  <si>
+    <t>X100_14</t>
+  </si>
+  <si>
+    <t>X100_15</t>
+  </si>
+  <si>
+    <t>X100_16</t>
+  </si>
+  <si>
+    <t>X101_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>X101_2</t>
+  </si>
+  <si>
+    <t>X101_3</t>
+  </si>
+  <si>
+    <t>X101_4</t>
+  </si>
+  <si>
+    <t>X101_5</t>
+  </si>
+  <si>
+    <t>X101_6</t>
+  </si>
+  <si>
+    <t>X101_7</t>
+  </si>
+  <si>
+    <t>X101_8</t>
+  </si>
+  <si>
+    <t>X101_9</t>
+  </si>
+  <si>
+    <t>X101_10</t>
+  </si>
+  <si>
+    <t>X101_11</t>
+  </si>
+  <si>
+    <t>X101_12</t>
+  </si>
+  <si>
+    <t>X101_13</t>
+  </si>
+  <si>
+    <t>X101_14</t>
+  </si>
+  <si>
+    <t>X101_15</t>
+  </si>
+  <si>
+    <t>X101_16</t>
+  </si>
+  <si>
+    <t>EL2889_3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y100_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y100_2</t>
+  </si>
+  <si>
+    <t>Y100_3</t>
+  </si>
+  <si>
+    <t>Y100_4</t>
+  </si>
+  <si>
+    <t>Y100_5</t>
+  </si>
+  <si>
+    <t>Y100_6</t>
+  </si>
+  <si>
+    <t>Y100_7</t>
+  </si>
+  <si>
+    <t>Y100_8</t>
+  </si>
+  <si>
+    <t>Y100_9</t>
+  </si>
+  <si>
+    <t>Y100_10</t>
+  </si>
+  <si>
+    <t>Y100_11</t>
+  </si>
+  <si>
+    <t>Y100_12</t>
+  </si>
+  <si>
+    <t>Y100_13</t>
+  </si>
+  <si>
+    <t>Y100_14</t>
+  </si>
+  <si>
+    <t>Y100_15</t>
+  </si>
+  <si>
+    <t>Y100_16</t>
+  </si>
+  <si>
+    <t>Y101_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y101_2</t>
+  </si>
+  <si>
+    <t>Y101_3</t>
+  </si>
+  <si>
+    <t>Y101_4</t>
+  </si>
+  <si>
+    <t>Y101_5</t>
+  </si>
+  <si>
+    <t>Y101_6</t>
+  </si>
+  <si>
+    <t>Y101_7</t>
+  </si>
+  <si>
+    <t>Y101_8</t>
+  </si>
+  <si>
+    <t>Y101_9</t>
+  </si>
+  <si>
+    <t>Y101_10</t>
+  </si>
+  <si>
+    <t>Y101_11</t>
+  </si>
+  <si>
+    <t>Y101_12</t>
+  </si>
+  <si>
+    <t>Y101_13</t>
+  </si>
+  <si>
+    <t>Y101_14</t>
+  </si>
+  <si>
+    <t>Y101_15</t>
+  </si>
+  <si>
+    <t>Y101_16</t>
+  </si>
+  <si>
+    <t>送料上升正极限【轴3】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>送料上升原点【轴3】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>送料上升反极限【轴3】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>送料移栽正极限【轴4】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>送料移栽原点【轴4】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>送料移栽反极限【轴4】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>送料撕膜正极限【轴5】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>送料撕膜原点【轴5】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>送料撕膜反极限【轴5】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>左送料上升正极限【轴6】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>左送料上升原点【轴6】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>左送料上升反极限【轴6】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>左收盘下降正极限【轴7】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>左收盘下降原点【轴7】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>左收盘下降反极限【轴7】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>右送盘上升正极限【轴8】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>右送盘上升原点【轴8】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>右送盘上升反极限【轴8】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>右收料下降正极限【轴9】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>右收料下降原点【轴9】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>右收料下降反极限【轴9】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚压正极限【轴10】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚压原点【轴10】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚压反极限【轴10】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPC上升到位传感器</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPC下降抽屉到位传感器</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>左送料上升到位光纤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>左收盘上升到位光纤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>右送料上升到位光纤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>右收盘上升到位光纤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕膜电机吸膜负压表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕膜电机吸产品负压表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>左升降平移气缸SET</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>左升降平移气缸RST</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>左升降上下气缸SET</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>左升降上下气缸RST</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>左升降真空负压表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRAY盘抽屉上升到位传感器【轴8】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRAY盘抽屉下降到位传感器【轴8】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚压推进气缸SET</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚压推进气缸RST</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚压翻转气缸SET</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚压翻转气缸RST</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚压平台真空吸负压表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>右升降平移气缸SET</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>右升降平移气缸RST</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>右升降上下气缸SET</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>右升降上下气缸RST</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>右升降真空负压表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASS TRAY上料门感应</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>前门左门感应</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>前门右门感应</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>后门左门感应</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>后门右门感应</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>HB上料门感应1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>HB上料门感应2</t>
+  </si>
+  <si>
+    <t>启动按钮</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止按钮</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>复位按钮</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>急停按钮</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴11正转极限【轴11】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴11原点【轴11】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴11反转极限【轴11】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>左移栽上顶气缸SET1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>左移栽上顶气缸RST1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>左移栽上顶气缸SET2</t>
+  </si>
+  <si>
+    <t>左移栽上顶气缸RST2</t>
+  </si>
+  <si>
+    <t>撕膜平台真空吸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑台真空吸2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕膜位置真空吸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>矫正电机撕膜上气缸的夹子</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑台真空吸1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>左升降平移气缸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>左升降上下气缸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>左升降真空吸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚压推入气缸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚压下压压板气缸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚压平台真空吸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚压翻转气缸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>右载盘真空吸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>右升降平移气缸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y1_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EL2889_2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EL2889_4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>右升降上下气缸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>右升降真空吸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕膜夹子撕膜上下气缸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全门信号-输出到继电器-给机械手</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加上顶气缸1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加上顶气缸2</t>
+  </si>
+  <si>
+    <t>FPC扣紧气缸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始吹膜1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>吹膜2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿灯</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄灯</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>红灯</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>蜂鸣器</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>给p</t>
     </r>
@@ -783,21 +1887,75 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>*2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FG上料X轴B工位到位传感器</t>
-  </si>
-  <si>
-    <t>FG上料X轴A工位到位传感器</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ng盘到位</t>
-  </si>
-  <si>
-    <t>ng盘到位</t>
+    <t>条码取完【给plc】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码有料【从台达plc给出】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码Z轴原点【轴24】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码Z轴正极限【轴24】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码Z轴反极限【轴24】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码U轴原点【轴25】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码Y轴原点【22轴】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码Y轴正极限【22轴】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码Y轴反极限【22轴】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚压Z轴原点【23轴】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚压Z轴正极限【23轴】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚压Z轴反极限【23轴】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG上料X轴原点【21轴】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG上料X轴正极限【21轴】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG上料X轴反极限【21轴】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG上料AB工位切换感应2SET</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG上料X轴B工位感应光纤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG上料X轴B工位感应光纤</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -930,7 +2088,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1127,6 +2285,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1137,7 +2355,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1313,6 +2531,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1347,6 +2571,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2046,8 +3297,8 @@
   </sheetPr>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2065,12 +3316,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6" t="s">
         <v>1</v>
@@ -2090,10 +3341,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="12"/>
       <c r="H2" s="13"/>
       <c r="I2" s="66"/>
@@ -2107,10 +3358,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="14"/>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="88"/>
+      <c r="F3" s="90"/>
       <c r="G3" s="15"/>
       <c r="H3" s="16"/>
       <c r="I3" s="66"/>
@@ -2126,10 +3377,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="20"/>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="88"/>
+      <c r="F4" s="90"/>
       <c r="G4" s="18"/>
       <c r="H4" s="21"/>
       <c r="I4" s="66"/>
@@ -2146,7 +3397,7 @@
       <c r="I5" s="67"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="91" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="27" t="s">
@@ -2175,7 +3426,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="82"/>
+      <c r="A7" s="84"/>
       <c r="B7" s="31"/>
       <c r="C7" s="32" t="s">
         <v>21</v>
@@ -2198,7 +3449,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="82"/>
+      <c r="A8" s="84"/>
       <c r="B8" s="31"/>
       <c r="C8" s="32" t="s">
         <v>26</v>
@@ -2221,7 +3472,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="82"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="31"/>
       <c r="C9" s="32" t="s">
         <v>30</v>
@@ -2244,7 +3495,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="90"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="35"/>
       <c r="C10" s="32" t="s">
         <v>33</v>
@@ -2267,7 +3518,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="83" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="37"/>
@@ -2304,7 +3555,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="82"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="37"/>
       <c r="C12" s="3" t="s">
         <v>46</v>
@@ -2327,7 +3578,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="82"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="37"/>
       <c r="C13" s="42" t="s">
         <v>48</v>
@@ -2350,7 +3601,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="82"/>
+      <c r="A14" s="84"/>
       <c r="B14" s="37"/>
       <c r="C14" s="42" t="s">
         <v>51</v>
@@ -2373,7 +3624,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="82"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="37"/>
       <c r="C15" s="43" t="s">
         <v>53</v>
@@ -2396,7 +3647,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="90"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="35"/>
       <c r="C16" s="45" t="s">
         <v>56</v>
@@ -2419,7 +3670,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="83" t="s">
         <v>59</v>
       </c>
       <c r="B17" s="35"/>
@@ -2442,7 +3693,7 @@
       <c r="I17" s="68"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="82"/>
+      <c r="A18" s="84"/>
       <c r="B18" s="36"/>
       <c r="C18" s="47" t="s">
         <v>63</v>
@@ -2463,7 +3714,7 @@
       <c r="I18" s="68"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="82"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="36"/>
       <c r="C19" s="49" t="s">
         <v>66</v>
@@ -2484,7 +3735,7 @@
       <c r="I19" s="68"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="82"/>
+      <c r="A20" s="84"/>
       <c r="B20" s="36"/>
       <c r="C20" t="s">
         <v>69</v>
@@ -2525,7 +3776,7 @@
       <c r="I21" s="54"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="83" t="s">
+      <c r="A22" s="85" t="s">
         <v>74</v>
       </c>
       <c r="B22" s="35"/>
@@ -2548,7 +3799,7 @@
       <c r="I22" s="68"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="83"/>
+      <c r="A23" s="85"/>
       <c r="B23" s="2"/>
       <c r="C23" s="49" t="s">
         <v>77</v>
@@ -2569,7 +3820,7 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="84"/>
+      <c r="A24" s="86"/>
       <c r="B24" s="60"/>
       <c r="C24" s="61" t="s">
         <v>80</v>
@@ -2584,7 +3835,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="83" t="s">
+      <c r="A25" s="85" t="s">
         <v>82</v>
       </c>
       <c r="B25" s="2"/>
@@ -2603,7 +3854,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="85"/>
+      <c r="A26" s="87"/>
       <c r="B26" s="2"/>
       <c r="C26" s="48" t="s">
         <v>85</v>
@@ -2618,7 +3869,7 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="85"/>
+      <c r="A27" s="87"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2629,7 +3880,7 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="85"/>
+      <c r="A28" s="87"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2640,7 +3891,7 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="85"/>
+      <c r="A29" s="87"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2651,7 +3902,7 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="85"/>
+      <c r="A30" s="87"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -2662,7 +3913,7 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="85"/>
+      <c r="A31" s="87"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2673,7 +3924,7 @@
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="85"/>
+      <c r="A32" s="87"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2706,7 +3957,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3010,23 +4261,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="6" max="6" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.625" customWidth="1"/>
     <col min="12" max="12" width="20.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="93" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
       <c r="J1" s="77" t="s">
         <v>167</v>
       </c>
@@ -3114,7 +4365,7 @@
         <v>150</v>
       </c>
       <c r="G6" s="80" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I6" s="71"/>
       <c r="J6" s="71" t="s">
@@ -3134,7 +4385,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="75"/>
       <c r="G7" s="80" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I7" s="71"/>
       <c r="J7" s="71" t="s">
@@ -3252,9 +4503,7 @@
       <c r="F14" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H14" s="80" t="s">
-        <v>194</v>
-      </c>
+      <c r="H14" s="80"/>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.15">
       <c r="C15" s="70">
@@ -3337,7 +4586,7 @@
       </c>
       <c r="E21" s="4"/>
       <c r="F21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="J21" s="71" t="s">
         <v>178</v>
@@ -3430,7 +4679,7 @@
       </c>
       <c r="E28" s="70"/>
       <c r="F28" s="79" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.15">
@@ -3684,7 +4933,7 @@
         <v>188</v>
       </c>
       <c r="G52" s="71" t="s">
-        <v>189</v>
+        <v>516</v>
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.15">
@@ -3707,4 +4956,2569 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <f>50*3.6</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <f>A1*0.9</f>
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E2" s="87" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="I2" s="87" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E3" s="87"/>
+      <c r="F3" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="I3" s="87"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E4" s="87"/>
+      <c r="F4" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="I4" s="87"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E5" s="87"/>
+      <c r="F5" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="I5" s="87"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E6" s="87"/>
+      <c r="F6" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="I6" s="87"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E7" s="87"/>
+      <c r="F7" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="I7" s="87"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E8" s="87"/>
+      <c r="F8" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="I8" s="87"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E9" s="87"/>
+      <c r="F9" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="I9" s="87"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E10" s="87"/>
+      <c r="F10" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="87"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E11" s="87"/>
+      <c r="F11" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="I11" s="87"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="E12" s="87"/>
+      <c r="F12" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="I12" s="87"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E13" s="87"/>
+      <c r="F13" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="I13" s="87"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E14" s="87"/>
+      <c r="F14" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="I14" s="87"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E15" s="87"/>
+      <c r="F15" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="I15" s="87"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E16" s="87"/>
+      <c r="F16" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="87"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="I17" s="87"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="87" t="s">
+        <v>265</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="I18" s="87" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="I19" s="87"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E20" s="87"/>
+      <c r="F20" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" s="87"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E21" s="87"/>
+      <c r="F21" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="I21" s="87"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E22" s="87"/>
+      <c r="F22" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="I22" s="87"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="E23" s="87"/>
+      <c r="F23" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="I23" s="87"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E24" s="87"/>
+      <c r="F24" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="I24" s="87"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E25" s="87"/>
+      <c r="F25" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="87"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="I26" s="87"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="I27" s="87"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="I28" s="87"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E29" s="87"/>
+      <c r="F29" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="87"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E30" s="87"/>
+      <c r="F30" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="I30" s="87"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E31" s="87"/>
+      <c r="F31" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="I31" s="87"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E32" s="87"/>
+      <c r="F32" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="I32" s="87"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E33" s="87"/>
+      <c r="F33" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="I33" s="87"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E34" s="87" t="s">
+        <v>299</v>
+      </c>
+      <c r="F34" s="95"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="97"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E35" s="87"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="100"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="E36" s="87"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="100"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E37" s="87"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="100"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E38" s="87"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="100"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="100"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E40" s="87"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="100"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E41" s="87"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="100"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E42" s="87"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="100"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="E43" s="87"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="100"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E44" s="87"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="100"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E45" s="87"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="100"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E46" s="87"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="99"/>
+      <c r="I46" s="100"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E47" s="87"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="100"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E48" s="87"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="100"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E49" s="87"/>
+      <c r="F49" s="101"/>
+      <c r="G49" s="102"/>
+      <c r="H49" s="102"/>
+      <c r="I49" s="103"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E50" s="87" t="s">
+        <v>300</v>
+      </c>
+      <c r="F50" s="95"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="97"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="98"/>
+      <c r="G51" s="99"/>
+      <c r="H51" s="99"/>
+      <c r="I51" s="100"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="98"/>
+      <c r="G52" s="99"/>
+      <c r="H52" s="99"/>
+      <c r="I52" s="100"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E53" s="87"/>
+      <c r="F53" s="98"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="99"/>
+      <c r="I53" s="100"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E54" s="87"/>
+      <c r="F54" s="98"/>
+      <c r="G54" s="99"/>
+      <c r="H54" s="99"/>
+      <c r="I54" s="100"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E55" s="87"/>
+      <c r="F55" s="98"/>
+      <c r="G55" s="99"/>
+      <c r="H55" s="99"/>
+      <c r="I55" s="100"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="98"/>
+      <c r="G56" s="99"/>
+      <c r="H56" s="99"/>
+      <c r="I56" s="100"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E57" s="87"/>
+      <c r="F57" s="98"/>
+      <c r="G57" s="99"/>
+      <c r="H57" s="99"/>
+      <c r="I57" s="100"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E58" s="87"/>
+      <c r="F58" s="98"/>
+      <c r="G58" s="99"/>
+      <c r="H58" s="99"/>
+      <c r="I58" s="100"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E59" s="87"/>
+      <c r="F59" s="98"/>
+      <c r="G59" s="99"/>
+      <c r="H59" s="99"/>
+      <c r="I59" s="100"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E60" s="87"/>
+      <c r="F60" s="98"/>
+      <c r="G60" s="99"/>
+      <c r="H60" s="99"/>
+      <c r="I60" s="100"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E61" s="87"/>
+      <c r="F61" s="98"/>
+      <c r="G61" s="99"/>
+      <c r="H61" s="99"/>
+      <c r="I61" s="100"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="E62" s="87"/>
+      <c r="F62" s="98"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="99"/>
+      <c r="I62" s="100"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E63" s="87"/>
+      <c r="F63" s="98"/>
+      <c r="G63" s="99"/>
+      <c r="H63" s="99"/>
+      <c r="I63" s="100"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E64" s="87"/>
+      <c r="F64" s="98"/>
+      <c r="G64" s="99"/>
+      <c r="H64" s="99"/>
+      <c r="I64" s="100"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E65" s="87"/>
+      <c r="F65" s="101"/>
+      <c r="G65" s="102"/>
+      <c r="H65" s="102"/>
+      <c r="I65" s="103"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E66" s="87" t="s">
+        <v>301</v>
+      </c>
+      <c r="F66" s="95"/>
+      <c r="G66" s="96"/>
+      <c r="H66" s="96"/>
+      <c r="I66" s="97"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E67" s="87"/>
+      <c r="F67" s="98"/>
+      <c r="G67" s="99"/>
+      <c r="H67" s="99"/>
+      <c r="I67" s="100"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E68" s="87"/>
+      <c r="F68" s="98"/>
+      <c r="G68" s="99"/>
+      <c r="H68" s="99"/>
+      <c r="I68" s="100"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E69" s="87"/>
+      <c r="F69" s="98"/>
+      <c r="G69" s="99"/>
+      <c r="H69" s="99"/>
+      <c r="I69" s="100"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="E70" s="87"/>
+      <c r="F70" s="98"/>
+      <c r="G70" s="99"/>
+      <c r="H70" s="99"/>
+      <c r="I70" s="100"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="E71" s="87"/>
+      <c r="F71" s="98"/>
+      <c r="G71" s="99"/>
+      <c r="H71" s="99"/>
+      <c r="I71" s="100"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E72" s="87"/>
+      <c r="F72" s="98"/>
+      <c r="G72" s="99"/>
+      <c r="H72" s="99"/>
+      <c r="I72" s="100"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E73" s="87"/>
+      <c r="F73" s="98"/>
+      <c r="G73" s="99"/>
+      <c r="H73" s="99"/>
+      <c r="I73" s="100"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E74" s="87"/>
+      <c r="F74" s="98"/>
+      <c r="G74" s="99"/>
+      <c r="H74" s="99"/>
+      <c r="I74" s="100"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="E75" s="87"/>
+      <c r="F75" s="98"/>
+      <c r="G75" s="99"/>
+      <c r="H75" s="99"/>
+      <c r="I75" s="100"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E76" s="87"/>
+      <c r="F76" s="98"/>
+      <c r="G76" s="99"/>
+      <c r="H76" s="99"/>
+      <c r="I76" s="100"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E77" s="87"/>
+      <c r="F77" s="98"/>
+      <c r="G77" s="99"/>
+      <c r="H77" s="99"/>
+      <c r="I77" s="100"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="E78" s="87"/>
+      <c r="F78" s="98"/>
+      <c r="G78" s="99"/>
+      <c r="H78" s="99"/>
+      <c r="I78" s="100"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E79" s="87"/>
+      <c r="F79" s="98"/>
+      <c r="G79" s="99"/>
+      <c r="H79" s="99"/>
+      <c r="I79" s="100"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="87"/>
+      <c r="F80" s="98"/>
+      <c r="G80" s="99"/>
+      <c r="H80" s="99"/>
+      <c r="I80" s="100"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="87"/>
+      <c r="F81" s="101"/>
+      <c r="G81" s="102"/>
+      <c r="H81" s="102"/>
+      <c r="I81" s="103"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D82" s="74" t="s">
+        <v>529</v>
+      </c>
+      <c r="E82" s="87" t="s">
+        <v>352</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I82" s="87" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E83" s="87"/>
+      <c r="F83" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I83" s="87"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E84" s="87"/>
+      <c r="F84" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I84" s="87"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D85" s="75" t="s">
+        <v>533</v>
+      </c>
+      <c r="E85" s="87"/>
+      <c r="F85" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I85" s="87"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D86" s="75"/>
+      <c r="E86" s="87"/>
+      <c r="F86" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I86" s="87"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D87" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="E87" s="87"/>
+      <c r="F87" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I87" s="87"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E88" s="87"/>
+      <c r="F88" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I88" s="87"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D89" s="74" t="s">
+        <v>523</v>
+      </c>
+      <c r="E89" s="87"/>
+      <c r="F89" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I89" s="87"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D90" s="74" t="s">
+        <v>524</v>
+      </c>
+      <c r="E90" s="87"/>
+      <c r="F90" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I90" s="87"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D91" s="74" t="s">
+        <v>525</v>
+      </c>
+      <c r="E91" s="87"/>
+      <c r="F91" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I91" s="87"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E92" s="87"/>
+      <c r="F92" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I92" s="87"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E93" s="87"/>
+      <c r="F93" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I93" s="87"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E94" s="87"/>
+      <c r="F94" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H94" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="I94" s="87"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E95" s="87"/>
+      <c r="F95" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H95" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="I95" s="87"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="87"/>
+      <c r="F96" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H96" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="I96" s="87"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" s="87"/>
+      <c r="F97" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H97" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="I97" s="87"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D98" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="E98" s="87" t="s">
+        <v>353</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H98" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="I98" s="87" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D99" s="81" t="s">
+        <v>126</v>
+      </c>
+      <c r="E99" s="87"/>
+      <c r="F99" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H99" s="75" t="s">
+        <v>184</v>
+      </c>
+      <c r="I99" s="87"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D100" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="E100" s="87"/>
+      <c r="F100" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H100" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="I100" s="87"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D101" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="E101" s="87"/>
+      <c r="F101" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="H101" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="I101" s="87"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D102" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E102" s="87"/>
+      <c r="F102" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H102" s="75" t="s">
+        <v>517</v>
+      </c>
+      <c r="I102" s="87"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A103" s="2">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D103" s="33"/>
+      <c r="E103" s="87"/>
+      <c r="F103" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H103" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="I103" s="87"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A104" s="2">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D104" s="82" t="s">
+        <v>526</v>
+      </c>
+      <c r="E104" s="87"/>
+      <c r="F104" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H104" s="2"/>
+      <c r="I104" s="87"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A105" s="2">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D105" s="82" t="s">
+        <v>527</v>
+      </c>
+      <c r="E105" s="87"/>
+      <c r="F105" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H105" s="2"/>
+      <c r="I105" s="87"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A106" s="2">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D106" s="82" t="s">
+        <v>528</v>
+      </c>
+      <c r="E106" s="87"/>
+      <c r="F106" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H106" s="2"/>
+      <c r="I106" s="87"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A107" s="2">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D107" s="82" t="s">
+        <v>518</v>
+      </c>
+      <c r="E107" s="87"/>
+      <c r="F107" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H107" s="2"/>
+      <c r="I107" s="87"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A108" s="2">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D108" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="E108" s="87"/>
+      <c r="F108" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H108" s="2"/>
+      <c r="I108" s="87"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A109" s="2">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D109" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="E109" s="87"/>
+      <c r="F109" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="H109" s="2"/>
+      <c r="I109" s="87"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A110" s="2">
+        <v>109</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" s="87"/>
+      <c r="F110" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H110" s="2"/>
+      <c r="I110" s="87"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A111" s="2">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" s="87"/>
+      <c r="F111" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H111" s="2"/>
+      <c r="I111" s="87"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A112" s="2">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" s="87"/>
+      <c r="F112" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="H112" s="2"/>
+      <c r="I112" s="87"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A113" s="2">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" s="87"/>
+      <c r="F113" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="H113" s="2"/>
+      <c r="I113" s="87"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="E2:E17"/>
+    <mergeCell ref="I2:I17"/>
+    <mergeCell ref="E18:E33"/>
+    <mergeCell ref="I18:I33"/>
+    <mergeCell ref="E34:E49"/>
+    <mergeCell ref="E98:E113"/>
+    <mergeCell ref="I98:I113"/>
+    <mergeCell ref="F34:I49"/>
+    <mergeCell ref="F50:I65"/>
+    <mergeCell ref="F66:I81"/>
+    <mergeCell ref="E66:E81"/>
+    <mergeCell ref="I82:I97"/>
+    <mergeCell ref="E82:E97"/>
+    <mergeCell ref="E50:E65"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/副本泰国HB改造物料单及IO.xlsx
+++ b/副本泰国HB改造物料单及IO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="696" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="696" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="倍福IO表" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="535">
   <si>
     <t>物料清单（电气）:</t>
   </si>
@@ -1755,10 +1756,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>滑台真空吸2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>撕膜位置真空吸</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1919,43 +1916,47 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>滚压Z轴原点【23轴】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚压Z轴正极限【23轴】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚压Z轴反极限【23轴】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG上料X轴原点【21轴】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG上料X轴正极限【21轴】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG上料X轴反极限【21轴】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG上料AB工位切换感应2SET</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG上料X轴B工位感应光纤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG上料X轴B工位感应光纤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>条形码Y轴反极限【22轴】</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>滚压Z轴原点【23轴】</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>滚压Z轴正极限【23轴】</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>滚压Z轴反极限【23轴】</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FG上料X轴原点【21轴】</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FG上料X轴正极限【21轴】</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FG上料X轴反极限【21轴】</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FG上料AB工位切换感应2SET</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FG上料X轴B工位感应光纤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FG上料X轴B工位感应光纤</t>
+    <t>滑台真空吸2</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2613,9 +2614,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4933,7 +4931,7 @@
         <v>188</v>
       </c>
       <c r="G52" s="71" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.15">
@@ -4991,8 +4989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5085,7 +5083,7 @@
         <v>250</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>487</v>
+        <v>534</v>
       </c>
       <c r="I3" s="87"/>
     </row>
@@ -5110,7 +5108,7 @@
         <v>251</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I4" s="87"/>
     </row>
@@ -5135,7 +5133,7 @@
         <v>252</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I5" s="87"/>
     </row>
@@ -5160,7 +5158,7 @@
         <v>253</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I6" s="87"/>
     </row>
@@ -5185,7 +5183,7 @@
         <v>254</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I7" s="87"/>
     </row>
@@ -5210,7 +5208,7 @@
         <v>255</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I8" s="87"/>
     </row>
@@ -5235,7 +5233,7 @@
         <v>256</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I9" s="87"/>
     </row>
@@ -5283,7 +5281,7 @@
         <v>258</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I11" s="87"/>
     </row>
@@ -5308,7 +5306,7 @@
         <v>259</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I12" s="87"/>
     </row>
@@ -5333,7 +5331,7 @@
         <v>260</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I13" s="87"/>
     </row>
@@ -5358,7 +5356,7 @@
         <v>261</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I14" s="87"/>
     </row>
@@ -5383,7 +5381,7 @@
         <v>262</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I15" s="87"/>
     </row>
@@ -5429,7 +5427,7 @@
         <v>264</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I17" s="87"/>
     </row>
@@ -5451,13 +5449,13 @@
         <v>233</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="I18" s="87" t="s">
         <v>500</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="I18" s="87" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -5479,7 +5477,7 @@
         <v>284</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I19" s="87"/>
     </row>
@@ -5529,7 +5527,7 @@
         <v>286</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I21" s="87"/>
     </row>
@@ -5554,7 +5552,7 @@
         <v>287</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I22" s="87"/>
     </row>
@@ -5579,7 +5577,7 @@
         <v>288</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I23" s="87"/>
     </row>
@@ -5604,7 +5602,7 @@
         <v>289</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I24" s="87"/>
     </row>
@@ -5650,7 +5648,7 @@
         <v>291</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I26" s="87"/>
     </row>
@@ -5673,7 +5671,7 @@
         <v>292</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I27" s="87"/>
     </row>
@@ -5696,7 +5694,7 @@
         <v>293</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I28" s="87"/>
     </row>
@@ -5744,7 +5742,7 @@
         <v>295</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I30" s="87"/>
     </row>
@@ -5769,7 +5767,7 @@
         <v>296</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I31" s="87"/>
     </row>
@@ -5794,7 +5792,7 @@
         <v>297</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I32" s="87"/>
     </row>
@@ -5819,7 +5817,7 @@
         <v>298</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I33" s="87"/>
     </row>
@@ -5834,7 +5832,7 @@
         <v>302</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E34" s="87" t="s">
         <v>299</v>
@@ -6740,7 +6738,7 @@
         <v>354</v>
       </c>
       <c r="D82" s="74" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E82" s="87" t="s">
         <v>352</v>
@@ -6769,7 +6767,7 @@
         <v>355</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E83" s="87"/>
       <c r="F83" s="2" t="s">
@@ -6778,9 +6776,7 @@
       <c r="G83" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>125</v>
-      </c>
+      <c r="H83" s="3"/>
       <c r="I83" s="87"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
@@ -6794,7 +6790,7 @@
         <v>356</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E84" s="87"/>
       <c r="F84" s="2" t="s">
@@ -6819,7 +6815,7 @@
         <v>357</v>
       </c>
       <c r="D85" s="75" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E85" s="87"/>
       <c r="F85" s="2" t="s">
@@ -6892,7 +6888,7 @@
         <v>360</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E88" s="87"/>
       <c r="F88" s="2" t="s">
@@ -6917,7 +6913,7 @@
         <v>361</v>
       </c>
       <c r="D89" s="74" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E89" s="87"/>
       <c r="F89" s="2" t="s">
@@ -6942,7 +6938,7 @@
         <v>362</v>
       </c>
       <c r="D90" s="74" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E90" s="87"/>
       <c r="F90" s="2" t="s">
@@ -6967,7 +6963,7 @@
         <v>363</v>
       </c>
       <c r="D91" s="74" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="E91" s="87"/>
       <c r="F91" s="2" t="s">
@@ -6992,7 +6988,7 @@
         <v>364</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E92" s="87"/>
       <c r="F92" s="2" t="s">
@@ -7017,7 +7013,7 @@
         <v>365</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E93" s="87"/>
       <c r="F93" s="2" t="s">
@@ -7042,7 +7038,7 @@
         <v>366</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E94" s="87"/>
       <c r="F94" s="2" t="s">
@@ -7067,7 +7063,7 @@
         <v>367</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E95" s="87"/>
       <c r="F95" s="2" t="s">
@@ -7153,7 +7149,7 @@
         <v>183</v>
       </c>
       <c r="I98" s="87" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
@@ -7252,7 +7248,7 @@
         <v>407</v>
       </c>
       <c r="H102" s="75" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I102" s="87"/>
     </row>
@@ -7290,7 +7286,7 @@
         <v>376</v>
       </c>
       <c r="D104" s="82" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E104" s="87"/>
       <c r="F104" s="2" t="s">
@@ -7313,7 +7309,7 @@
         <v>377</v>
       </c>
       <c r="D105" s="82" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E105" s="87"/>
       <c r="F105" s="2" t="s">
@@ -7336,7 +7332,7 @@
         <v>378</v>
       </c>
       <c r="D106" s="82" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E106" s="87"/>
       <c r="F106" s="2" t="s">
@@ -7359,7 +7355,7 @@
         <v>379</v>
       </c>
       <c r="D107" s="82" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E107" s="87"/>
       <c r="F107" s="2" t="s">
@@ -7521,4 +7517,72 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>-95.766000000000005</v>
+      </c>
+      <c r="B1">
+        <v>-101.53400000000001</v>
+      </c>
+      <c r="C1">
+        <f>B1-A1</f>
+        <v>-5.7680000000000007</v>
+      </c>
+      <c r="D1">
+        <v>-5.7680000000000007</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>334.97199999999998</v>
+      </c>
+      <c r="B2">
+        <f>A2-5.768</f>
+        <v>329.20400000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>393.94</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B5" si="0">A3-5.768</f>
+        <v>388.17200000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>453.47</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>447.70200000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>513</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>507.23200000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/副本泰国HB改造物料单及IO.xlsx
+++ b/副本泰国HB改造物料单及IO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="696" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="696" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1414,13 +1413,7 @@
     <t>Y100_8</t>
   </si>
   <si>
-    <t>Y100_9</t>
-  </si>
-  <si>
     <t>Y100_10</t>
-  </si>
-  <si>
-    <t>Y100_11</t>
   </si>
   <si>
     <t>Y100_12</t>
@@ -1957,6 +1950,14 @@
   </si>
   <si>
     <t>滑台真空吸2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y100_9</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y100_11</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -4931,7 +4932,7 @@
         <v>188</v>
       </c>
       <c r="G52" s="71" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.15">
@@ -4989,8 +4990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5044,7 +5045,7 @@
         <v>214</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E2" s="87" t="s">
         <v>230</v>
@@ -5056,7 +5057,7 @@
         <v>249</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I2" s="87" t="s">
         <v>232</v>
@@ -5073,7 +5074,7 @@
         <v>215</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E3" s="87"/>
       <c r="F3" s="2" t="s">
@@ -5083,7 +5084,7 @@
         <v>250</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I3" s="87"/>
     </row>
@@ -5098,7 +5099,7 @@
         <v>216</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E4" s="87"/>
       <c r="F4" s="2" t="s">
@@ -5108,7 +5109,7 @@
         <v>251</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I4" s="87"/>
     </row>
@@ -5123,7 +5124,7 @@
         <v>217</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E5" s="87"/>
       <c r="F5" s="2" t="s">
@@ -5133,7 +5134,7 @@
         <v>252</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="I5" s="87"/>
     </row>
@@ -5148,7 +5149,7 @@
         <v>218</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E6" s="87"/>
       <c r="F6" s="2" t="s">
@@ -5158,7 +5159,7 @@
         <v>253</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="I6" s="87"/>
     </row>
@@ -5173,7 +5174,7 @@
         <v>219</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="2" t="s">
@@ -5183,7 +5184,7 @@
         <v>254</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="I7" s="87"/>
     </row>
@@ -5198,7 +5199,7 @@
         <v>220</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E8" s="87"/>
       <c r="F8" s="2" t="s">
@@ -5208,7 +5209,7 @@
         <v>255</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="I8" s="87"/>
     </row>
@@ -5223,7 +5224,7 @@
         <v>221</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E9" s="87"/>
       <c r="F9" s="2" t="s">
@@ -5233,7 +5234,7 @@
         <v>256</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="I9" s="87"/>
     </row>
@@ -5248,7 +5249,7 @@
         <v>222</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E10" s="87"/>
       <c r="F10" s="2" t="s">
@@ -5271,7 +5272,7 @@
         <v>223</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E11" s="87"/>
       <c r="F11" s="2" t="s">
@@ -5281,7 +5282,7 @@
         <v>258</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="I11" s="87"/>
     </row>
@@ -5296,7 +5297,7 @@
         <v>224</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E12" s="87"/>
       <c r="F12" s="2" t="s">
@@ -5306,7 +5307,7 @@
         <v>259</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I12" s="87"/>
     </row>
@@ -5321,7 +5322,7 @@
         <v>225</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E13" s="87"/>
       <c r="F13" s="2" t="s">
@@ -5331,7 +5332,7 @@
         <v>260</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="I13" s="87"/>
     </row>
@@ -5346,7 +5347,7 @@
         <v>226</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E14" s="87"/>
       <c r="F14" s="2" t="s">
@@ -5356,7 +5357,7 @@
         <v>261</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I14" s="87"/>
     </row>
@@ -5371,7 +5372,7 @@
         <v>227</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E15" s="87"/>
       <c r="F15" s="2" t="s">
@@ -5381,7 +5382,7 @@
         <v>262</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I15" s="87"/>
     </row>
@@ -5396,7 +5397,7 @@
         <v>228</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E16" s="87"/>
       <c r="F16" s="2" t="s">
@@ -5427,7 +5428,7 @@
         <v>264</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="I17" s="87"/>
     </row>
@@ -5449,13 +5450,13 @@
         <v>233</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="I18" s="87" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -5477,7 +5478,7 @@
         <v>284</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="I19" s="87"/>
     </row>
@@ -5492,7 +5493,7 @@
         <v>269</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E20" s="87"/>
       <c r="F20" s="2" t="s">
@@ -5517,7 +5518,7 @@
         <v>270</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E21" s="87"/>
       <c r="F21" s="2" t="s">
@@ -5527,7 +5528,7 @@
         <v>286</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="I21" s="87"/>
     </row>
@@ -5542,7 +5543,7 @@
         <v>271</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E22" s="87"/>
       <c r="F22" s="2" t="s">
@@ -5552,7 +5553,7 @@
         <v>287</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="I22" s="87"/>
     </row>
@@ -5567,7 +5568,7 @@
         <v>272</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E23" s="87"/>
       <c r="F23" s="2" t="s">
@@ -5577,7 +5578,7 @@
         <v>288</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="I23" s="87"/>
     </row>
@@ -5592,7 +5593,7 @@
         <v>273</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E24" s="87"/>
       <c r="F24" s="2" t="s">
@@ -5602,7 +5603,7 @@
         <v>289</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I24" s="87"/>
     </row>
@@ -5617,7 +5618,7 @@
         <v>274</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E25" s="87"/>
       <c r="F25" s="2" t="s">
@@ -5648,7 +5649,7 @@
         <v>291</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="I26" s="87"/>
     </row>
@@ -5671,7 +5672,7 @@
         <v>292</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I27" s="87"/>
     </row>
@@ -5694,7 +5695,7 @@
         <v>293</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="I28" s="87"/>
     </row>
@@ -5709,7 +5710,7 @@
         <v>278</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="2" t="s">
@@ -5732,7 +5733,7 @@
         <v>279</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E30" s="87"/>
       <c r="F30" s="2" t="s">
@@ -5742,7 +5743,7 @@
         <v>295</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="I30" s="87"/>
     </row>
@@ -5757,7 +5758,7 @@
         <v>280</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E31" s="87"/>
       <c r="F31" s="2" t="s">
@@ -5767,7 +5768,7 @@
         <v>296</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I31" s="87"/>
     </row>
@@ -5782,7 +5783,7 @@
         <v>281</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E32" s="87"/>
       <c r="F32" s="2" t="s">
@@ -5792,7 +5793,7 @@
         <v>297</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I32" s="87"/>
     </row>
@@ -5807,7 +5808,7 @@
         <v>282</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E33" s="87"/>
       <c r="F33" s="2" t="s">
@@ -5817,7 +5818,7 @@
         <v>298</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I33" s="87"/>
     </row>
@@ -5832,7 +5833,7 @@
         <v>302</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E34" s="87" t="s">
         <v>299</v>
@@ -5853,7 +5854,7 @@
         <v>303</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E35" s="87"/>
       <c r="F35" s="98"/>
@@ -5872,7 +5873,7 @@
         <v>304</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E36" s="87"/>
       <c r="F36" s="98"/>
@@ -5891,7 +5892,7 @@
         <v>305</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E37" s="87"/>
       <c r="F37" s="98"/>
@@ -5910,7 +5911,7 @@
         <v>306</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E38" s="87"/>
       <c r="F38" s="98"/>
@@ -5946,7 +5947,7 @@
         <v>308</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E40" s="87"/>
       <c r="F40" s="98"/>
@@ -5965,7 +5966,7 @@
         <v>309</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E41" s="87"/>
       <c r="F41" s="98"/>
@@ -5984,7 +5985,7 @@
         <v>310</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E42" s="87"/>
       <c r="F42" s="98"/>
@@ -6003,7 +6004,7 @@
         <v>311</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E43" s="87"/>
       <c r="F43" s="98"/>
@@ -6022,7 +6023,7 @@
         <v>312</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E44" s="87"/>
       <c r="F44" s="98"/>
@@ -6041,7 +6042,7 @@
         <v>313</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E45" s="87"/>
       <c r="F45" s="98"/>
@@ -6060,7 +6061,7 @@
         <v>314</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E46" s="87"/>
       <c r="F46" s="98"/>
@@ -6079,7 +6080,7 @@
         <v>315</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E47" s="87"/>
       <c r="F47" s="98"/>
@@ -6098,7 +6099,7 @@
         <v>316</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E48" s="87"/>
       <c r="F48" s="98"/>
@@ -6117,7 +6118,7 @@
         <v>317</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E49" s="87"/>
       <c r="F49" s="101"/>
@@ -6136,7 +6137,7 @@
         <v>318</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E50" s="87" t="s">
         <v>300</v>
@@ -6191,7 +6192,7 @@
         <v>321</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E53" s="87"/>
       <c r="F53" s="98"/>
@@ -6210,7 +6211,7 @@
         <v>322</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E54" s="87"/>
       <c r="F54" s="98"/>
@@ -6229,7 +6230,7 @@
         <v>323</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E55" s="87"/>
       <c r="F55" s="98"/>
@@ -6265,7 +6266,7 @@
         <v>325</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E57" s="87"/>
       <c r="F57" s="98"/>
@@ -6284,7 +6285,7 @@
         <v>326</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E58" s="87"/>
       <c r="F58" s="98"/>
@@ -6303,7 +6304,7 @@
         <v>327</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="E59" s="87"/>
       <c r="F59" s="98"/>
@@ -6322,7 +6323,7 @@
         <v>328</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="98"/>
@@ -6341,7 +6342,7 @@
         <v>329</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E61" s="87"/>
       <c r="F61" s="98"/>
@@ -6360,7 +6361,7 @@
         <v>330</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E62" s="87"/>
       <c r="F62" s="98"/>
@@ -6379,7 +6380,7 @@
         <v>331</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E63" s="87"/>
       <c r="F63" s="98"/>
@@ -6398,7 +6399,7 @@
         <v>332</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E64" s="87"/>
       <c r="F64" s="98"/>
@@ -6417,7 +6418,7 @@
         <v>333</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E65" s="87"/>
       <c r="F65" s="101"/>
@@ -6436,7 +6437,7 @@
         <v>335</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E66" s="87" t="s">
         <v>301</v>
@@ -6457,7 +6458,7 @@
         <v>336</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E67" s="87"/>
       <c r="F67" s="98"/>
@@ -6476,7 +6477,7 @@
         <v>337</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E68" s="87"/>
       <c r="F68" s="98"/>
@@ -6495,7 +6496,7 @@
         <v>338</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E69" s="87"/>
       <c r="F69" s="98"/>
@@ -6514,7 +6515,7 @@
         <v>339</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E70" s="87"/>
       <c r="F70" s="98"/>
@@ -6533,7 +6534,7 @@
         <v>340</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E71" s="87"/>
       <c r="F71" s="98"/>
@@ -6552,7 +6553,7 @@
         <v>341</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E72" s="87"/>
       <c r="F72" s="98"/>
@@ -6571,7 +6572,7 @@
         <v>342</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E73" s="87"/>
       <c r="F73" s="98"/>
@@ -6590,7 +6591,7 @@
         <v>343</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E74" s="87"/>
       <c r="F74" s="98"/>
@@ -6609,7 +6610,7 @@
         <v>344</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E75" s="87"/>
       <c r="F75" s="98"/>
@@ -6628,7 +6629,7 @@
         <v>345</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E76" s="87"/>
       <c r="F76" s="98"/>
@@ -6647,7 +6648,7 @@
         <v>346</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E77" s="87"/>
       <c r="F77" s="98"/>
@@ -6666,7 +6667,7 @@
         <v>347</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E78" s="87"/>
       <c r="F78" s="98"/>
@@ -6685,7 +6686,7 @@
         <v>348</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E79" s="87"/>
       <c r="F79" s="98"/>
@@ -6738,7 +6739,7 @@
         <v>354</v>
       </c>
       <c r="D82" s="74" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E82" s="87" t="s">
         <v>352</v>
@@ -6767,7 +6768,7 @@
         <v>355</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E83" s="87"/>
       <c r="F83" s="2" t="s">
@@ -6790,7 +6791,7 @@
         <v>356</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E84" s="87"/>
       <c r="F84" s="2" t="s">
@@ -6815,7 +6816,7 @@
         <v>357</v>
       </c>
       <c r="D85" s="75" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E85" s="87"/>
       <c r="F85" s="2" t="s">
@@ -6888,7 +6889,7 @@
         <v>360</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E88" s="87"/>
       <c r="F88" s="2" t="s">
@@ -6913,7 +6914,7 @@
         <v>361</v>
       </c>
       <c r="D89" s="74" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E89" s="87"/>
       <c r="F89" s="2" t="s">
@@ -6938,14 +6939,14 @@
         <v>362</v>
       </c>
       <c r="D90" s="74" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E90" s="87"/>
       <c r="F90" s="2" t="s">
         <v>241</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>395</v>
+        <v>533</v>
       </c>
       <c r="H90" s="3" t="s">
         <v>137</v>
@@ -6963,14 +6964,14 @@
         <v>363</v>
       </c>
       <c r="D91" s="74" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E91" s="87"/>
       <c r="F91" s="2" t="s">
         <v>242</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>138</v>
@@ -6988,14 +6989,14 @@
         <v>364</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E92" s="87"/>
       <c r="F92" s="2" t="s">
         <v>243</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>397</v>
+        <v>534</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>139</v>
@@ -7013,14 +7014,14 @@
         <v>365</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E93" s="87"/>
       <c r="F93" s="2" t="s">
         <v>244</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>140</v>
@@ -7038,14 +7039,14 @@
         <v>366</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E94" s="87"/>
       <c r="F94" s="2" t="s">
         <v>245</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H94" s="75" t="s">
         <v>179</v>
@@ -7063,14 +7064,14 @@
         <v>367</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E95" s="87"/>
       <c r="F95" s="2" t="s">
         <v>246</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H95" s="75" t="s">
         <v>180</v>
@@ -7093,7 +7094,7 @@
         <v>247</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H96" s="75" t="s">
         <v>181</v>
@@ -7116,7 +7117,7 @@
         <v>248</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H97" s="75" t="s">
         <v>182</v>
@@ -7143,13 +7144,13 @@
         <v>283</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H98" s="75" t="s">
         <v>183</v>
       </c>
       <c r="I98" s="87" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
@@ -7170,7 +7171,7 @@
         <v>234</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H99" s="75" t="s">
         <v>184</v>
@@ -7195,7 +7196,7 @@
         <v>235</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H100" s="75" t="s">
         <v>185</v>
@@ -7220,7 +7221,7 @@
         <v>236</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H101" s="75" t="s">
         <v>186</v>
@@ -7245,10 +7246,10 @@
         <v>237</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="H102" s="75" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I102" s="87"/>
     </row>
@@ -7268,7 +7269,7 @@
         <v>238</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="H103" s="75" t="s">
         <v>187</v>
@@ -7286,14 +7287,14 @@
         <v>376</v>
       </c>
       <c r="D104" s="82" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E104" s="87"/>
       <c r="F104" s="2" t="s">
         <v>239</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H104" s="2"/>
       <c r="I104" s="87"/>
@@ -7309,14 +7310,14 @@
         <v>377</v>
       </c>
       <c r="D105" s="82" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E105" s="87"/>
       <c r="F105" s="2" t="s">
         <v>240</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" s="87"/>
@@ -7332,14 +7333,14 @@
         <v>378</v>
       </c>
       <c r="D106" s="82" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E106" s="87"/>
       <c r="F106" s="2" t="s">
         <v>241</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H106" s="2"/>
       <c r="I106" s="87"/>
@@ -7355,14 +7356,14 @@
         <v>379</v>
       </c>
       <c r="D107" s="82" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E107" s="87"/>
       <c r="F107" s="2" t="s">
         <v>242</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="H107" s="2"/>
       <c r="I107" s="87"/>
@@ -7385,7 +7386,7 @@
         <v>243</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H108" s="2"/>
       <c r="I108" s="87"/>
@@ -7408,7 +7409,7 @@
         <v>244</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H109" s="2"/>
       <c r="I109" s="87"/>
@@ -7429,7 +7430,7 @@
         <v>245</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H110" s="2"/>
       <c r="I110" s="87"/>
@@ -7450,7 +7451,7 @@
         <v>246</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H111" s="2"/>
       <c r="I111" s="87"/>
@@ -7471,7 +7472,7 @@
         <v>247</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="H112" s="2"/>
       <c r="I112" s="87"/>
@@ -7492,18 +7493,13 @@
         <v>248</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H113" s="2"/>
       <c r="I113" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E2:E17"/>
-    <mergeCell ref="I2:I17"/>
-    <mergeCell ref="E18:E33"/>
-    <mergeCell ref="I18:I33"/>
-    <mergeCell ref="E34:E49"/>
     <mergeCell ref="E98:E113"/>
     <mergeCell ref="I98:I113"/>
     <mergeCell ref="F34:I49"/>
@@ -7513,6 +7509,11 @@
     <mergeCell ref="I82:I97"/>
     <mergeCell ref="E82:E97"/>
     <mergeCell ref="E50:E65"/>
+    <mergeCell ref="E2:E17"/>
+    <mergeCell ref="I2:I17"/>
+    <mergeCell ref="E18:E33"/>
+    <mergeCell ref="I18:I33"/>
+    <mergeCell ref="E34:E49"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7523,8 +7524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/副本泰国HB改造物料单及IO.xlsx
+++ b/副本泰国HB改造物料单及IO.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="696" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="696" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="时序" sheetId="4" r:id="rId4"/>
     <sheet name="倍福IO表" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="557">
   <si>
     <t>物料清单（电气）:</t>
   </si>
@@ -1877,87 +1878,175 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>条码有料【从台达plc给出】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码Z轴原点【轴24】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码Z轴正极限【轴24】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码Z轴反极限【轴24】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码U轴原点【轴25】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码Y轴原点【22轴】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码Y轴正极限【22轴】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚压Z轴原点【23轴】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚压Z轴正极限【23轴】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚压Z轴反极限【23轴】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG上料X轴原点【21轴】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG上料X轴正极限【21轴】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG上料X轴反极限【21轴】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG上料AB工位切换感应2SET</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG上料X轴B工位感应光纤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG上料X轴B工位感应光纤</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码Y轴反极限【22轴】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑台真空吸2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y100_9</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y100_11</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag_Barcode_Need_Cam</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag_Barcode_Need_Cam_Finsh</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag_Barcode_Can_Fit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag_Barcode_Fit_Finish</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>上位机→Barcode机构</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>时序</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barcode机构→上位机</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG上料AB工位切换气缸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG上料旋转气缸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码取料气缸1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码取料气缸2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码取料气缸3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码取料气缸4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕膜平台真空吸3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕膜平台真空吸4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPC上料分盘气缸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPC下料分盘气缸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品TRAY盘上料分盘气缸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品TRAY盘下料分盘气缸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码取料破真空2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码取料破真空3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码取料破真空4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>条码取完【给plc】</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>条码有料【从台达plc给出】</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>条形码Z轴原点【轴24】</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>条形码Z轴正极限【轴24】</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>条形码Z轴反极限【轴24】</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>条形码U轴原点【轴25】</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>条形码Y轴原点【22轴】</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>条形码Y轴正极限【22轴】</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>滚压Z轴原点【23轴】</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>滚压Z轴正极限【23轴】</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>滚压Z轴反极限【23轴】</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FG上料X轴原点【21轴】</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FG上料X轴正极限【21轴】</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FG上料X轴反极限【21轴】</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FG上料AB工位切换感应2SET</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FG上料X轴B工位感应光纤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FG上料X轴B工位感应光纤</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>条形码Y轴反极限【22轴】</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>滑台真空吸2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y100_9</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y100_11</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1965,7 +2054,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2058,6 +2147,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2357,7 +2453,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2538,6 +2634,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3315,12 +3414,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6" t="s">
         <v>1</v>
@@ -3340,10 +3439,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="91"/>
       <c r="G2" s="12"/>
       <c r="H2" s="13"/>
       <c r="I2" s="66"/>
@@ -3357,10 +3456,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="14"/>
-      <c r="E3" s="90" t="s">
+      <c r="E3" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="90"/>
+      <c r="F3" s="91"/>
       <c r="G3" s="15"/>
       <c r="H3" s="16"/>
       <c r="I3" s="66"/>
@@ -3376,10 +3475,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="20"/>
-      <c r="E4" s="90" t="s">
+      <c r="E4" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="90"/>
+      <c r="F4" s="91"/>
       <c r="G4" s="18"/>
       <c r="H4" s="21"/>
       <c r="I4" s="66"/>
@@ -3396,7 +3495,7 @@
       <c r="I5" s="67"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="92" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="27" t="s">
@@ -3425,7 +3524,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="84"/>
+      <c r="A7" s="85"/>
       <c r="B7" s="31"/>
       <c r="C7" s="32" t="s">
         <v>21</v>
@@ -3448,7 +3547,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="84"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="31"/>
       <c r="C8" s="32" t="s">
         <v>26</v>
@@ -3471,7 +3570,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="84"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="31"/>
       <c r="C9" s="32" t="s">
         <v>30</v>
@@ -3494,7 +3593,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="92"/>
+      <c r="A10" s="93"/>
       <c r="B10" s="35"/>
       <c r="C10" s="32" t="s">
         <v>33</v>
@@ -3517,7 +3616,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="84" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="37"/>
@@ -3554,7 +3653,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="84"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="37"/>
       <c r="C12" s="3" t="s">
         <v>46</v>
@@ -3577,7 +3676,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="84"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="37"/>
       <c r="C13" s="42" t="s">
         <v>48</v>
@@ -3600,7 +3699,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="84"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="37"/>
       <c r="C14" s="42" t="s">
         <v>51</v>
@@ -3623,7 +3722,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="84"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="37"/>
       <c r="C15" s="43" t="s">
         <v>53</v>
@@ -3646,7 +3745,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="92"/>
+      <c r="A16" s="93"/>
       <c r="B16" s="35"/>
       <c r="C16" s="45" t="s">
         <v>56</v>
@@ -3669,7 +3768,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="83" t="s">
+      <c r="A17" s="84" t="s">
         <v>59</v>
       </c>
       <c r="B17" s="35"/>
@@ -3692,7 +3791,7 @@
       <c r="I17" s="68"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="84"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="36"/>
       <c r="C18" s="47" t="s">
         <v>63</v>
@@ -3713,7 +3812,7 @@
       <c r="I18" s="68"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="84"/>
+      <c r="A19" s="85"/>
       <c r="B19" s="36"/>
       <c r="C19" s="49" t="s">
         <v>66</v>
@@ -3734,7 +3833,7 @@
       <c r="I19" s="68"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="84"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="36"/>
       <c r="C20" t="s">
         <v>69</v>
@@ -3775,7 +3874,7 @@
       <c r="I21" s="54"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="86" t="s">
         <v>74</v>
       </c>
       <c r="B22" s="35"/>
@@ -3798,7 +3897,7 @@
       <c r="I22" s="68"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="85"/>
+      <c r="A23" s="86"/>
       <c r="B23" s="2"/>
       <c r="C23" s="49" t="s">
         <v>77</v>
@@ -3819,7 +3918,7 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="86"/>
+      <c r="A24" s="87"/>
       <c r="B24" s="60"/>
       <c r="C24" s="61" t="s">
         <v>80</v>
@@ -3834,7 +3933,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="85" t="s">
+      <c r="A25" s="86" t="s">
         <v>82</v>
       </c>
       <c r="B25" s="2"/>
@@ -3853,7 +3952,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="87"/>
+      <c r="A26" s="88"/>
       <c r="B26" s="2"/>
       <c r="C26" s="48" t="s">
         <v>85</v>
@@ -3868,7 +3967,7 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="87"/>
+      <c r="A27" s="88"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -3879,7 +3978,7 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="87"/>
+      <c r="A28" s="88"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3890,7 +3989,7 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="87"/>
+      <c r="A29" s="88"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -3901,7 +4000,7 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="87"/>
+      <c r="A30" s="88"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -3912,7 +4011,7 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="87"/>
+      <c r="A31" s="88"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -3923,7 +4022,7 @@
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="87"/>
+      <c r="A32" s="88"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4271,12 +4370,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
       <c r="J1" s="77" t="s">
         <v>167</v>
       </c>
@@ -4959,24 +5058,64 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.25" style="83" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1">
-        <f>50*3.6</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <f>A1*0.9</f>
-        <v>162</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
+        <v>539</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="36">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="36">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="36">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -4990,7 +5129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
@@ -5047,7 +5186,7 @@
       <c r="D2" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="88" t="s">
         <v>230</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -5059,7 +5198,7 @@
       <c r="H2" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="I2" s="87" t="s">
+      <c r="I2" s="88" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5076,7 +5215,7 @@
       <c r="D3" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="E3" s="87"/>
+      <c r="E3" s="88"/>
       <c r="F3" s="2" t="s">
         <v>234</v>
       </c>
@@ -5084,9 +5223,9 @@
         <v>250</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="I3" s="87"/>
+        <v>531</v>
+      </c>
+      <c r="I3" s="88"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
@@ -5101,7 +5240,7 @@
       <c r="D4" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E4" s="87"/>
+      <c r="E4" s="88"/>
       <c r="F4" s="2" t="s">
         <v>235</v>
       </c>
@@ -5111,7 +5250,7 @@
       <c r="H4" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="I4" s="87"/>
+      <c r="I4" s="88"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -5126,7 +5265,7 @@
       <c r="D5" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="E5" s="87"/>
+      <c r="E5" s="88"/>
       <c r="F5" s="2" t="s">
         <v>236</v>
       </c>
@@ -5136,7 +5275,7 @@
       <c r="H5" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="I5" s="87"/>
+      <c r="I5" s="88"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
@@ -5151,7 +5290,7 @@
       <c r="D6" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="E6" s="87"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="2" t="s">
         <v>237</v>
       </c>
@@ -5161,7 +5300,7 @@
       <c r="H6" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="I6" s="87"/>
+      <c r="I6" s="88"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
@@ -5176,7 +5315,7 @@
       <c r="D7" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="88"/>
       <c r="F7" s="2" t="s">
         <v>238</v>
       </c>
@@ -5186,7 +5325,7 @@
       <c r="H7" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="I7" s="87"/>
+      <c r="I7" s="88"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -5201,7 +5340,7 @@
       <c r="D8" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="E8" s="87"/>
+      <c r="E8" s="88"/>
       <c r="F8" s="2" t="s">
         <v>239</v>
       </c>
@@ -5211,7 +5350,7 @@
       <c r="H8" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="I8" s="87"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -5226,7 +5365,7 @@
       <c r="D9" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="E9" s="87"/>
+      <c r="E9" s="88"/>
       <c r="F9" s="2" t="s">
         <v>240</v>
       </c>
@@ -5236,7 +5375,7 @@
       <c r="H9" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="I9" s="87"/>
+      <c r="I9" s="88"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
@@ -5251,7 +5390,7 @@
       <c r="D10" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="E10" s="87"/>
+      <c r="E10" s="88"/>
       <c r="F10" s="2" t="s">
         <v>241</v>
       </c>
@@ -5259,7 +5398,7 @@
         <v>257</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="87"/>
+      <c r="I10" s="88"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
@@ -5274,7 +5413,7 @@
       <c r="D11" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E11" s="87"/>
+      <c r="E11" s="88"/>
       <c r="F11" s="2" t="s">
         <v>242</v>
       </c>
@@ -5284,7 +5423,7 @@
       <c r="H11" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="I11" s="87"/>
+      <c r="I11" s="88"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
@@ -5299,7 +5438,7 @@
       <c r="D12" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="E12" s="87"/>
+      <c r="E12" s="88"/>
       <c r="F12" s="2" t="s">
         <v>243</v>
       </c>
@@ -5309,7 +5448,7 @@
       <c r="H12" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="I12" s="87"/>
+      <c r="I12" s="88"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
@@ -5324,7 +5463,7 @@
       <c r="D13" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="E13" s="87"/>
+      <c r="E13" s="88"/>
       <c r="F13" s="2" t="s">
         <v>244</v>
       </c>
@@ -5334,7 +5473,7 @@
       <c r="H13" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="I13" s="87"/>
+      <c r="I13" s="88"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
@@ -5349,7 +5488,7 @@
       <c r="D14" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="E14" s="87"/>
+      <c r="E14" s="88"/>
       <c r="F14" s="2" t="s">
         <v>245</v>
       </c>
@@ -5359,7 +5498,7 @@
       <c r="H14" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="I14" s="87"/>
+      <c r="I14" s="88"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
@@ -5374,7 +5513,7 @@
       <c r="D15" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="E15" s="87"/>
+      <c r="E15" s="88"/>
       <c r="F15" s="2" t="s">
         <v>246</v>
       </c>
@@ -5384,7 +5523,7 @@
       <c r="H15" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="I15" s="87"/>
+      <c r="I15" s="88"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
@@ -5399,7 +5538,7 @@
       <c r="D16" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E16" s="87"/>
+      <c r="E16" s="88"/>
       <c r="F16" s="2" t="s">
         <v>247</v>
       </c>
@@ -5407,7 +5546,7 @@
         <v>263</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="87"/>
+      <c r="I16" s="88"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
@@ -5420,7 +5559,7 @@
         <v>229</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="87"/>
+      <c r="E17" s="88"/>
       <c r="F17" s="2" t="s">
         <v>248</v>
       </c>
@@ -5430,7 +5569,7 @@
       <c r="H17" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="I17" s="87"/>
+      <c r="I17" s="88"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
@@ -5443,7 +5582,7 @@
         <v>267</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="87" t="s">
+      <c r="E18" s="88" t="s">
         <v>265</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -5455,7 +5594,7 @@
       <c r="H18" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="I18" s="87" t="s">
+      <c r="I18" s="88" t="s">
         <v>498</v>
       </c>
     </row>
@@ -5470,7 +5609,7 @@
         <v>268</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="87"/>
+      <c r="E19" s="88"/>
       <c r="F19" s="2" t="s">
         <v>234</v>
       </c>
@@ -5480,7 +5619,7 @@
       <c r="H19" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="I19" s="87"/>
+      <c r="I19" s="88"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
@@ -5495,7 +5634,7 @@
       <c r="D20" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E20" s="87"/>
+      <c r="E20" s="88"/>
       <c r="F20" s="2" t="s">
         <v>235</v>
       </c>
@@ -5503,9 +5642,9 @@
         <v>285</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I20" s="87"/>
+        <v>541</v>
+      </c>
+      <c r="I20" s="88"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
@@ -5520,7 +5659,7 @@
       <c r="D21" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="E21" s="87"/>
+      <c r="E21" s="88"/>
       <c r="F21" s="2" t="s">
         <v>236</v>
       </c>
@@ -5530,7 +5669,7 @@
       <c r="H21" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="I21" s="87"/>
+      <c r="I21" s="88"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
@@ -5545,7 +5684,7 @@
       <c r="D22" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="E22" s="87"/>
+      <c r="E22" s="88"/>
       <c r="F22" s="2" t="s">
         <v>237</v>
       </c>
@@ -5555,7 +5694,7 @@
       <c r="H22" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="I22" s="87"/>
+      <c r="I22" s="88"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
@@ -5570,7 +5709,7 @@
       <c r="D23" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E23" s="87"/>
+      <c r="E23" s="88"/>
       <c r="F23" s="2" t="s">
         <v>238</v>
       </c>
@@ -5580,7 +5719,7 @@
       <c r="H23" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="I23" s="87"/>
+      <c r="I23" s="88"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
@@ -5595,7 +5734,7 @@
       <c r="D24" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="E24" s="87"/>
+      <c r="E24" s="88"/>
       <c r="F24" s="2" t="s">
         <v>239</v>
       </c>
@@ -5605,7 +5744,7 @@
       <c r="H24" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="I24" s="87"/>
+      <c r="I24" s="88"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
@@ -5620,7 +5759,7 @@
       <c r="D25" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="E25" s="87"/>
+      <c r="E25" s="88"/>
       <c r="F25" s="2" t="s">
         <v>240</v>
       </c>
@@ -5628,7 +5767,7 @@
         <v>290</v>
       </c>
       <c r="H25" s="2"/>
-      <c r="I25" s="87"/>
+      <c r="I25" s="88"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
@@ -5641,7 +5780,7 @@
         <v>275</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="87"/>
+      <c r="E26" s="88"/>
       <c r="F26" s="2" t="s">
         <v>241</v>
       </c>
@@ -5651,7 +5790,7 @@
       <c r="H26" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="I26" s="87"/>
+      <c r="I26" s="88"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
@@ -5664,7 +5803,7 @@
         <v>276</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="87"/>
+      <c r="E27" s="88"/>
       <c r="F27" s="2" t="s">
         <v>242</v>
       </c>
@@ -5674,7 +5813,7 @@
       <c r="H27" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="I27" s="87"/>
+      <c r="I27" s="88"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
@@ -5687,7 +5826,7 @@
         <v>277</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="87"/>
+      <c r="E28" s="88"/>
       <c r="F28" s="2" t="s">
         <v>243</v>
       </c>
@@ -5697,7 +5836,7 @@
       <c r="H28" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="I28" s="87"/>
+      <c r="I28" s="88"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
@@ -5712,7 +5851,7 @@
       <c r="D29" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E29" s="87"/>
+      <c r="E29" s="88"/>
       <c r="F29" s="2" t="s">
         <v>244</v>
       </c>
@@ -5720,7 +5859,7 @@
         <v>294</v>
       </c>
       <c r="H29" s="2"/>
-      <c r="I29" s="87"/>
+      <c r="I29" s="88"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
@@ -5735,7 +5874,7 @@
       <c r="D30" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="E30" s="87"/>
+      <c r="E30" s="88"/>
       <c r="F30" s="2" t="s">
         <v>245</v>
       </c>
@@ -5745,7 +5884,7 @@
       <c r="H30" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="I30" s="87"/>
+      <c r="I30" s="88"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
@@ -5760,7 +5899,7 @@
       <c r="D31" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="E31" s="87"/>
+      <c r="E31" s="88"/>
       <c r="F31" s="2" t="s">
         <v>246</v>
       </c>
@@ -5770,7 +5909,7 @@
       <c r="H31" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="I31" s="87"/>
+      <c r="I31" s="88"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
@@ -5785,7 +5924,7 @@
       <c r="D32" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="E32" s="87"/>
+      <c r="E32" s="88"/>
       <c r="F32" s="2" t="s">
         <v>247</v>
       </c>
@@ -5795,7 +5934,7 @@
       <c r="H32" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="I32" s="87"/>
+      <c r="I32" s="88"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
@@ -5810,7 +5949,7 @@
       <c r="D33" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="E33" s="87"/>
+      <c r="E33" s="88"/>
       <c r="F33" s="2" t="s">
         <v>248</v>
       </c>
@@ -5820,7 +5959,7 @@
       <c r="H33" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="I33" s="87"/>
+      <c r="I33" s="88"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
@@ -5833,15 +5972,15 @@
         <v>302</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="E34" s="87" t="s">
+        <v>529</v>
+      </c>
+      <c r="E34" s="88" t="s">
         <v>299</v>
       </c>
-      <c r="F34" s="95"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="97"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="98"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
@@ -5856,11 +5995,11 @@
       <c r="D35" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E35" s="87"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="100"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="101"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
@@ -5875,11 +6014,11 @@
       <c r="D36" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E36" s="87"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="100"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="101"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
@@ -5894,11 +6033,11 @@
       <c r="D37" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="E37" s="87"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="100"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="99"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="101"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
@@ -5913,11 +6052,11 @@
       <c r="D38" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="E38" s="87"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="100"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="101"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
@@ -5930,11 +6069,11 @@
         <v>307</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="87"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="100"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="101"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
@@ -5949,11 +6088,11 @@
       <c r="D40" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="E40" s="87"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="100"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="99"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="101"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
@@ -5968,11 +6107,11 @@
       <c r="D41" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E41" s="87"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="100"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="101"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
@@ -5987,11 +6126,11 @@
       <c r="D42" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="E42" s="87"/>
-      <c r="F42" s="98"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="100"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="101"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
@@ -6006,11 +6145,11 @@
       <c r="D43" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="E43" s="87"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="100"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="101"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
@@ -6025,11 +6164,11 @@
       <c r="D44" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E44" s="87"/>
-      <c r="F44" s="98"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="99"/>
-      <c r="I44" s="100"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="101"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
@@ -6044,11 +6183,11 @@
       <c r="D45" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="E45" s="87"/>
-      <c r="F45" s="98"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="99"/>
-      <c r="I45" s="100"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="100"/>
+      <c r="I45" s="101"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
@@ -6063,11 +6202,11 @@
       <c r="D46" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="E46" s="87"/>
-      <c r="F46" s="98"/>
-      <c r="G46" s="99"/>
-      <c r="H46" s="99"/>
-      <c r="I46" s="100"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="99"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="101"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
@@ -6082,11 +6221,11 @@
       <c r="D47" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="E47" s="87"/>
-      <c r="F47" s="98"/>
-      <c r="G47" s="99"/>
-      <c r="H47" s="99"/>
-      <c r="I47" s="100"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="101"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
@@ -6101,11 +6240,11 @@
       <c r="D48" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="E48" s="87"/>
-      <c r="F48" s="98"/>
-      <c r="G48" s="99"/>
-      <c r="H48" s="99"/>
-      <c r="I48" s="100"/>
+      <c r="E48" s="88"/>
+      <c r="F48" s="99"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="100"/>
+      <c r="I48" s="101"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
@@ -6120,11 +6259,11 @@
       <c r="D49" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E49" s="87"/>
-      <c r="F49" s="101"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="102"/>
-      <c r="I49" s="103"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="104"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
@@ -6139,13 +6278,13 @@
       <c r="D50" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="E50" s="87" t="s">
+      <c r="E50" s="88" t="s">
         <v>300</v>
       </c>
-      <c r="F50" s="95"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="96"/>
-      <c r="I50" s="97"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="97"/>
+      <c r="I50" s="98"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
@@ -6158,11 +6297,11 @@
         <v>319</v>
       </c>
       <c r="D51" s="2"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="98"/>
-      <c r="G51" s="99"/>
-      <c r="H51" s="99"/>
-      <c r="I51" s="100"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="99"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="101"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
@@ -6175,11 +6314,11 @@
         <v>320</v>
       </c>
       <c r="D52" s="2"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="99"/>
-      <c r="H52" s="99"/>
-      <c r="I52" s="100"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="99"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="100"/>
+      <c r="I52" s="101"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
@@ -6194,11 +6333,11 @@
       <c r="D53" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="E53" s="87"/>
-      <c r="F53" s="98"/>
-      <c r="G53" s="99"/>
-      <c r="H53" s="99"/>
-      <c r="I53" s="100"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="99"/>
+      <c r="G53" s="100"/>
+      <c r="H53" s="100"/>
+      <c r="I53" s="101"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
@@ -6213,11 +6352,11 @@
       <c r="D54" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="E54" s="87"/>
-      <c r="F54" s="98"/>
-      <c r="G54" s="99"/>
-      <c r="H54" s="99"/>
-      <c r="I54" s="100"/>
+      <c r="E54" s="88"/>
+      <c r="F54" s="99"/>
+      <c r="G54" s="100"/>
+      <c r="H54" s="100"/>
+      <c r="I54" s="101"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
@@ -6232,11 +6371,11 @@
       <c r="D55" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E55" s="87"/>
-      <c r="F55" s="98"/>
-      <c r="G55" s="99"/>
-      <c r="H55" s="99"/>
-      <c r="I55" s="100"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="99"/>
+      <c r="G55" s="100"/>
+      <c r="H55" s="100"/>
+      <c r="I55" s="101"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
@@ -6249,11 +6388,11 @@
         <v>324</v>
       </c>
       <c r="D56" s="2"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="98"/>
-      <c r="G56" s="99"/>
-      <c r="H56" s="99"/>
-      <c r="I56" s="100"/>
+      <c r="E56" s="88"/>
+      <c r="F56" s="99"/>
+      <c r="G56" s="100"/>
+      <c r="H56" s="100"/>
+      <c r="I56" s="101"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
@@ -6268,11 +6407,11 @@
       <c r="D57" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="E57" s="87"/>
-      <c r="F57" s="98"/>
-      <c r="G57" s="99"/>
-      <c r="H57" s="99"/>
-      <c r="I57" s="100"/>
+      <c r="E57" s="88"/>
+      <c r="F57" s="99"/>
+      <c r="G57" s="100"/>
+      <c r="H57" s="100"/>
+      <c r="I57" s="101"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
@@ -6287,11 +6426,11 @@
       <c r="D58" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="E58" s="87"/>
-      <c r="F58" s="98"/>
-      <c r="G58" s="99"/>
-      <c r="H58" s="99"/>
-      <c r="I58" s="100"/>
+      <c r="E58" s="88"/>
+      <c r="F58" s="99"/>
+      <c r="G58" s="100"/>
+      <c r="H58" s="100"/>
+      <c r="I58" s="101"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
@@ -6306,11 +6445,11 @@
       <c r="D59" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="E59" s="87"/>
-      <c r="F59" s="98"/>
-      <c r="G59" s="99"/>
-      <c r="H59" s="99"/>
-      <c r="I59" s="100"/>
+      <c r="E59" s="88"/>
+      <c r="F59" s="99"/>
+      <c r="G59" s="100"/>
+      <c r="H59" s="100"/>
+      <c r="I59" s="101"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
@@ -6325,11 +6464,11 @@
       <c r="D60" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="E60" s="87"/>
-      <c r="F60" s="98"/>
-      <c r="G60" s="99"/>
-      <c r="H60" s="99"/>
-      <c r="I60" s="100"/>
+      <c r="E60" s="88"/>
+      <c r="F60" s="99"/>
+      <c r="G60" s="100"/>
+      <c r="H60" s="100"/>
+      <c r="I60" s="101"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
@@ -6344,11 +6483,11 @@
       <c r="D61" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="E61" s="87"/>
-      <c r="F61" s="98"/>
-      <c r="G61" s="99"/>
-      <c r="H61" s="99"/>
-      <c r="I61" s="100"/>
+      <c r="E61" s="88"/>
+      <c r="F61" s="99"/>
+      <c r="G61" s="100"/>
+      <c r="H61" s="100"/>
+      <c r="I61" s="101"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
@@ -6363,11 +6502,11 @@
       <c r="D62" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="E62" s="87"/>
-      <c r="F62" s="98"/>
-      <c r="G62" s="99"/>
-      <c r="H62" s="99"/>
-      <c r="I62" s="100"/>
+      <c r="E62" s="88"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="100"/>
+      <c r="H62" s="100"/>
+      <c r="I62" s="101"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
@@ -6382,11 +6521,11 @@
       <c r="D63" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="E63" s="87"/>
-      <c r="F63" s="98"/>
-      <c r="G63" s="99"/>
-      <c r="H63" s="99"/>
-      <c r="I63" s="100"/>
+      <c r="E63" s="88"/>
+      <c r="F63" s="99"/>
+      <c r="G63" s="100"/>
+      <c r="H63" s="100"/>
+      <c r="I63" s="101"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
@@ -6401,11 +6540,11 @@
       <c r="D64" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="E64" s="87"/>
-      <c r="F64" s="98"/>
-      <c r="G64" s="99"/>
-      <c r="H64" s="99"/>
-      <c r="I64" s="100"/>
+      <c r="E64" s="88"/>
+      <c r="F64" s="99"/>
+      <c r="G64" s="100"/>
+      <c r="H64" s="100"/>
+      <c r="I64" s="101"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
@@ -6420,11 +6559,11 @@
       <c r="D65" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="E65" s="87"/>
-      <c r="F65" s="101"/>
-      <c r="G65" s="102"/>
-      <c r="H65" s="102"/>
-      <c r="I65" s="103"/>
+      <c r="E65" s="88"/>
+      <c r="F65" s="102"/>
+      <c r="G65" s="103"/>
+      <c r="H65" s="103"/>
+      <c r="I65" s="104"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
@@ -6439,13 +6578,13 @@
       <c r="D66" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="E66" s="87" t="s">
+      <c r="E66" s="88" t="s">
         <v>301</v>
       </c>
-      <c r="F66" s="95"/>
-      <c r="G66" s="96"/>
-      <c r="H66" s="96"/>
-      <c r="I66" s="97"/>
+      <c r="F66" s="96"/>
+      <c r="G66" s="97"/>
+      <c r="H66" s="97"/>
+      <c r="I66" s="98"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
@@ -6460,11 +6599,11 @@
       <c r="D67" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="E67" s="87"/>
-      <c r="F67" s="98"/>
-      <c r="G67" s="99"/>
-      <c r="H67" s="99"/>
-      <c r="I67" s="100"/>
+      <c r="E67" s="88"/>
+      <c r="F67" s="99"/>
+      <c r="G67" s="100"/>
+      <c r="H67" s="100"/>
+      <c r="I67" s="101"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
@@ -6479,11 +6618,11 @@
       <c r="D68" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="E68" s="87"/>
-      <c r="F68" s="98"/>
-      <c r="G68" s="99"/>
-      <c r="H68" s="99"/>
-      <c r="I68" s="100"/>
+      <c r="E68" s="88"/>
+      <c r="F68" s="99"/>
+      <c r="G68" s="100"/>
+      <c r="H68" s="100"/>
+      <c r="I68" s="101"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
@@ -6498,11 +6637,11 @@
       <c r="D69" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="E69" s="87"/>
-      <c r="F69" s="98"/>
-      <c r="G69" s="99"/>
-      <c r="H69" s="99"/>
-      <c r="I69" s="100"/>
+      <c r="E69" s="88"/>
+      <c r="F69" s="99"/>
+      <c r="G69" s="100"/>
+      <c r="H69" s="100"/>
+      <c r="I69" s="101"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
@@ -6517,11 +6656,11 @@
       <c r="D70" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="E70" s="87"/>
-      <c r="F70" s="98"/>
-      <c r="G70" s="99"/>
-      <c r="H70" s="99"/>
-      <c r="I70" s="100"/>
+      <c r="E70" s="88"/>
+      <c r="F70" s="99"/>
+      <c r="G70" s="100"/>
+      <c r="H70" s="100"/>
+      <c r="I70" s="101"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
@@ -6536,11 +6675,11 @@
       <c r="D71" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="E71" s="87"/>
-      <c r="F71" s="98"/>
-      <c r="G71" s="99"/>
-      <c r="H71" s="99"/>
-      <c r="I71" s="100"/>
+      <c r="E71" s="88"/>
+      <c r="F71" s="99"/>
+      <c r="G71" s="100"/>
+      <c r="H71" s="100"/>
+      <c r="I71" s="101"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
@@ -6555,11 +6694,11 @@
       <c r="D72" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E72" s="87"/>
-      <c r="F72" s="98"/>
-      <c r="G72" s="99"/>
-      <c r="H72" s="99"/>
-      <c r="I72" s="100"/>
+      <c r="E72" s="88"/>
+      <c r="F72" s="99"/>
+      <c r="G72" s="100"/>
+      <c r="H72" s="100"/>
+      <c r="I72" s="101"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
@@ -6574,11 +6713,11 @@
       <c r="D73" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="E73" s="87"/>
-      <c r="F73" s="98"/>
-      <c r="G73" s="99"/>
-      <c r="H73" s="99"/>
-      <c r="I73" s="100"/>
+      <c r="E73" s="88"/>
+      <c r="F73" s="99"/>
+      <c r="G73" s="100"/>
+      <c r="H73" s="100"/>
+      <c r="I73" s="101"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
@@ -6593,11 +6732,11 @@
       <c r="D74" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="E74" s="87"/>
-      <c r="F74" s="98"/>
-      <c r="G74" s="99"/>
-      <c r="H74" s="99"/>
-      <c r="I74" s="100"/>
+      <c r="E74" s="88"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="100"/>
+      <c r="H74" s="100"/>
+      <c r="I74" s="101"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
@@ -6612,11 +6751,11 @@
       <c r="D75" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="E75" s="87"/>
-      <c r="F75" s="98"/>
-      <c r="G75" s="99"/>
-      <c r="H75" s="99"/>
-      <c r="I75" s="100"/>
+      <c r="E75" s="88"/>
+      <c r="F75" s="99"/>
+      <c r="G75" s="100"/>
+      <c r="H75" s="100"/>
+      <c r="I75" s="101"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
@@ -6631,11 +6770,11 @@
       <c r="D76" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="E76" s="87"/>
-      <c r="F76" s="98"/>
-      <c r="G76" s="99"/>
-      <c r="H76" s="99"/>
-      <c r="I76" s="100"/>
+      <c r="E76" s="88"/>
+      <c r="F76" s="99"/>
+      <c r="G76" s="100"/>
+      <c r="H76" s="100"/>
+      <c r="I76" s="101"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
@@ -6650,11 +6789,11 @@
       <c r="D77" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="E77" s="87"/>
-      <c r="F77" s="98"/>
-      <c r="G77" s="99"/>
-      <c r="H77" s="99"/>
-      <c r="I77" s="100"/>
+      <c r="E77" s="88"/>
+      <c r="F77" s="99"/>
+      <c r="G77" s="100"/>
+      <c r="H77" s="100"/>
+      <c r="I77" s="101"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
@@ -6669,11 +6808,11 @@
       <c r="D78" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="E78" s="87"/>
-      <c r="F78" s="98"/>
-      <c r="G78" s="99"/>
-      <c r="H78" s="99"/>
-      <c r="I78" s="100"/>
+      <c r="E78" s="88"/>
+      <c r="F78" s="99"/>
+      <c r="G78" s="100"/>
+      <c r="H78" s="100"/>
+      <c r="I78" s="101"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
@@ -6688,11 +6827,11 @@
       <c r="D79" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="E79" s="87"/>
-      <c r="F79" s="98"/>
-      <c r="G79" s="99"/>
-      <c r="H79" s="99"/>
-      <c r="I79" s="100"/>
+      <c r="E79" s="88"/>
+      <c r="F79" s="99"/>
+      <c r="G79" s="100"/>
+      <c r="H79" s="100"/>
+      <c r="I79" s="101"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
@@ -6705,11 +6844,11 @@
         <v>349</v>
       </c>
       <c r="D80" s="2"/>
-      <c r="E80" s="87"/>
-      <c r="F80" s="98"/>
-      <c r="G80" s="99"/>
-      <c r="H80" s="99"/>
-      <c r="I80" s="100"/>
+      <c r="E80" s="88"/>
+      <c r="F80" s="99"/>
+      <c r="G80" s="100"/>
+      <c r="H80" s="100"/>
+      <c r="I80" s="101"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
@@ -6722,11 +6861,11 @@
         <v>350</v>
       </c>
       <c r="D81" s="2"/>
-      <c r="E81" s="87"/>
-      <c r="F81" s="101"/>
-      <c r="G81" s="102"/>
-      <c r="H81" s="102"/>
-      <c r="I81" s="103"/>
+      <c r="E81" s="88"/>
+      <c r="F81" s="102"/>
+      <c r="G81" s="103"/>
+      <c r="H81" s="103"/>
+      <c r="I81" s="104"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
@@ -6739,9 +6878,9 @@
         <v>354</v>
       </c>
       <c r="D82" s="74" t="s">
-        <v>525</v>
-      </c>
-      <c r="E82" s="87" t="s">
+        <v>524</v>
+      </c>
+      <c r="E82" s="88" t="s">
         <v>352</v>
       </c>
       <c r="F82" s="2" t="s">
@@ -6751,9 +6890,9 @@
         <v>387</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I82" s="87" t="s">
+        <v>542</v>
+      </c>
+      <c r="I82" s="88" t="s">
         <v>386</v>
       </c>
     </row>
@@ -6768,9 +6907,9 @@
         <v>355</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="E83" s="87"/>
+        <v>525</v>
+      </c>
+      <c r="E83" s="88"/>
       <c r="F83" s="2" t="s">
         <v>234</v>
       </c>
@@ -6778,7 +6917,7 @@
         <v>388</v>
       </c>
       <c r="H83" s="3"/>
-      <c r="I83" s="87"/>
+      <c r="I83" s="88"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
@@ -6791,9 +6930,9 @@
         <v>356</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E84" s="87"/>
+        <v>526</v>
+      </c>
+      <c r="E84" s="88"/>
       <c r="F84" s="2" t="s">
         <v>235</v>
       </c>
@@ -6801,9 +6940,9 @@
         <v>389</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I84" s="87"/>
+        <v>543</v>
+      </c>
+      <c r="I84" s="88"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
@@ -6816,9 +6955,9 @@
         <v>357</v>
       </c>
       <c r="D85" s="75" t="s">
-        <v>529</v>
-      </c>
-      <c r="E85" s="87"/>
+        <v>528</v>
+      </c>
+      <c r="E85" s="88"/>
       <c r="F85" s="2" t="s">
         <v>236</v>
       </c>
@@ -6826,9 +6965,9 @@
         <v>390</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I85" s="87"/>
+        <v>544</v>
+      </c>
+      <c r="I85" s="88"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
@@ -6841,7 +6980,7 @@
         <v>358</v>
       </c>
       <c r="D86" s="75"/>
-      <c r="E86" s="87"/>
+      <c r="E86" s="88"/>
       <c r="F86" s="2" t="s">
         <v>237</v>
       </c>
@@ -6849,9 +6988,9 @@
         <v>391</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I86" s="87"/>
+        <v>545</v>
+      </c>
+      <c r="I86" s="88"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
@@ -6866,7 +7005,7 @@
       <c r="D87" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="E87" s="87"/>
+      <c r="E87" s="88"/>
       <c r="F87" s="2" t="s">
         <v>238</v>
       </c>
@@ -6874,9 +7013,9 @@
         <v>392</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I87" s="87"/>
+        <v>546</v>
+      </c>
+      <c r="I87" s="88"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
@@ -6889,9 +7028,9 @@
         <v>360</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="E88" s="87"/>
+        <v>527</v>
+      </c>
+      <c r="E88" s="88"/>
       <c r="F88" s="2" t="s">
         <v>239</v>
       </c>
@@ -6899,9 +7038,9 @@
         <v>393</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="I88" s="87"/>
+        <v>547</v>
+      </c>
+      <c r="I88" s="88"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
@@ -6914,9 +7053,9 @@
         <v>361</v>
       </c>
       <c r="D89" s="74" t="s">
-        <v>520</v>
-      </c>
-      <c r="E89" s="87"/>
+        <v>519</v>
+      </c>
+      <c r="E89" s="88"/>
       <c r="F89" s="2" t="s">
         <v>240</v>
       </c>
@@ -6924,9 +7063,9 @@
         <v>394</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I89" s="87"/>
+        <v>548</v>
+      </c>
+      <c r="I89" s="88"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
@@ -6939,19 +7078,19 @@
         <v>362</v>
       </c>
       <c r="D90" s="74" t="s">
-        <v>521</v>
-      </c>
-      <c r="E90" s="87"/>
+        <v>520</v>
+      </c>
+      <c r="E90" s="88"/>
       <c r="F90" s="2" t="s">
         <v>241</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I90" s="87"/>
+        <v>549</v>
+      </c>
+      <c r="I90" s="88"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
@@ -6964,9 +7103,9 @@
         <v>363</v>
       </c>
       <c r="D91" s="74" t="s">
-        <v>531</v>
-      </c>
-      <c r="E91" s="87"/>
+        <v>530</v>
+      </c>
+      <c r="E91" s="88"/>
       <c r="F91" s="2" t="s">
         <v>242</v>
       </c>
@@ -6974,9 +7113,9 @@
         <v>395</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I91" s="87"/>
+        <v>550</v>
+      </c>
+      <c r="I91" s="88"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
@@ -6989,19 +7128,19 @@
         <v>364</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E92" s="87"/>
+        <v>515</v>
+      </c>
+      <c r="E92" s="88"/>
       <c r="F92" s="2" t="s">
         <v>243</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="I92" s="87"/>
+        <v>551</v>
+      </c>
+      <c r="I92" s="88"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
@@ -7014,9 +7153,9 @@
         <v>365</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="E93" s="87"/>
+        <v>516</v>
+      </c>
+      <c r="E93" s="88"/>
       <c r="F93" s="2" t="s">
         <v>244</v>
       </c>
@@ -7024,9 +7163,9 @@
         <v>396</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="I93" s="87"/>
+        <v>552</v>
+      </c>
+      <c r="I93" s="88"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
@@ -7039,9 +7178,9 @@
         <v>366</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E94" s="87"/>
+        <v>517</v>
+      </c>
+      <c r="E94" s="88"/>
       <c r="F94" s="2" t="s">
         <v>245</v>
       </c>
@@ -7051,7 +7190,7 @@
       <c r="H94" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="I94" s="87"/>
+      <c r="I94" s="88"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
@@ -7064,9 +7203,9 @@
         <v>367</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="E95" s="87"/>
+        <v>518</v>
+      </c>
+      <c r="E95" s="88"/>
       <c r="F95" s="2" t="s">
         <v>246</v>
       </c>
@@ -7076,7 +7215,7 @@
       <c r="H95" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="I95" s="87"/>
+      <c r="I95" s="88"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
@@ -7089,7 +7228,7 @@
         <v>368</v>
       </c>
       <c r="D96" s="2"/>
-      <c r="E96" s="87"/>
+      <c r="E96" s="88"/>
       <c r="F96" s="2" t="s">
         <v>247</v>
       </c>
@@ -7099,7 +7238,7 @@
       <c r="H96" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="I96" s="87"/>
+      <c r="I96" s="88"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
@@ -7112,7 +7251,7 @@
         <v>369</v>
       </c>
       <c r="D97" s="2"/>
-      <c r="E97" s="87"/>
+      <c r="E97" s="88"/>
       <c r="F97" s="2" t="s">
         <v>248</v>
       </c>
@@ -7122,7 +7261,7 @@
       <c r="H97" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="I97" s="87"/>
+      <c r="I97" s="88"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
@@ -7137,7 +7276,7 @@
       <c r="D98" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="E98" s="87" t="s">
+      <c r="E98" s="88" t="s">
         <v>353</v>
       </c>
       <c r="F98" s="2" t="s">
@@ -7149,7 +7288,7 @@
       <c r="H98" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="I98" s="87" t="s">
+      <c r="I98" s="88" t="s">
         <v>499</v>
       </c>
     </row>
@@ -7166,7 +7305,7 @@
       <c r="D99" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="E99" s="87"/>
+      <c r="E99" s="88"/>
       <c r="F99" s="2" t="s">
         <v>234</v>
       </c>
@@ -7174,9 +7313,9 @@
         <v>402</v>
       </c>
       <c r="H99" s="75" t="s">
-        <v>184</v>
-      </c>
-      <c r="I99" s="87"/>
+        <v>553</v>
+      </c>
+      <c r="I99" s="88"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
@@ -7191,7 +7330,7 @@
       <c r="D100" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="E100" s="87"/>
+      <c r="E100" s="88"/>
       <c r="F100" s="2" t="s">
         <v>235</v>
       </c>
@@ -7199,9 +7338,9 @@
         <v>403</v>
       </c>
       <c r="H100" s="75" t="s">
-        <v>185</v>
-      </c>
-      <c r="I100" s="87"/>
+        <v>554</v>
+      </c>
+      <c r="I100" s="88"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
@@ -7216,7 +7355,7 @@
       <c r="D101" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="E101" s="87"/>
+      <c r="E101" s="88"/>
       <c r="F101" s="2" t="s">
         <v>236</v>
       </c>
@@ -7224,9 +7363,9 @@
         <v>404</v>
       </c>
       <c r="H101" s="75" t="s">
-        <v>186</v>
-      </c>
-      <c r="I101" s="87"/>
+        <v>555</v>
+      </c>
+      <c r="I101" s="88"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
@@ -7241,7 +7380,7 @@
       <c r="D102" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="E102" s="87"/>
+      <c r="E102" s="88"/>
       <c r="F102" s="2" t="s">
         <v>237</v>
       </c>
@@ -7249,9 +7388,9 @@
         <v>405</v>
       </c>
       <c r="H102" s="75" t="s">
-        <v>514</v>
-      </c>
-      <c r="I102" s="87"/>
+        <v>556</v>
+      </c>
+      <c r="I102" s="88"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
@@ -7264,7 +7403,7 @@
         <v>375</v>
       </c>
       <c r="D103" s="33"/>
-      <c r="E103" s="87"/>
+      <c r="E103" s="88"/>
       <c r="F103" s="2" t="s">
         <v>238</v>
       </c>
@@ -7274,7 +7413,7 @@
       <c r="H103" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="I103" s="87"/>
+      <c r="I103" s="88"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
@@ -7287,9 +7426,9 @@
         <v>376</v>
       </c>
       <c r="D104" s="82" t="s">
-        <v>522</v>
-      </c>
-      <c r="E104" s="87"/>
+        <v>521</v>
+      </c>
+      <c r="E104" s="88"/>
       <c r="F104" s="2" t="s">
         <v>239</v>
       </c>
@@ -7297,7 +7436,7 @@
         <v>407</v>
       </c>
       <c r="H104" s="2"/>
-      <c r="I104" s="87"/>
+      <c r="I104" s="88"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
@@ -7310,9 +7449,9 @@
         <v>377</v>
       </c>
       <c r="D105" s="82" t="s">
-        <v>523</v>
-      </c>
-      <c r="E105" s="87"/>
+        <v>522</v>
+      </c>
+      <c r="E105" s="88"/>
       <c r="F105" s="2" t="s">
         <v>240</v>
       </c>
@@ -7320,7 +7459,7 @@
         <v>408</v>
       </c>
       <c r="H105" s="2"/>
-      <c r="I105" s="87"/>
+      <c r="I105" s="88"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
@@ -7333,9 +7472,9 @@
         <v>378</v>
       </c>
       <c r="D106" s="82" t="s">
-        <v>524</v>
-      </c>
-      <c r="E106" s="87"/>
+        <v>523</v>
+      </c>
+      <c r="E106" s="88"/>
       <c r="F106" s="2" t="s">
         <v>241</v>
       </c>
@@ -7343,7 +7482,7 @@
         <v>409</v>
       </c>
       <c r="H106" s="2"/>
-      <c r="I106" s="87"/>
+      <c r="I106" s="88"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
@@ -7356,9 +7495,9 @@
         <v>379</v>
       </c>
       <c r="D107" s="82" t="s">
-        <v>515</v>
-      </c>
-      <c r="E107" s="87"/>
+        <v>514</v>
+      </c>
+      <c r="E107" s="88"/>
       <c r="F107" s="2" t="s">
         <v>242</v>
       </c>
@@ -7366,7 +7505,7 @@
         <v>410</v>
       </c>
       <c r="H107" s="2"/>
-      <c r="I107" s="87"/>
+      <c r="I107" s="88"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
@@ -7381,7 +7520,7 @@
       <c r="D108" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E108" s="87"/>
+      <c r="E108" s="88"/>
       <c r="F108" s="2" t="s">
         <v>243</v>
       </c>
@@ -7389,7 +7528,7 @@
         <v>411</v>
       </c>
       <c r="H108" s="2"/>
-      <c r="I108" s="87"/>
+      <c r="I108" s="88"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
@@ -7404,7 +7543,7 @@
       <c r="D109" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="E109" s="87"/>
+      <c r="E109" s="88"/>
       <c r="F109" s="2" t="s">
         <v>244</v>
       </c>
@@ -7412,7 +7551,7 @@
         <v>412</v>
       </c>
       <c r="H109" s="2"/>
-      <c r="I109" s="87"/>
+      <c r="I109" s="88"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
@@ -7425,7 +7564,7 @@
         <v>382</v>
       </c>
       <c r="D110" s="2"/>
-      <c r="E110" s="87"/>
+      <c r="E110" s="88"/>
       <c r="F110" s="2" t="s">
         <v>245</v>
       </c>
@@ -7433,7 +7572,7 @@
         <v>413</v>
       </c>
       <c r="H110" s="2"/>
-      <c r="I110" s="87"/>
+      <c r="I110" s="88"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
@@ -7446,7 +7585,7 @@
         <v>383</v>
       </c>
       <c r="D111" s="2"/>
-      <c r="E111" s="87"/>
+      <c r="E111" s="88"/>
       <c r="F111" s="2" t="s">
         <v>246</v>
       </c>
@@ -7454,7 +7593,7 @@
         <v>414</v>
       </c>
       <c r="H111" s="2"/>
-      <c r="I111" s="87"/>
+      <c r="I111" s="88"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
@@ -7467,7 +7606,7 @@
         <v>384</v>
       </c>
       <c r="D112" s="2"/>
-      <c r="E112" s="87"/>
+      <c r="E112" s="88"/>
       <c r="F112" s="2" t="s">
         <v>247</v>
       </c>
@@ -7475,7 +7614,7 @@
         <v>415</v>
       </c>
       <c r="H112" s="2"/>
-      <c r="I112" s="87"/>
+      <c r="I112" s="88"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
@@ -7488,7 +7627,7 @@
         <v>385</v>
       </c>
       <c r="D113" s="2"/>
-      <c r="E113" s="87"/>
+      <c r="E113" s="88"/>
       <c r="F113" s="2" t="s">
         <v>248</v>
       </c>
@@ -7496,10 +7635,15 @@
         <v>416</v>
       </c>
       <c r="H113" s="2"/>
-      <c r="I113" s="87"/>
+      <c r="I113" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E2:E17"/>
+    <mergeCell ref="I2:I17"/>
+    <mergeCell ref="E18:E33"/>
+    <mergeCell ref="I18:I33"/>
+    <mergeCell ref="E34:E49"/>
     <mergeCell ref="E98:E113"/>
     <mergeCell ref="I98:I113"/>
     <mergeCell ref="F34:I49"/>
@@ -7509,11 +7653,6 @@
     <mergeCell ref="I82:I97"/>
     <mergeCell ref="E82:E97"/>
     <mergeCell ref="E50:E65"/>
-    <mergeCell ref="E2:E17"/>
-    <mergeCell ref="I2:I17"/>
-    <mergeCell ref="E18:E33"/>
-    <mergeCell ref="I18:I33"/>
-    <mergeCell ref="E34:E49"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7522,10 +7661,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7581,9 +7720,68 @@
         <v>507.23200000000003</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>36.628999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>47.488</v>
+      </c>
+      <c r="C11">
+        <f>A11-A10</f>
+        <v>10.859000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>23.123999999999999</v>
+      </c>
+      <c r="B14">
+        <f>A15-A14</f>
+        <v>60.238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>83.361999999999995</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:B16" si="1">A16-A15</f>
+        <v>59.542000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>142.904</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>59.632000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>202.536</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/副本泰国HB改造物料单及IO.xlsx
+++ b/副本泰国HB改造物料单及IO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="696" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="696" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="586">
   <si>
     <t>物料清单（电气）:</t>
   </si>
@@ -1746,10 +1746,6 @@
     <t>左移栽上顶气缸RST2</t>
   </si>
   <si>
-    <t>撕膜平台真空吸</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>撕膜位置真空吸</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1790,10 +1786,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>右载盘真空吸</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>右升降平移气缸</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1831,10 +1823,6 @@
   </si>
   <si>
     <t>追加上顶气缸2</t>
-  </si>
-  <si>
-    <t>FPC扣紧气缸</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>初始吹膜1</t>
@@ -1958,95 +1946,204 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>Flag_Barcode_Need_Cam_Finsh</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag_Barcode_Can_Fit</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag_Barcode_Fit_Finish</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>上位机→Barcode机构</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>时序</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barcode机构→上位机</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG上料AB工位切换气缸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FG上料旋转气缸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码取料气缸1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码取料气缸2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码取料气缸3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码取料气缸4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPC上料分盘气缸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPC下料分盘气缸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品TRAY盘上料分盘气缸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品TRAY盘下料分盘气缸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码取料破真空2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码取料破真空3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码取料破真空4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码取完【给plc】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barcode机构</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>上位机</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>右滑台</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚压机构</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Process_3_Set_Finish</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag_RightStage_Cam_Pos1_Finish</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_Cam_Pos2_Ready</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_Cam_Pos2_Finish</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_RemoveLiner_Ready</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_Robot_RemoveLiner_Ready</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_RemoveLinered_Ready</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_Robot_RemoveLinered_Ready</t>
+  </si>
+  <si>
+    <t>Flag_Barcode_Can_Fit</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_Cam_Brd1_Ready</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_Cam_Brd1_Finish</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_Cam_Brd2_Ready</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_Cam_Brd3_Ready</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_Cam_Brd4_Ready</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_Cam_Brd2_Finish</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_Cam_Brd3_Finish</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_Cam_Brd4_Finish</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_WaitCatch_Ready</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_WaitCatch_Finish</t>
+  </si>
+  <si>
+    <t>Process_4_Can_Push</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_Cam_Pos1_Ready</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>右滑台真空吸4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>右滑台真空吸2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>右滑台真空吸3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>右滑台真空吸1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPC扣紧气缸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag_Barcode_Fit_Finish</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag_CamAction_Remove</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>Flag_Barcode_Need_Cam</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Flag_Barcode_Need_Cam_Finsh</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flag_Barcode_Can_Fit</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flag_Barcode_Fit_Finish</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>上位机→Barcode机构</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>时序</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Barcode机构→上位机</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FG上料AB工位切换气缸</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FG上料旋转气缸</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>条形码取料气缸1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>条形码取料气缸2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>条形码取料气缸3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>条形码取料气缸4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>撕膜平台真空吸3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>撕膜平台真空吸4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FPC上料分盘气缸</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FPC下料分盘气缸</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>成品TRAY盘上料分盘气缸</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>成品TRAY盘下料分盘气缸</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>条形码取料破真空2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>条形码取料破真空3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>条形码取料破真空4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>条码取完【给plc】</t>
+    <t>Flag_Barcode_Need_Cam</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag_CamAction_Remove</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2160,7 +2257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2182,6 +2279,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2453,7 +2556,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2638,6 +2741,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3414,12 +3523,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6" t="s">
         <v>1</v>
@@ -3439,10 +3548,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="95"/>
       <c r="G2" s="12"/>
       <c r="H2" s="13"/>
       <c r="I2" s="66"/>
@@ -3456,10 +3565,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="14"/>
-      <c r="E3" s="91" t="s">
+      <c r="E3" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="91"/>
+      <c r="F3" s="95"/>
       <c r="G3" s="15"/>
       <c r="H3" s="16"/>
       <c r="I3" s="66"/>
@@ -3475,10 +3584,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="20"/>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="91"/>
+      <c r="F4" s="95"/>
       <c r="G4" s="18"/>
       <c r="H4" s="21"/>
       <c r="I4" s="66"/>
@@ -3495,7 +3604,7 @@
       <c r="I5" s="67"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="96" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="27" t="s">
@@ -3524,7 +3633,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="85"/>
+      <c r="A7" s="89"/>
       <c r="B7" s="31"/>
       <c r="C7" s="32" t="s">
         <v>21</v>
@@ -3547,7 +3656,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="85"/>
+      <c r="A8" s="89"/>
       <c r="B8" s="31"/>
       <c r="C8" s="32" t="s">
         <v>26</v>
@@ -3570,7 +3679,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="85"/>
+      <c r="A9" s="89"/>
       <c r="B9" s="31"/>
       <c r="C9" s="32" t="s">
         <v>30</v>
@@ -3593,7 +3702,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="93"/>
+      <c r="A10" s="97"/>
       <c r="B10" s="35"/>
       <c r="C10" s="32" t="s">
         <v>33</v>
@@ -3616,7 +3725,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="88" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="37"/>
@@ -3653,7 +3762,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="85"/>
+      <c r="A12" s="89"/>
       <c r="B12" s="37"/>
       <c r="C12" s="3" t="s">
         <v>46</v>
@@ -3676,7 +3785,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="85"/>
+      <c r="A13" s="89"/>
       <c r="B13" s="37"/>
       <c r="C13" s="42" t="s">
         <v>48</v>
@@ -3699,7 +3808,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="85"/>
+      <c r="A14" s="89"/>
       <c r="B14" s="37"/>
       <c r="C14" s="42" t="s">
         <v>51</v>
@@ -3722,7 +3831,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="85"/>
+      <c r="A15" s="89"/>
       <c r="B15" s="37"/>
       <c r="C15" s="43" t="s">
         <v>53</v>
@@ -3745,7 +3854,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="93"/>
+      <c r="A16" s="97"/>
       <c r="B16" s="35"/>
       <c r="C16" s="45" t="s">
         <v>56</v>
@@ -3768,7 +3877,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="84" t="s">
+      <c r="A17" s="88" t="s">
         <v>59</v>
       </c>
       <c r="B17" s="35"/>
@@ -3791,7 +3900,7 @@
       <c r="I17" s="68"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="85"/>
+      <c r="A18" s="89"/>
       <c r="B18" s="36"/>
       <c r="C18" s="47" t="s">
         <v>63</v>
@@ -3812,7 +3921,7 @@
       <c r="I18" s="68"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="85"/>
+      <c r="A19" s="89"/>
       <c r="B19" s="36"/>
       <c r="C19" s="49" t="s">
         <v>66</v>
@@ -3833,7 +3942,7 @@
       <c r="I19" s="68"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="85"/>
+      <c r="A20" s="89"/>
       <c r="B20" s="36"/>
       <c r="C20" t="s">
         <v>69</v>
@@ -3874,7 +3983,7 @@
       <c r="I21" s="54"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="90" t="s">
         <v>74</v>
       </c>
       <c r="B22" s="35"/>
@@ -3897,7 +4006,7 @@
       <c r="I22" s="68"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="86"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="2"/>
       <c r="C23" s="49" t="s">
         <v>77</v>
@@ -3918,7 +4027,7 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="87"/>
+      <c r="A24" s="91"/>
       <c r="B24" s="60"/>
       <c r="C24" s="61" t="s">
         <v>80</v>
@@ -3933,7 +4042,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="86" t="s">
+      <c r="A25" s="90" t="s">
         <v>82</v>
       </c>
       <c r="B25" s="2"/>
@@ -3952,7 +4061,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="88"/>
+      <c r="A26" s="92"/>
       <c r="B26" s="2"/>
       <c r="C26" s="48" t="s">
         <v>85</v>
@@ -3967,7 +4076,7 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="88"/>
+      <c r="A27" s="92"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -3978,7 +4087,7 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="88"/>
+      <c r="A28" s="92"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -3989,7 +4098,7 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="88"/>
+      <c r="A29" s="92"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -4000,7 +4109,7 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="88"/>
+      <c r="A30" s="92"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -4011,7 +4120,7 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="88"/>
+      <c r="A31" s="92"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -4022,7 +4131,7 @@
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="88"/>
+      <c r="A32" s="92"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4370,12 +4479,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="98" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
       <c r="J1" s="77" t="s">
         <v>167</v>
       </c>
@@ -5031,7 +5140,7 @@
         <v>188</v>
       </c>
       <c r="G52" s="71" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.15">
@@ -5058,70 +5167,416 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="83" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.75" style="83" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.875" customWidth="1"/>
+    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
-        <v>539</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="36">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="84" t="s">
+        <v>535</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>534</v>
+      </c>
+      <c r="C1" s="85" t="s">
+        <v>536</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="87" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="36">
+      <c r="B3" s="2"/>
+      <c r="C3" s="87" t="s">
+        <v>583</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="36">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="36">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="36">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="84" t="s">
         <v>535</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="36">
+      <c r="B8" s="85" t="s">
+        <v>551</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>552</v>
+      </c>
+      <c r="D8" s="85" t="s">
+        <v>553</v>
+      </c>
+      <c r="E8" s="86" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="36">
+        <v>1</v>
+      </c>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E9" s="86"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="36">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="36">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="36">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="36">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>537</v>
-      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="36">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="36">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="36"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="87" t="s">
+        <v>585</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="36"/>
+      <c r="B16" s="87" t="s">
+        <v>584</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="36">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="36">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="36">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="36">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="36">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="36">
+        <v>12</v>
+      </c>
+      <c r="B22" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="36">
+        <v>13</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="36">
+        <v>14</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="36">
+        <v>15</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="36">
+        <v>16</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="36">
+        <v>17</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="36">
+        <v>18</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="36">
+        <v>19</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="36">
+        <v>20</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="36">
+        <v>21</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="36">
+        <v>22</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="36">
+        <v>23</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="36">
+        <v>24</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="36">
+        <v>25</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="36">
+        <v>26</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="36">
+        <v>27</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="36">
+        <v>28</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5129,8 +5584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34:I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5186,7 +5641,7 @@
       <c r="D2" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="92" t="s">
         <v>230</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -5195,10 +5650,10 @@
       <c r="G2" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="I2" s="88" t="s">
+      <c r="H2" s="74" t="s">
+        <v>579</v>
+      </c>
+      <c r="I2" s="92" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5215,7 +5670,7 @@
       <c r="D3" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="E3" s="88"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="2" t="s">
         <v>234</v>
       </c>
@@ -5223,9 +5678,9 @@
         <v>250</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="I3" s="88"/>
+        <v>528</v>
+      </c>
+      <c r="I3" s="92"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
@@ -5240,7 +5695,7 @@
       <c r="D4" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E4" s="88"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="2" t="s">
         <v>235</v>
       </c>
@@ -5248,9 +5703,9 @@
         <v>251</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I4" s="88"/>
+        <v>484</v>
+      </c>
+      <c r="I4" s="92"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -5265,7 +5720,7 @@
       <c r="D5" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="E5" s="88"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="2" t="s">
         <v>236</v>
       </c>
@@ -5273,9 +5728,9 @@
         <v>252</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="I5" s="88"/>
+        <v>485</v>
+      </c>
+      <c r="I5" s="92"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
@@ -5290,7 +5745,7 @@
       <c r="D6" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="E6" s="88"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="2" t="s">
         <v>237</v>
       </c>
@@ -5298,9 +5753,9 @@
         <v>253</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="I6" s="88"/>
+        <v>486</v>
+      </c>
+      <c r="I6" s="92"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
@@ -5315,7 +5770,7 @@
       <c r="D7" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="E7" s="88"/>
+      <c r="E7" s="92"/>
       <c r="F7" s="2" t="s">
         <v>238</v>
       </c>
@@ -5323,9 +5778,9 @@
         <v>254</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="I7" s="88"/>
+        <v>487</v>
+      </c>
+      <c r="I7" s="92"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -5340,7 +5795,7 @@
       <c r="D8" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="E8" s="88"/>
+      <c r="E8" s="92"/>
       <c r="F8" s="2" t="s">
         <v>239</v>
       </c>
@@ -5348,9 +5803,9 @@
         <v>255</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="I8" s="88"/>
+        <v>488</v>
+      </c>
+      <c r="I8" s="92"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -5365,7 +5820,7 @@
       <c r="D9" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="E9" s="88"/>
+      <c r="E9" s="92"/>
       <c r="F9" s="2" t="s">
         <v>240</v>
       </c>
@@ -5373,9 +5828,9 @@
         <v>256</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="I9" s="88"/>
+        <v>489</v>
+      </c>
+      <c r="I9" s="92"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
@@ -5390,7 +5845,7 @@
       <c r="D10" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="E10" s="88"/>
+      <c r="E10" s="92"/>
       <c r="F10" s="2" t="s">
         <v>241</v>
       </c>
@@ -5398,7 +5853,7 @@
         <v>257</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="88"/>
+      <c r="I10" s="92"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
@@ -5413,7 +5868,7 @@
       <c r="D11" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E11" s="88"/>
+      <c r="E11" s="92"/>
       <c r="F11" s="2" t="s">
         <v>242</v>
       </c>
@@ -5421,9 +5876,9 @@
         <v>258</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="I11" s="88"/>
+        <v>490</v>
+      </c>
+      <c r="I11" s="92"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
@@ -5438,7 +5893,7 @@
       <c r="D12" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="E12" s="88"/>
+      <c r="E12" s="92"/>
       <c r="F12" s="2" t="s">
         <v>243</v>
       </c>
@@ -5446,9 +5901,9 @@
         <v>259</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="I12" s="88"/>
+        <v>491</v>
+      </c>
+      <c r="I12" s="92"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
@@ -5463,7 +5918,7 @@
       <c r="D13" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="E13" s="88"/>
+      <c r="E13" s="92"/>
       <c r="F13" s="2" t="s">
         <v>244</v>
       </c>
@@ -5471,9 +5926,9 @@
         <v>260</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="I13" s="88"/>
+        <v>492</v>
+      </c>
+      <c r="I13" s="92"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
@@ -5488,7 +5943,7 @@
       <c r="D14" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="E14" s="88"/>
+      <c r="E14" s="92"/>
       <c r="F14" s="2" t="s">
         <v>245</v>
       </c>
@@ -5496,9 +5951,9 @@
         <v>261</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="I14" s="88"/>
+        <v>493</v>
+      </c>
+      <c r="I14" s="92"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
@@ -5513,17 +5968,17 @@
       <c r="D15" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="E15" s="88"/>
+      <c r="E15" s="92"/>
       <c r="F15" s="2" t="s">
         <v>246</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="I15" s="88"/>
+      <c r="H15" s="74" t="s">
+        <v>576</v>
+      </c>
+      <c r="I15" s="92"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
@@ -5538,7 +5993,7 @@
       <c r="D16" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E16" s="88"/>
+      <c r="E16" s="92"/>
       <c r="F16" s="2" t="s">
         <v>247</v>
       </c>
@@ -5546,7 +6001,7 @@
         <v>263</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="88"/>
+      <c r="I16" s="92"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
@@ -5559,7 +6014,7 @@
         <v>229</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="88"/>
+      <c r="E17" s="92"/>
       <c r="F17" s="2" t="s">
         <v>248</v>
       </c>
@@ -5567,9 +6022,9 @@
         <v>264</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="I17" s="88"/>
+        <v>494</v>
+      </c>
+      <c r="I17" s="92"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
@@ -5582,20 +6037,20 @@
         <v>267</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="88" t="s">
+      <c r="E18" s="92" t="s">
         <v>265</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>233</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="I18" s="88" t="s">
         <v>498</v>
+      </c>
+      <c r="I18" s="92" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -5609,7 +6064,7 @@
         <v>268</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="88"/>
+      <c r="E19" s="92"/>
       <c r="F19" s="2" t="s">
         <v>234</v>
       </c>
@@ -5617,9 +6072,9 @@
         <v>284</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="I19" s="88"/>
+        <v>499</v>
+      </c>
+      <c r="I19" s="92"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
@@ -5634,7 +6089,7 @@
       <c r="D20" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E20" s="88"/>
+      <c r="E20" s="92"/>
       <c r="F20" s="2" t="s">
         <v>235</v>
       </c>
@@ -5642,9 +6097,9 @@
         <v>285</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="I20" s="88"/>
+        <v>537</v>
+      </c>
+      <c r="I20" s="92"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
@@ -5659,7 +6114,7 @@
       <c r="D21" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="E21" s="88"/>
+      <c r="E21" s="92"/>
       <c r="F21" s="2" t="s">
         <v>236</v>
       </c>
@@ -5667,9 +6122,9 @@
         <v>286</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="I21" s="88"/>
+        <v>500</v>
+      </c>
+      <c r="I21" s="92"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
@@ -5684,7 +6139,7 @@
       <c r="D22" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="E22" s="88"/>
+      <c r="E22" s="92"/>
       <c r="F22" s="2" t="s">
         <v>237</v>
       </c>
@@ -5692,9 +6147,9 @@
         <v>287</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="I22" s="88"/>
+        <v>501</v>
+      </c>
+      <c r="I22" s="92"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
@@ -5709,7 +6164,7 @@
       <c r="D23" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E23" s="88"/>
+      <c r="E23" s="92"/>
       <c r="F23" s="2" t="s">
         <v>238</v>
       </c>
@@ -5717,9 +6172,9 @@
         <v>288</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="I23" s="88"/>
+        <v>502</v>
+      </c>
+      <c r="I23" s="92"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
@@ -5734,7 +6189,7 @@
       <c r="D24" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="E24" s="88"/>
+      <c r="E24" s="92"/>
       <c r="F24" s="2" t="s">
         <v>239</v>
       </c>
@@ -5742,9 +6197,9 @@
         <v>289</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="I24" s="88"/>
+        <v>503</v>
+      </c>
+      <c r="I24" s="92"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
@@ -5759,7 +6214,7 @@
       <c r="D25" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="E25" s="88"/>
+      <c r="E25" s="92"/>
       <c r="F25" s="2" t="s">
         <v>240</v>
       </c>
@@ -5767,7 +6222,7 @@
         <v>290</v>
       </c>
       <c r="H25" s="2"/>
-      <c r="I25" s="88"/>
+      <c r="I25" s="92"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
@@ -5780,17 +6235,17 @@
         <v>275</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="88"/>
+      <c r="E26" s="92"/>
       <c r="F26" s="2" t="s">
         <v>241</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="I26" s="88"/>
+      <c r="H26" s="74" t="s">
+        <v>580</v>
+      </c>
+      <c r="I26" s="92"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
@@ -5803,7 +6258,7 @@
         <v>276</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="88"/>
+      <c r="E27" s="92"/>
       <c r="F27" s="2" t="s">
         <v>242</v>
       </c>
@@ -5811,9 +6266,9 @@
         <v>292</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="I27" s="88"/>
+        <v>504</v>
+      </c>
+      <c r="I27" s="92"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
@@ -5826,7 +6281,7 @@
         <v>277</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="88"/>
+      <c r="E28" s="92"/>
       <c r="F28" s="2" t="s">
         <v>243</v>
       </c>
@@ -5834,9 +6289,9 @@
         <v>293</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="I28" s="88"/>
+        <v>505</v>
+      </c>
+      <c r="I28" s="92"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
@@ -5851,7 +6306,7 @@
       <c r="D29" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E29" s="88"/>
+      <c r="E29" s="92"/>
       <c r="F29" s="2" t="s">
         <v>244</v>
       </c>
@@ -5859,7 +6314,7 @@
         <v>294</v>
       </c>
       <c r="H29" s="2"/>
-      <c r="I29" s="88"/>
+      <c r="I29" s="92"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
@@ -5874,7 +6329,7 @@
       <c r="D30" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="E30" s="88"/>
+      <c r="E30" s="92"/>
       <c r="F30" s="2" t="s">
         <v>245</v>
       </c>
@@ -5882,9 +6337,9 @@
         <v>295</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="I30" s="88"/>
+        <v>506</v>
+      </c>
+      <c r="I30" s="92"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
@@ -5899,7 +6354,7 @@
       <c r="D31" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="E31" s="88"/>
+      <c r="E31" s="92"/>
       <c r="F31" s="2" t="s">
         <v>246</v>
       </c>
@@ -5907,9 +6362,9 @@
         <v>296</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="I31" s="88"/>
+        <v>507</v>
+      </c>
+      <c r="I31" s="92"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
@@ -5924,7 +6379,7 @@
       <c r="D32" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="E32" s="88"/>
+      <c r="E32" s="92"/>
       <c r="F32" s="2" t="s">
         <v>247</v>
       </c>
@@ -5932,9 +6387,9 @@
         <v>297</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="I32" s="88"/>
+        <v>508</v>
+      </c>
+      <c r="I32" s="92"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
@@ -5949,7 +6404,7 @@
       <c r="D33" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="E33" s="88"/>
+      <c r="E33" s="92"/>
       <c r="F33" s="2" t="s">
         <v>248</v>
       </c>
@@ -5957,9 +6412,9 @@
         <v>298</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="I33" s="88"/>
+        <v>509</v>
+      </c>
+      <c r="I33" s="92"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
@@ -5972,15 +6427,15 @@
         <v>302</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="E34" s="88" t="s">
+        <v>526</v>
+      </c>
+      <c r="E34" s="92" t="s">
         <v>299</v>
       </c>
-      <c r="F34" s="96"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="97"/>
-      <c r="I34" s="98"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="102"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
@@ -5995,11 +6450,11 @@
       <c r="D35" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E35" s="88"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="100"/>
-      <c r="I35" s="101"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="104"/>
+      <c r="H35" s="104"/>
+      <c r="I35" s="105"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
@@ -6014,11 +6469,11 @@
       <c r="D36" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E36" s="88"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="100"/>
-      <c r="I36" s="101"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="105"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
@@ -6033,11 +6488,11 @@
       <c r="D37" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="E37" s="88"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="101"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="104"/>
+      <c r="H37" s="104"/>
+      <c r="I37" s="105"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
@@ -6052,11 +6507,11 @@
       <c r="D38" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="E38" s="88"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="100"/>
-      <c r="H38" s="100"/>
-      <c r="I38" s="101"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="105"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
@@ -6069,11 +6524,11 @@
         <v>307</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="101"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="104"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="105"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
@@ -6088,11 +6543,11 @@
       <c r="D40" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="E40" s="88"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="100"/>
-      <c r="I40" s="101"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="104"/>
+      <c r="H40" s="104"/>
+      <c r="I40" s="105"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
@@ -6107,11 +6562,11 @@
       <c r="D41" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E41" s="88"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="101"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="104"/>
+      <c r="H41" s="104"/>
+      <c r="I41" s="105"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
@@ -6126,11 +6581,11 @@
       <c r="D42" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="E42" s="88"/>
-      <c r="F42" s="99"/>
-      <c r="G42" s="100"/>
-      <c r="H42" s="100"/>
-      <c r="I42" s="101"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="105"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
@@ -6145,11 +6600,11 @@
       <c r="D43" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="E43" s="88"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="101"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="105"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
@@ -6164,11 +6619,11 @@
       <c r="D44" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E44" s="88"/>
-      <c r="F44" s="99"/>
-      <c r="G44" s="100"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="101"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="104"/>
+      <c r="H44" s="104"/>
+      <c r="I44" s="105"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
@@ -6183,11 +6638,11 @@
       <c r="D45" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="E45" s="88"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="100"/>
-      <c r="H45" s="100"/>
-      <c r="I45" s="101"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="105"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
@@ -6202,11 +6657,11 @@
       <c r="D46" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="E46" s="88"/>
-      <c r="F46" s="99"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="101"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="104"/>
+      <c r="H46" s="104"/>
+      <c r="I46" s="105"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
@@ -6221,11 +6676,11 @@
       <c r="D47" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="E47" s="88"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="100"/>
-      <c r="I47" s="101"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="104"/>
+      <c r="I47" s="105"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
@@ -6240,11 +6695,11 @@
       <c r="D48" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="E48" s="88"/>
-      <c r="F48" s="99"/>
-      <c r="G48" s="100"/>
-      <c r="H48" s="100"/>
-      <c r="I48" s="101"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
+      <c r="I48" s="105"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
@@ -6259,11 +6714,11 @@
       <c r="D49" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E49" s="88"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="103"/>
-      <c r="I49" s="104"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="107"/>
+      <c r="I49" s="108"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
@@ -6278,13 +6733,13 @@
       <c r="D50" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="E50" s="88" t="s">
+      <c r="E50" s="92" t="s">
         <v>300</v>
       </c>
-      <c r="F50" s="96"/>
-      <c r="G50" s="97"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="98"/>
+      <c r="F50" s="100"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="102"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
@@ -6297,11 +6752,11 @@
         <v>319</v>
       </c>
       <c r="D51" s="2"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="99"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="101"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="103"/>
+      <c r="G51" s="104"/>
+      <c r="H51" s="104"/>
+      <c r="I51" s="105"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
@@ -6314,11 +6769,11 @@
         <v>320</v>
       </c>
       <c r="D52" s="2"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="99"/>
-      <c r="G52" s="100"/>
-      <c r="H52" s="100"/>
-      <c r="I52" s="101"/>
+      <c r="E52" s="92"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="104"/>
+      <c r="H52" s="104"/>
+      <c r="I52" s="105"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
@@ -6333,11 +6788,11 @@
       <c r="D53" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="E53" s="88"/>
-      <c r="F53" s="99"/>
-      <c r="G53" s="100"/>
-      <c r="H53" s="100"/>
-      <c r="I53" s="101"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="103"/>
+      <c r="G53" s="104"/>
+      <c r="H53" s="104"/>
+      <c r="I53" s="105"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
@@ -6352,11 +6807,11 @@
       <c r="D54" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="E54" s="88"/>
-      <c r="F54" s="99"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="100"/>
-      <c r="I54" s="101"/>
+      <c r="E54" s="92"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="104"/>
+      <c r="H54" s="104"/>
+      <c r="I54" s="105"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
@@ -6371,11 +6826,11 @@
       <c r="D55" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E55" s="88"/>
-      <c r="F55" s="99"/>
-      <c r="G55" s="100"/>
-      <c r="H55" s="100"/>
-      <c r="I55" s="101"/>
+      <c r="E55" s="92"/>
+      <c r="F55" s="103"/>
+      <c r="G55" s="104"/>
+      <c r="H55" s="104"/>
+      <c r="I55" s="105"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
@@ -6388,11 +6843,11 @@
         <v>324</v>
       </c>
       <c r="D56" s="2"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="99"/>
-      <c r="G56" s="100"/>
-      <c r="H56" s="100"/>
-      <c r="I56" s="101"/>
+      <c r="E56" s="92"/>
+      <c r="F56" s="103"/>
+      <c r="G56" s="104"/>
+      <c r="H56" s="104"/>
+      <c r="I56" s="105"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
@@ -6407,11 +6862,11 @@
       <c r="D57" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="E57" s="88"/>
-      <c r="F57" s="99"/>
-      <c r="G57" s="100"/>
-      <c r="H57" s="100"/>
-      <c r="I57" s="101"/>
+      <c r="E57" s="92"/>
+      <c r="F57" s="103"/>
+      <c r="G57" s="104"/>
+      <c r="H57" s="104"/>
+      <c r="I57" s="105"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
@@ -6426,11 +6881,11 @@
       <c r="D58" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="E58" s="88"/>
-      <c r="F58" s="99"/>
-      <c r="G58" s="100"/>
-      <c r="H58" s="100"/>
-      <c r="I58" s="101"/>
+      <c r="E58" s="92"/>
+      <c r="F58" s="103"/>
+      <c r="G58" s="104"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="105"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
@@ -6445,11 +6900,11 @@
       <c r="D59" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="E59" s="88"/>
-      <c r="F59" s="99"/>
-      <c r="G59" s="100"/>
-      <c r="H59" s="100"/>
-      <c r="I59" s="101"/>
+      <c r="E59" s="92"/>
+      <c r="F59" s="103"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="105"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
@@ -6464,11 +6919,11 @@
       <c r="D60" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="E60" s="88"/>
-      <c r="F60" s="99"/>
-      <c r="G60" s="100"/>
-      <c r="H60" s="100"/>
-      <c r="I60" s="101"/>
+      <c r="E60" s="92"/>
+      <c r="F60" s="103"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="104"/>
+      <c r="I60" s="105"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
@@ -6483,11 +6938,11 @@
       <c r="D61" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="E61" s="88"/>
-      <c r="F61" s="99"/>
-      <c r="G61" s="100"/>
-      <c r="H61" s="100"/>
-      <c r="I61" s="101"/>
+      <c r="E61" s="92"/>
+      <c r="F61" s="103"/>
+      <c r="G61" s="104"/>
+      <c r="H61" s="104"/>
+      <c r="I61" s="105"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
@@ -6502,11 +6957,11 @@
       <c r="D62" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="E62" s="88"/>
-      <c r="F62" s="99"/>
-      <c r="G62" s="100"/>
-      <c r="H62" s="100"/>
-      <c r="I62" s="101"/>
+      <c r="E62" s="92"/>
+      <c r="F62" s="103"/>
+      <c r="G62" s="104"/>
+      <c r="H62" s="104"/>
+      <c r="I62" s="105"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
@@ -6521,11 +6976,11 @@
       <c r="D63" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="E63" s="88"/>
-      <c r="F63" s="99"/>
-      <c r="G63" s="100"/>
-      <c r="H63" s="100"/>
-      <c r="I63" s="101"/>
+      <c r="E63" s="92"/>
+      <c r="F63" s="103"/>
+      <c r="G63" s="104"/>
+      <c r="H63" s="104"/>
+      <c r="I63" s="105"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
@@ -6540,11 +6995,11 @@
       <c r="D64" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="E64" s="88"/>
-      <c r="F64" s="99"/>
-      <c r="G64" s="100"/>
-      <c r="H64" s="100"/>
-      <c r="I64" s="101"/>
+      <c r="E64" s="92"/>
+      <c r="F64" s="103"/>
+      <c r="G64" s="104"/>
+      <c r="H64" s="104"/>
+      <c r="I64" s="105"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
@@ -6559,11 +7014,11 @@
       <c r="D65" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="E65" s="88"/>
-      <c r="F65" s="102"/>
-      <c r="G65" s="103"/>
-      <c r="H65" s="103"/>
-      <c r="I65" s="104"/>
+      <c r="E65" s="92"/>
+      <c r="F65" s="106"/>
+      <c r="G65" s="107"/>
+      <c r="H65" s="107"/>
+      <c r="I65" s="108"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
@@ -6578,13 +7033,13 @@
       <c r="D66" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="E66" s="88" t="s">
+      <c r="E66" s="92" t="s">
         <v>301</v>
       </c>
-      <c r="F66" s="96"/>
-      <c r="G66" s="97"/>
-      <c r="H66" s="97"/>
-      <c r="I66" s="98"/>
+      <c r="F66" s="100"/>
+      <c r="G66" s="101"/>
+      <c r="H66" s="101"/>
+      <c r="I66" s="102"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
@@ -6599,11 +7054,11 @@
       <c r="D67" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="E67" s="88"/>
-      <c r="F67" s="99"/>
-      <c r="G67" s="100"/>
-      <c r="H67" s="100"/>
-      <c r="I67" s="101"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="103"/>
+      <c r="G67" s="104"/>
+      <c r="H67" s="104"/>
+      <c r="I67" s="105"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
@@ -6618,11 +7073,11 @@
       <c r="D68" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="E68" s="88"/>
-      <c r="F68" s="99"/>
-      <c r="G68" s="100"/>
-      <c r="H68" s="100"/>
-      <c r="I68" s="101"/>
+      <c r="E68" s="92"/>
+      <c r="F68" s="103"/>
+      <c r="G68" s="104"/>
+      <c r="H68" s="104"/>
+      <c r="I68" s="105"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
@@ -6637,11 +7092,11 @@
       <c r="D69" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="E69" s="88"/>
-      <c r="F69" s="99"/>
-      <c r="G69" s="100"/>
-      <c r="H69" s="100"/>
-      <c r="I69" s="101"/>
+      <c r="E69" s="92"/>
+      <c r="F69" s="103"/>
+      <c r="G69" s="104"/>
+      <c r="H69" s="104"/>
+      <c r="I69" s="105"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
@@ -6656,11 +7111,11 @@
       <c r="D70" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="E70" s="88"/>
-      <c r="F70" s="99"/>
-      <c r="G70" s="100"/>
-      <c r="H70" s="100"/>
-      <c r="I70" s="101"/>
+      <c r="E70" s="92"/>
+      <c r="F70" s="103"/>
+      <c r="G70" s="104"/>
+      <c r="H70" s="104"/>
+      <c r="I70" s="105"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
@@ -6675,11 +7130,11 @@
       <c r="D71" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="E71" s="88"/>
-      <c r="F71" s="99"/>
-      <c r="G71" s="100"/>
-      <c r="H71" s="100"/>
-      <c r="I71" s="101"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="103"/>
+      <c r="G71" s="104"/>
+      <c r="H71" s="104"/>
+      <c r="I71" s="105"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
@@ -6694,11 +7149,11 @@
       <c r="D72" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="E72" s="88"/>
-      <c r="F72" s="99"/>
-      <c r="G72" s="100"/>
-      <c r="H72" s="100"/>
-      <c r="I72" s="101"/>
+      <c r="E72" s="92"/>
+      <c r="F72" s="103"/>
+      <c r="G72" s="104"/>
+      <c r="H72" s="104"/>
+      <c r="I72" s="105"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
@@ -6713,11 +7168,11 @@
       <c r="D73" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="E73" s="88"/>
-      <c r="F73" s="99"/>
-      <c r="G73" s="100"/>
-      <c r="H73" s="100"/>
-      <c r="I73" s="101"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="103"/>
+      <c r="G73" s="104"/>
+      <c r="H73" s="104"/>
+      <c r="I73" s="105"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
@@ -6732,11 +7187,11 @@
       <c r="D74" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="E74" s="88"/>
-      <c r="F74" s="99"/>
-      <c r="G74" s="100"/>
-      <c r="H74" s="100"/>
-      <c r="I74" s="101"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="103"/>
+      <c r="G74" s="104"/>
+      <c r="H74" s="104"/>
+      <c r="I74" s="105"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
@@ -6751,11 +7206,11 @@
       <c r="D75" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="E75" s="88"/>
-      <c r="F75" s="99"/>
-      <c r="G75" s="100"/>
-      <c r="H75" s="100"/>
-      <c r="I75" s="101"/>
+      <c r="E75" s="92"/>
+      <c r="F75" s="103"/>
+      <c r="G75" s="104"/>
+      <c r="H75" s="104"/>
+      <c r="I75" s="105"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
@@ -6770,11 +7225,11 @@
       <c r="D76" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="E76" s="88"/>
-      <c r="F76" s="99"/>
-      <c r="G76" s="100"/>
-      <c r="H76" s="100"/>
-      <c r="I76" s="101"/>
+      <c r="E76" s="92"/>
+      <c r="F76" s="103"/>
+      <c r="G76" s="104"/>
+      <c r="H76" s="104"/>
+      <c r="I76" s="105"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
@@ -6789,11 +7244,11 @@
       <c r="D77" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="E77" s="88"/>
-      <c r="F77" s="99"/>
-      <c r="G77" s="100"/>
-      <c r="H77" s="100"/>
-      <c r="I77" s="101"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="103"/>
+      <c r="G77" s="104"/>
+      <c r="H77" s="104"/>
+      <c r="I77" s="105"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
@@ -6808,11 +7263,11 @@
       <c r="D78" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="E78" s="88"/>
-      <c r="F78" s="99"/>
-      <c r="G78" s="100"/>
-      <c r="H78" s="100"/>
-      <c r="I78" s="101"/>
+      <c r="E78" s="92"/>
+      <c r="F78" s="103"/>
+      <c r="G78" s="104"/>
+      <c r="H78" s="104"/>
+      <c r="I78" s="105"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
@@ -6827,11 +7282,11 @@
       <c r="D79" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="E79" s="88"/>
-      <c r="F79" s="99"/>
-      <c r="G79" s="100"/>
-      <c r="H79" s="100"/>
-      <c r="I79" s="101"/>
+      <c r="E79" s="92"/>
+      <c r="F79" s="103"/>
+      <c r="G79" s="104"/>
+      <c r="H79" s="104"/>
+      <c r="I79" s="105"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
@@ -6844,11 +7299,11 @@
         <v>349</v>
       </c>
       <c r="D80" s="2"/>
-      <c r="E80" s="88"/>
-      <c r="F80" s="99"/>
-      <c r="G80" s="100"/>
-      <c r="H80" s="100"/>
-      <c r="I80" s="101"/>
+      <c r="E80" s="92"/>
+      <c r="F80" s="103"/>
+      <c r="G80" s="104"/>
+      <c r="H80" s="104"/>
+      <c r="I80" s="105"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
@@ -6861,11 +7316,11 @@
         <v>350</v>
       </c>
       <c r="D81" s="2"/>
-      <c r="E81" s="88"/>
-      <c r="F81" s="102"/>
-      <c r="G81" s="103"/>
-      <c r="H81" s="103"/>
-      <c r="I81" s="104"/>
+      <c r="E81" s="92"/>
+      <c r="F81" s="106"/>
+      <c r="G81" s="107"/>
+      <c r="H81" s="107"/>
+      <c r="I81" s="108"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
@@ -6878,9 +7333,9 @@
         <v>354</v>
       </c>
       <c r="D82" s="74" t="s">
-        <v>524</v>
-      </c>
-      <c r="E82" s="88" t="s">
+        <v>521</v>
+      </c>
+      <c r="E82" s="92" t="s">
         <v>352</v>
       </c>
       <c r="F82" s="2" t="s">
@@ -6890,9 +7345,9 @@
         <v>387</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="I82" s="88" t="s">
+        <v>538</v>
+      </c>
+      <c r="I82" s="92" t="s">
         <v>386</v>
       </c>
     </row>
@@ -6907,9 +7362,9 @@
         <v>355</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="E83" s="88"/>
+        <v>522</v>
+      </c>
+      <c r="E83" s="92"/>
       <c r="F83" s="2" t="s">
         <v>234</v>
       </c>
@@ -6917,7 +7372,7 @@
         <v>388</v>
       </c>
       <c r="H83" s="3"/>
-      <c r="I83" s="88"/>
+      <c r="I83" s="92"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
@@ -6930,9 +7385,9 @@
         <v>356</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="E84" s="88"/>
+        <v>523</v>
+      </c>
+      <c r="E84" s="92"/>
       <c r="F84" s="2" t="s">
         <v>235</v>
       </c>
@@ -6940,9 +7395,9 @@
         <v>389</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="I84" s="88"/>
+        <v>539</v>
+      </c>
+      <c r="I84" s="92"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
@@ -6955,9 +7410,9 @@
         <v>357</v>
       </c>
       <c r="D85" s="75" t="s">
-        <v>528</v>
-      </c>
-      <c r="E85" s="88"/>
+        <v>525</v>
+      </c>
+      <c r="E85" s="92"/>
       <c r="F85" s="2" t="s">
         <v>236</v>
       </c>
@@ -6965,9 +7420,9 @@
         <v>390</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="I85" s="88"/>
+        <v>540</v>
+      </c>
+      <c r="I85" s="92"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
@@ -6980,7 +7435,7 @@
         <v>358</v>
       </c>
       <c r="D86" s="75"/>
-      <c r="E86" s="88"/>
+      <c r="E86" s="92"/>
       <c r="F86" s="2" t="s">
         <v>237</v>
       </c>
@@ -6988,9 +7443,9 @@
         <v>391</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="I86" s="88"/>
+        <v>541</v>
+      </c>
+      <c r="I86" s="92"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
@@ -7005,7 +7460,7 @@
       <c r="D87" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="E87" s="88"/>
+      <c r="E87" s="92"/>
       <c r="F87" s="2" t="s">
         <v>238</v>
       </c>
@@ -7013,9 +7468,9 @@
         <v>392</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="I87" s="88"/>
+        <v>542</v>
+      </c>
+      <c r="I87" s="92"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
@@ -7028,19 +7483,19 @@
         <v>360</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="E88" s="88"/>
+        <v>524</v>
+      </c>
+      <c r="E88" s="92"/>
       <c r="F88" s="2" t="s">
         <v>239</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="H88" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="I88" s="88"/>
+      <c r="H88" s="75" t="s">
+        <v>577</v>
+      </c>
+      <c r="I88" s="92"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
@@ -7053,19 +7508,19 @@
         <v>361</v>
       </c>
       <c r="D89" s="74" t="s">
-        <v>519</v>
-      </c>
-      <c r="E89" s="88"/>
+        <v>516</v>
+      </c>
+      <c r="E89" s="92"/>
       <c r="F89" s="2" t="s">
         <v>240</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="I89" s="88"/>
+      <c r="H89" s="75" t="s">
+        <v>578</v>
+      </c>
+      <c r="I89" s="92"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
@@ -7078,19 +7533,19 @@
         <v>362</v>
       </c>
       <c r="D90" s="74" t="s">
-        <v>520</v>
-      </c>
-      <c r="E90" s="88"/>
+        <v>517</v>
+      </c>
+      <c r="E90" s="92"/>
       <c r="F90" s="2" t="s">
         <v>241</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="I90" s="88"/>
+        <v>543</v>
+      </c>
+      <c r="I90" s="92"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
@@ -7103,9 +7558,9 @@
         <v>363</v>
       </c>
       <c r="D91" s="74" t="s">
-        <v>530</v>
-      </c>
-      <c r="E91" s="88"/>
+        <v>527</v>
+      </c>
+      <c r="E91" s="92"/>
       <c r="F91" s="2" t="s">
         <v>242</v>
       </c>
@@ -7113,9 +7568,9 @@
         <v>395</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="I91" s="88"/>
+        <v>544</v>
+      </c>
+      <c r="I91" s="92"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
@@ -7128,19 +7583,19 @@
         <v>364</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="E92" s="88"/>
+        <v>512</v>
+      </c>
+      <c r="E92" s="92"/>
       <c r="F92" s="2" t="s">
         <v>243</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="I92" s="88"/>
+        <v>545</v>
+      </c>
+      <c r="I92" s="92"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
@@ -7153,9 +7608,9 @@
         <v>365</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="E93" s="88"/>
+        <v>513</v>
+      </c>
+      <c r="E93" s="92"/>
       <c r="F93" s="2" t="s">
         <v>244</v>
       </c>
@@ -7163,9 +7618,9 @@
         <v>396</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="I93" s="88"/>
+        <v>546</v>
+      </c>
+      <c r="I93" s="92"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
@@ -7178,9 +7633,9 @@
         <v>366</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="E94" s="88"/>
+        <v>514</v>
+      </c>
+      <c r="E94" s="92"/>
       <c r="F94" s="2" t="s">
         <v>245</v>
       </c>
@@ -7190,7 +7645,7 @@
       <c r="H94" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="I94" s="88"/>
+      <c r="I94" s="92"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
@@ -7203,9 +7658,9 @@
         <v>367</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="E95" s="88"/>
+        <v>515</v>
+      </c>
+      <c r="E95" s="92"/>
       <c r="F95" s="2" t="s">
         <v>246</v>
       </c>
@@ -7215,7 +7670,7 @@
       <c r="H95" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="I95" s="88"/>
+      <c r="I95" s="92"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
@@ -7228,7 +7683,7 @@
         <v>368</v>
       </c>
       <c r="D96" s="2"/>
-      <c r="E96" s="88"/>
+      <c r="E96" s="92"/>
       <c r="F96" s="2" t="s">
         <v>247</v>
       </c>
@@ -7238,7 +7693,7 @@
       <c r="H96" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="I96" s="88"/>
+      <c r="I96" s="92"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
@@ -7251,7 +7706,7 @@
         <v>369</v>
       </c>
       <c r="D97" s="2"/>
-      <c r="E97" s="88"/>
+      <c r="E97" s="92"/>
       <c r="F97" s="2" t="s">
         <v>248</v>
       </c>
@@ -7261,7 +7716,7 @@
       <c r="H97" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="I97" s="88"/>
+      <c r="I97" s="92"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
@@ -7276,7 +7731,7 @@
       <c r="D98" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="E98" s="88" t="s">
+      <c r="E98" s="92" t="s">
         <v>353</v>
       </c>
       <c r="F98" s="2" t="s">
@@ -7288,8 +7743,8 @@
       <c r="H98" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="I98" s="88" t="s">
-        <v>499</v>
+      <c r="I98" s="92" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
@@ -7305,7 +7760,7 @@
       <c r="D99" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="E99" s="88"/>
+      <c r="E99" s="92"/>
       <c r="F99" s="2" t="s">
         <v>234</v>
       </c>
@@ -7313,9 +7768,9 @@
         <v>402</v>
       </c>
       <c r="H99" s="75" t="s">
-        <v>553</v>
-      </c>
-      <c r="I99" s="88"/>
+        <v>547</v>
+      </c>
+      <c r="I99" s="92"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
@@ -7330,7 +7785,7 @@
       <c r="D100" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="E100" s="88"/>
+      <c r="E100" s="92"/>
       <c r="F100" s="2" t="s">
         <v>235</v>
       </c>
@@ -7338,9 +7793,9 @@
         <v>403</v>
       </c>
       <c r="H100" s="75" t="s">
-        <v>554</v>
-      </c>
-      <c r="I100" s="88"/>
+        <v>548</v>
+      </c>
+      <c r="I100" s="92"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
@@ -7355,7 +7810,7 @@
       <c r="D101" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="E101" s="88"/>
+      <c r="E101" s="92"/>
       <c r="F101" s="2" t="s">
         <v>236</v>
       </c>
@@ -7363,9 +7818,9 @@
         <v>404</v>
       </c>
       <c r="H101" s="75" t="s">
-        <v>555</v>
-      </c>
-      <c r="I101" s="88"/>
+        <v>549</v>
+      </c>
+      <c r="I101" s="92"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
@@ -7380,7 +7835,7 @@
       <c r="D102" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="E102" s="88"/>
+      <c r="E102" s="92"/>
       <c r="F102" s="2" t="s">
         <v>237</v>
       </c>
@@ -7388,9 +7843,9 @@
         <v>405</v>
       </c>
       <c r="H102" s="75" t="s">
-        <v>556</v>
-      </c>
-      <c r="I102" s="88"/>
+        <v>550</v>
+      </c>
+      <c r="I102" s="92"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
@@ -7403,7 +7858,7 @@
         <v>375</v>
       </c>
       <c r="D103" s="33"/>
-      <c r="E103" s="88"/>
+      <c r="E103" s="92"/>
       <c r="F103" s="2" t="s">
         <v>238</v>
       </c>
@@ -7413,7 +7868,7 @@
       <c r="H103" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="I103" s="88"/>
+      <c r="I103" s="92"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
@@ -7426,9 +7881,9 @@
         <v>376</v>
       </c>
       <c r="D104" s="82" t="s">
-        <v>521</v>
-      </c>
-      <c r="E104" s="88"/>
+        <v>518</v>
+      </c>
+      <c r="E104" s="92"/>
       <c r="F104" s="2" t="s">
         <v>239</v>
       </c>
@@ -7436,7 +7891,7 @@
         <v>407</v>
       </c>
       <c r="H104" s="2"/>
-      <c r="I104" s="88"/>
+      <c r="I104" s="92"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
@@ -7449,9 +7904,9 @@
         <v>377</v>
       </c>
       <c r="D105" s="82" t="s">
-        <v>522</v>
-      </c>
-      <c r="E105" s="88"/>
+        <v>519</v>
+      </c>
+      <c r="E105" s="92"/>
       <c r="F105" s="2" t="s">
         <v>240</v>
       </c>
@@ -7459,7 +7914,7 @@
         <v>408</v>
       </c>
       <c r="H105" s="2"/>
-      <c r="I105" s="88"/>
+      <c r="I105" s="92"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
@@ -7472,9 +7927,9 @@
         <v>378</v>
       </c>
       <c r="D106" s="82" t="s">
-        <v>523</v>
-      </c>
-      <c r="E106" s="88"/>
+        <v>520</v>
+      </c>
+      <c r="E106" s="92"/>
       <c r="F106" s="2" t="s">
         <v>241</v>
       </c>
@@ -7482,7 +7937,7 @@
         <v>409</v>
       </c>
       <c r="H106" s="2"/>
-      <c r="I106" s="88"/>
+      <c r="I106" s="92"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
@@ -7495,9 +7950,9 @@
         <v>379</v>
       </c>
       <c r="D107" s="82" t="s">
-        <v>514</v>
-      </c>
-      <c r="E107" s="88"/>
+        <v>511</v>
+      </c>
+      <c r="E107" s="92"/>
       <c r="F107" s="2" t="s">
         <v>242</v>
       </c>
@@ -7505,7 +7960,7 @@
         <v>410</v>
       </c>
       <c r="H107" s="2"/>
-      <c r="I107" s="88"/>
+      <c r="I107" s="92"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
@@ -7520,7 +7975,7 @@
       <c r="D108" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E108" s="88"/>
+      <c r="E108" s="92"/>
       <c r="F108" s="2" t="s">
         <v>243</v>
       </c>
@@ -7528,7 +7983,7 @@
         <v>411</v>
       </c>
       <c r="H108" s="2"/>
-      <c r="I108" s="88"/>
+      <c r="I108" s="92"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
@@ -7543,7 +7998,7 @@
       <c r="D109" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="E109" s="88"/>
+      <c r="E109" s="92"/>
       <c r="F109" s="2" t="s">
         <v>244</v>
       </c>
@@ -7551,7 +8006,7 @@
         <v>412</v>
       </c>
       <c r="H109" s="2"/>
-      <c r="I109" s="88"/>
+      <c r="I109" s="92"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
@@ -7564,7 +8019,7 @@
         <v>382</v>
       </c>
       <c r="D110" s="2"/>
-      <c r="E110" s="88"/>
+      <c r="E110" s="92"/>
       <c r="F110" s="2" t="s">
         <v>245</v>
       </c>
@@ -7572,7 +8027,7 @@
         <v>413</v>
       </c>
       <c r="H110" s="2"/>
-      <c r="I110" s="88"/>
+      <c r="I110" s="92"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
@@ -7585,7 +8040,7 @@
         <v>383</v>
       </c>
       <c r="D111" s="2"/>
-      <c r="E111" s="88"/>
+      <c r="E111" s="92"/>
       <c r="F111" s="2" t="s">
         <v>246</v>
       </c>
@@ -7593,7 +8048,7 @@
         <v>414</v>
       </c>
       <c r="H111" s="2"/>
-      <c r="I111" s="88"/>
+      <c r="I111" s="92"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
@@ -7606,7 +8061,7 @@
         <v>384</v>
       </c>
       <c r="D112" s="2"/>
-      <c r="E112" s="88"/>
+      <c r="E112" s="92"/>
       <c r="F112" s="2" t="s">
         <v>247</v>
       </c>
@@ -7614,7 +8069,7 @@
         <v>415</v>
       </c>
       <c r="H112" s="2"/>
-      <c r="I112" s="88"/>
+      <c r="I112" s="92"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
@@ -7627,7 +8082,7 @@
         <v>385</v>
       </c>
       <c r="D113" s="2"/>
-      <c r="E113" s="88"/>
+      <c r="E113" s="92"/>
       <c r="F113" s="2" t="s">
         <v>248</v>
       </c>
@@ -7635,7 +8090,7 @@
         <v>416</v>
       </c>
       <c r="H113" s="2"/>
-      <c r="I113" s="88"/>
+      <c r="I113" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -7661,10 +8116,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7761,9 +8216,15 @@
         <v>59.632000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>202.536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F18">
+        <f>9.28+0.45</f>
+        <v>9.7299999999999986</v>
       </c>
     </row>
   </sheetData>
@@ -7775,13 +8236,43 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>334.97199999999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>393.62599999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>453.91800000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>513.30200000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E6">
+        <f>A4-A1</f>
+        <v>178.33000000000004</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/副本泰国HB改造物料单及IO.xlsx
+++ b/副本泰国HB改造物料单及IO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="696" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="696" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1349,9 +1349,6 @@
     <t>X101_4</t>
   </si>
   <si>
-    <t>X101_5</t>
-  </si>
-  <si>
     <t>X101_6</t>
   </si>
   <si>
@@ -1974,176 +1971,180 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
+    <t>条形码取料气缸1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码取料气缸2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码取料气缸3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码取料气缸4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPC上料分盘气缸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPC下料分盘气缸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品TRAY盘上料分盘气缸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>成品TRAY盘下料分盘气缸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码取料破真空2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码取料破真空3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条形码取料破真空4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码取完【给plc】</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barcode机构</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>上位机</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>右滑台</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚压机构</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Process_3_Set_Finish</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag_RightStage_Cam_Pos1_Finish</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_Cam_Pos2_Ready</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_Cam_Pos2_Finish</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_RemoveLiner_Ready</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_Robot_RemoveLiner_Ready</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_RemoveLinered_Ready</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_Robot_RemoveLinered_Ready</t>
+  </si>
+  <si>
+    <t>Flag_Barcode_Can_Fit</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_Cam_Brd1_Ready</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_Cam_Brd1_Finish</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_Cam_Brd2_Ready</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_Cam_Brd3_Ready</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_Cam_Brd4_Ready</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_Cam_Brd2_Finish</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_Cam_Brd3_Finish</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_Cam_Brd4_Finish</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_WaitCatch_Ready</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_WaitCatch_Finish</t>
+  </si>
+  <si>
+    <t>Process_4_Can_Push</t>
+  </si>
+  <si>
+    <t>Flag_RightStage_Cam_Pos1_Ready</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>右滑台真空吸4</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>右滑台真空吸2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>右滑台真空吸3</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>右滑台真空吸1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPC扣紧气缸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag_Barcode_Fit_Finish</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag_CamAction_Remove</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag_Barcode_Need_Cam</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag_Barcode_Need_Cam</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flag_CamAction_Remove</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>FG上料旋转气缸</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>条形码取料气缸1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>条形码取料气缸2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>条形码取料气缸3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>条形码取料气缸4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FPC上料分盘气缸</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FPC下料分盘气缸</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>成品TRAY盘上料分盘气缸</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>成品TRAY盘下料分盘气缸</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>条形码取料破真空2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>条形码取料破真空3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>条形码取料破真空4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>条码取完【给plc】</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Barcode机构</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>上位机</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>右滑台</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>滚压机构</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Process_3_Set_Finish</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flag_RightStage_Cam_Pos1_Finish</t>
-  </si>
-  <si>
-    <t>Flag_RightStage_Cam_Pos2_Ready</t>
-  </si>
-  <si>
-    <t>Flag_RightStage_Cam_Pos2_Finish</t>
-  </si>
-  <si>
-    <t>Flag_RightStage_RemoveLiner_Ready</t>
-  </si>
-  <si>
-    <t>Flag_RightStage_Robot_RemoveLiner_Ready</t>
-  </si>
-  <si>
-    <t>Flag_RightStage_RemoveLinered_Ready</t>
-  </si>
-  <si>
-    <t>Flag_RightStage_Robot_RemoveLinered_Ready</t>
-  </si>
-  <si>
-    <t>Flag_Barcode_Can_Fit</t>
-  </si>
-  <si>
-    <t>Flag_RightStage_Cam_Brd1_Ready</t>
-  </si>
-  <si>
-    <t>Flag_RightStage_Cam_Brd1_Finish</t>
-  </si>
-  <si>
-    <t>Flag_RightStage_Cam_Brd2_Ready</t>
-  </si>
-  <si>
-    <t>Flag_RightStage_Cam_Brd3_Ready</t>
-  </si>
-  <si>
-    <t>Flag_RightStage_Cam_Brd4_Ready</t>
-  </si>
-  <si>
-    <t>Flag_RightStage_Cam_Brd2_Finish</t>
-  </si>
-  <si>
-    <t>Flag_RightStage_Cam_Brd3_Finish</t>
-  </si>
-  <si>
-    <t>Flag_RightStage_Cam_Brd4_Finish</t>
-  </si>
-  <si>
-    <t>Flag_RightStage_WaitCatch_Ready</t>
-  </si>
-  <si>
-    <t>Flag_RightStage_WaitCatch_Finish</t>
-  </si>
-  <si>
-    <t>Process_4_Can_Push</t>
-  </si>
-  <si>
-    <t>Flag_RightStage_Cam_Pos1_Ready</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>右滑台真空吸4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>右滑台真空吸2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>右滑台真空吸3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>右滑台真空吸1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FPC扣紧气缸</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flag_Barcode_Fit_Finish</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flag_CamAction_Remove</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flag_Barcode_Need_Cam</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flag_Barcode_Need_Cam</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flag_CamAction_Remove</t>
+    <t>X101_5</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -5140,7 +5141,7 @@
         <v>188</v>
       </c>
       <c r="G52" s="71" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.15">
@@ -5169,8 +5170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5184,13 +5185,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="84" t="s">
+        <v>534</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1" s="85" t="s">
         <v>535</v>
-      </c>
-      <c r="B1" s="85" t="s">
-        <v>534</v>
-      </c>
-      <c r="C1" s="85" t="s">
-        <v>536</v>
       </c>
       <c r="D1" s="2"/>
     </row>
@@ -5199,7 +5200,7 @@
       <c r="B2" s="85"/>
       <c r="C2" s="85"/>
       <c r="D2" s="87" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -5208,7 +5209,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="87" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -5217,7 +5218,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -5227,7 +5228,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5238,25 +5239,25 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="84" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B8" s="85" t="s">
+        <v>549</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>550</v>
+      </c>
+      <c r="D8" s="85" t="s">
         <v>551</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="E8" s="86" t="s">
         <v>552</v>
-      </c>
-      <c r="D8" s="85" t="s">
-        <v>553</v>
-      </c>
-      <c r="E8" s="86" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -5266,7 +5267,7 @@
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
       <c r="D9" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E9" s="86"/>
     </row>
@@ -5278,7 +5279,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -5288,7 +5289,7 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -5298,7 +5299,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -5310,7 +5311,7 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -5320,7 +5321,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -5330,14 +5331,14 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="87" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="36"/>
       <c r="B16" s="87" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="74"/>
@@ -5350,7 +5351,7 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -5360,7 +5361,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -5372,7 +5373,7 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -5382,7 +5383,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -5394,7 +5395,7 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -5403,7 +5404,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="75" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -5416,7 +5417,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -5426,7 +5427,7 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -5438,7 +5439,7 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -5448,7 +5449,7 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -5460,7 +5461,7 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -5470,7 +5471,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -5482,7 +5483,7 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -5492,7 +5493,7 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -5504,7 +5505,7 @@
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -5514,7 +5515,7 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -5584,8 +5585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34:I49"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5639,7 +5640,7 @@
         <v>214</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E2" s="92" t="s">
         <v>230</v>
@@ -5651,7 +5652,7 @@
         <v>249</v>
       </c>
       <c r="H2" s="74" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="I2" s="92" t="s">
         <v>232</v>
@@ -5668,7 +5669,7 @@
         <v>215</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E3" s="92"/>
       <c r="F3" s="2" t="s">
@@ -5678,7 +5679,7 @@
         <v>250</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I3" s="92"/>
     </row>
@@ -5693,7 +5694,7 @@
         <v>216</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E4" s="92"/>
       <c r="F4" s="2" t="s">
@@ -5703,7 +5704,7 @@
         <v>251</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I4" s="92"/>
     </row>
@@ -5718,7 +5719,7 @@
         <v>217</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E5" s="92"/>
       <c r="F5" s="2" t="s">
@@ -5728,7 +5729,7 @@
         <v>252</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I5" s="92"/>
     </row>
@@ -5743,7 +5744,7 @@
         <v>218</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E6" s="92"/>
       <c r="F6" s="2" t="s">
@@ -5753,7 +5754,7 @@
         <v>253</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I6" s="92"/>
     </row>
@@ -5768,7 +5769,7 @@
         <v>219</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E7" s="92"/>
       <c r="F7" s="2" t="s">
@@ -5778,7 +5779,7 @@
         <v>254</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I7" s="92"/>
     </row>
@@ -5793,7 +5794,7 @@
         <v>220</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E8" s="92"/>
       <c r="F8" s="2" t="s">
@@ -5803,7 +5804,7 @@
         <v>255</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I8" s="92"/>
     </row>
@@ -5818,7 +5819,7 @@
         <v>221</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E9" s="92"/>
       <c r="F9" s="2" t="s">
@@ -5828,7 +5829,7 @@
         <v>256</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I9" s="92"/>
     </row>
@@ -5843,7 +5844,7 @@
         <v>222</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E10" s="92"/>
       <c r="F10" s="2" t="s">
@@ -5866,7 +5867,7 @@
         <v>223</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E11" s="92"/>
       <c r="F11" s="2" t="s">
@@ -5876,7 +5877,7 @@
         <v>258</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I11" s="92"/>
     </row>
@@ -5891,7 +5892,7 @@
         <v>224</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E12" s="92"/>
       <c r="F12" s="2" t="s">
@@ -5901,7 +5902,7 @@
         <v>259</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I12" s="92"/>
     </row>
@@ -5916,7 +5917,7 @@
         <v>225</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E13" s="92"/>
       <c r="F13" s="2" t="s">
@@ -5926,7 +5927,7 @@
         <v>260</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I13" s="92"/>
     </row>
@@ -5941,7 +5942,7 @@
         <v>226</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E14" s="92"/>
       <c r="F14" s="2" t="s">
@@ -5951,7 +5952,7 @@
         <v>261</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I14" s="92"/>
     </row>
@@ -5966,7 +5967,7 @@
         <v>227</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E15" s="92"/>
       <c r="F15" s="2" t="s">
@@ -5976,7 +5977,7 @@
         <v>262</v>
       </c>
       <c r="H15" s="74" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="I15" s="92"/>
     </row>
@@ -5991,7 +5992,7 @@
         <v>228</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E16" s="92"/>
       <c r="F16" s="2" t="s">
@@ -6022,7 +6023,7 @@
         <v>264</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I17" s="92"/>
     </row>
@@ -6044,13 +6045,13 @@
         <v>233</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="I18" s="92" t="s">
         <v>495</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="I18" s="92" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -6072,7 +6073,7 @@
         <v>284</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I19" s="92"/>
     </row>
@@ -6087,7 +6088,7 @@
         <v>269</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E20" s="92"/>
       <c r="F20" s="2" t="s">
@@ -6097,7 +6098,7 @@
         <v>285</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I20" s="92"/>
     </row>
@@ -6112,7 +6113,7 @@
         <v>270</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E21" s="92"/>
       <c r="F21" s="2" t="s">
@@ -6122,7 +6123,7 @@
         <v>286</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I21" s="92"/>
     </row>
@@ -6137,7 +6138,7 @@
         <v>271</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E22" s="92"/>
       <c r="F22" s="2" t="s">
@@ -6147,7 +6148,7 @@
         <v>287</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I22" s="92"/>
     </row>
@@ -6162,7 +6163,7 @@
         <v>272</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E23" s="92"/>
       <c r="F23" s="2" t="s">
@@ -6172,7 +6173,7 @@
         <v>288</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I23" s="92"/>
     </row>
@@ -6187,7 +6188,7 @@
         <v>273</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E24" s="92"/>
       <c r="F24" s="2" t="s">
@@ -6197,7 +6198,7 @@
         <v>289</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I24" s="92"/>
     </row>
@@ -6212,7 +6213,7 @@
         <v>274</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E25" s="92"/>
       <c r="F25" s="2" t="s">
@@ -6243,7 +6244,7 @@
         <v>291</v>
       </c>
       <c r="H26" s="74" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="I26" s="92"/>
     </row>
@@ -6266,7 +6267,7 @@
         <v>292</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I27" s="92"/>
     </row>
@@ -6289,7 +6290,7 @@
         <v>293</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I28" s="92"/>
     </row>
@@ -6304,7 +6305,7 @@
         <v>278</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E29" s="92"/>
       <c r="F29" s="2" t="s">
@@ -6327,7 +6328,7 @@
         <v>279</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E30" s="92"/>
       <c r="F30" s="2" t="s">
@@ -6337,7 +6338,7 @@
         <v>295</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I30" s="92"/>
     </row>
@@ -6352,7 +6353,7 @@
         <v>280</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E31" s="92"/>
       <c r="F31" s="2" t="s">
@@ -6362,7 +6363,7 @@
         <v>296</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I31" s="92"/>
     </row>
@@ -6377,7 +6378,7 @@
         <v>281</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E32" s="92"/>
       <c r="F32" s="2" t="s">
@@ -6387,7 +6388,7 @@
         <v>297</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I32" s="92"/>
     </row>
@@ -6402,7 +6403,7 @@
         <v>282</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E33" s="92"/>
       <c r="F33" s="2" t="s">
@@ -6412,7 +6413,7 @@
         <v>298</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I33" s="92"/>
     </row>
@@ -6427,7 +6428,7 @@
         <v>302</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E34" s="92" t="s">
         <v>299</v>
@@ -6448,7 +6449,7 @@
         <v>303</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E35" s="92"/>
       <c r="F35" s="103"/>
@@ -6467,7 +6468,7 @@
         <v>304</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E36" s="92"/>
       <c r="F36" s="103"/>
@@ -6486,7 +6487,7 @@
         <v>305</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E37" s="92"/>
       <c r="F37" s="103"/>
@@ -6505,7 +6506,7 @@
         <v>306</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E38" s="92"/>
       <c r="F38" s="103"/>
@@ -6541,7 +6542,7 @@
         <v>308</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E40" s="92"/>
       <c r="F40" s="103"/>
@@ -6560,7 +6561,7 @@
         <v>309</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E41" s="92"/>
       <c r="F41" s="103"/>
@@ -6579,7 +6580,7 @@
         <v>310</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E42" s="92"/>
       <c r="F42" s="103"/>
@@ -6598,7 +6599,7 @@
         <v>311</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E43" s="92"/>
       <c r="F43" s="103"/>
@@ -6617,7 +6618,7 @@
         <v>312</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E44" s="92"/>
       <c r="F44" s="103"/>
@@ -6636,7 +6637,7 @@
         <v>313</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E45" s="92"/>
       <c r="F45" s="103"/>
@@ -6655,7 +6656,7 @@
         <v>314</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E46" s="92"/>
       <c r="F46" s="103"/>
@@ -6674,7 +6675,7 @@
         <v>315</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E47" s="92"/>
       <c r="F47" s="103"/>
@@ -6693,7 +6694,7 @@
         <v>316</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E48" s="92"/>
       <c r="F48" s="103"/>
@@ -6712,7 +6713,7 @@
         <v>317</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E49" s="92"/>
       <c r="F49" s="106"/>
@@ -6731,7 +6732,7 @@
         <v>318</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E50" s="92" t="s">
         <v>300</v>
@@ -6786,7 +6787,7 @@
         <v>321</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E53" s="92"/>
       <c r="F53" s="103"/>
@@ -6805,7 +6806,7 @@
         <v>322</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E54" s="92"/>
       <c r="F54" s="103"/>
@@ -6824,7 +6825,7 @@
         <v>323</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E55" s="92"/>
       <c r="F55" s="103"/>
@@ -6860,7 +6861,7 @@
         <v>325</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E57" s="92"/>
       <c r="F57" s="103"/>
@@ -6879,7 +6880,7 @@
         <v>326</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E58" s="92"/>
       <c r="F58" s="103"/>
@@ -6898,7 +6899,7 @@
         <v>327</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E59" s="92"/>
       <c r="F59" s="103"/>
@@ -6917,7 +6918,7 @@
         <v>328</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E60" s="92"/>
       <c r="F60" s="103"/>
@@ -6936,7 +6937,7 @@
         <v>329</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E61" s="92"/>
       <c r="F61" s="103"/>
@@ -6955,7 +6956,7 @@
         <v>330</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E62" s="92"/>
       <c r="F62" s="103"/>
@@ -6974,7 +6975,7 @@
         <v>331</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E63" s="92"/>
       <c r="F63" s="103"/>
@@ -6993,7 +6994,7 @@
         <v>332</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E64" s="92"/>
       <c r="F64" s="103"/>
@@ -7012,7 +7013,7 @@
         <v>333</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E65" s="92"/>
       <c r="F65" s="106"/>
@@ -7031,7 +7032,7 @@
         <v>335</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E66" s="92" t="s">
         <v>301</v>
@@ -7052,7 +7053,7 @@
         <v>336</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E67" s="92"/>
       <c r="F67" s="103"/>
@@ -7071,7 +7072,7 @@
         <v>337</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E68" s="92"/>
       <c r="F68" s="103"/>
@@ -7090,7 +7091,7 @@
         <v>338</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E69" s="92"/>
       <c r="F69" s="103"/>
@@ -7109,7 +7110,7 @@
         <v>339</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E70" s="92"/>
       <c r="F70" s="103"/>
@@ -7128,7 +7129,7 @@
         <v>340</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E71" s="92"/>
       <c r="F71" s="103"/>
@@ -7147,7 +7148,7 @@
         <v>341</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E72" s="92"/>
       <c r="F72" s="103"/>
@@ -7166,7 +7167,7 @@
         <v>342</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E73" s="92"/>
       <c r="F73" s="103"/>
@@ -7185,7 +7186,7 @@
         <v>343</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E74" s="92"/>
       <c r="F74" s="103"/>
@@ -7204,7 +7205,7 @@
         <v>344</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E75" s="92"/>
       <c r="F75" s="103"/>
@@ -7223,7 +7224,7 @@
         <v>345</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E76" s="92"/>
       <c r="F76" s="103"/>
@@ -7242,7 +7243,7 @@
         <v>346</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E77" s="92"/>
       <c r="F77" s="103"/>
@@ -7261,7 +7262,7 @@
         <v>347</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E78" s="92"/>
       <c r="F78" s="103"/>
@@ -7280,7 +7281,7 @@
         <v>348</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E79" s="92"/>
       <c r="F79" s="103"/>
@@ -7333,7 +7334,7 @@
         <v>354</v>
       </c>
       <c r="D82" s="74" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E82" s="92" t="s">
         <v>352</v>
@@ -7342,13 +7343,13 @@
         <v>233</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>538</v>
+        <v>584</v>
       </c>
       <c r="I82" s="92" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.15">
@@ -7362,14 +7363,14 @@
         <v>355</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E83" s="92"/>
       <c r="F83" s="2" t="s">
         <v>234</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H83" s="3"/>
       <c r="I83" s="92"/>
@@ -7385,17 +7386,17 @@
         <v>356</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E84" s="92"/>
       <c r="F84" s="2" t="s">
         <v>235</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="I84" s="92"/>
     </row>
@@ -7410,17 +7411,17 @@
         <v>357</v>
       </c>
       <c r="D85" s="75" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E85" s="92"/>
       <c r="F85" s="2" t="s">
         <v>236</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="I85" s="92"/>
     </row>
@@ -7440,10 +7441,10 @@
         <v>237</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="I86" s="92"/>
     </row>
@@ -7465,10 +7466,10 @@
         <v>238</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="I87" s="92"/>
     </row>
@@ -7483,17 +7484,17 @@
         <v>360</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E88" s="92"/>
       <c r="F88" s="2" t="s">
         <v>239</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H88" s="75" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="I88" s="92"/>
     </row>
@@ -7508,17 +7509,17 @@
         <v>361</v>
       </c>
       <c r="D89" s="74" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E89" s="92"/>
       <c r="F89" s="2" t="s">
         <v>240</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H89" s="75" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I89" s="92"/>
     </row>
@@ -7533,17 +7534,17 @@
         <v>362</v>
       </c>
       <c r="D90" s="74" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E90" s="92"/>
       <c r="F90" s="2" t="s">
         <v>241</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I90" s="92"/>
     </row>
@@ -7558,17 +7559,17 @@
         <v>363</v>
       </c>
       <c r="D91" s="74" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E91" s="92"/>
       <c r="F91" s="2" t="s">
         <v>242</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I91" s="92"/>
     </row>
@@ -7583,17 +7584,17 @@
         <v>364</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E92" s="92"/>
       <c r="F92" s="2" t="s">
         <v>243</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I92" s="92"/>
     </row>
@@ -7608,17 +7609,17 @@
         <v>365</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E93" s="92"/>
       <c r="F93" s="2" t="s">
         <v>244</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="I93" s="92"/>
     </row>
@@ -7633,14 +7634,14 @@
         <v>366</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E94" s="92"/>
       <c r="F94" s="2" t="s">
         <v>245</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H94" s="75" t="s">
         <v>179</v>
@@ -7658,14 +7659,14 @@
         <v>367</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E95" s="92"/>
       <c r="F95" s="2" t="s">
         <v>246</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H95" s="75" t="s">
         <v>180</v>
@@ -7688,7 +7689,7 @@
         <v>247</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H96" s="75" t="s">
         <v>181</v>
@@ -7711,7 +7712,7 @@
         <v>248</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H97" s="75" t="s">
         <v>182</v>
@@ -7738,13 +7739,13 @@
         <v>283</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H98" s="75" t="s">
         <v>183</v>
       </c>
       <c r="I98" s="92" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
@@ -7765,10 +7766,10 @@
         <v>234</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H99" s="75" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="I99" s="92"/>
     </row>
@@ -7790,10 +7791,10 @@
         <v>235</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H100" s="75" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I100" s="92"/>
     </row>
@@ -7815,10 +7816,10 @@
         <v>236</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H101" s="75" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="I101" s="92"/>
     </row>
@@ -7830,7 +7831,7 @@
         <v>202</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>374</v>
+        <v>585</v>
       </c>
       <c r="D102" s="33" t="s">
         <v>191</v>
@@ -7840,10 +7841,10 @@
         <v>237</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H102" s="75" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="I102" s="92"/>
     </row>
@@ -7855,7 +7856,7 @@
         <v>203</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D103" s="33"/>
       <c r="E103" s="92"/>
@@ -7863,7 +7864,7 @@
         <v>238</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H103" s="75" t="s">
         <v>187</v>
@@ -7878,17 +7879,17 @@
         <v>204</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D104" s="82" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E104" s="92"/>
       <c r="F104" s="2" t="s">
         <v>239</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H104" s="2"/>
       <c r="I104" s="92"/>
@@ -7901,17 +7902,17 @@
         <v>205</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D105" s="82" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E105" s="92"/>
       <c r="F105" s="2" t="s">
         <v>240</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H105" s="2"/>
       <c r="I105" s="92"/>
@@ -7924,17 +7925,17 @@
         <v>206</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D106" s="82" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E106" s="92"/>
       <c r="F106" s="2" t="s">
         <v>241</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H106" s="2"/>
       <c r="I106" s="92"/>
@@ -7947,17 +7948,17 @@
         <v>207</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D107" s="82" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E107" s="92"/>
       <c r="F107" s="2" t="s">
         <v>242</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H107" s="2"/>
       <c r="I107" s="92"/>
@@ -7970,7 +7971,7 @@
         <v>208</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D108" s="33" t="s">
         <v>192</v>
@@ -7980,7 +7981,7 @@
         <v>243</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H108" s="2"/>
       <c r="I108" s="92"/>
@@ -7993,7 +7994,7 @@
         <v>209</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D109" s="33" t="s">
         <v>190</v>
@@ -8003,7 +8004,7 @@
         <v>244</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H109" s="2"/>
       <c r="I109" s="92"/>
@@ -8016,7 +8017,7 @@
         <v>210</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="92"/>
@@ -8024,7 +8025,7 @@
         <v>245</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H110" s="2"/>
       <c r="I110" s="92"/>
@@ -8037,7 +8038,7 @@
         <v>211</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="92"/>
@@ -8045,7 +8046,7 @@
         <v>246</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H111" s="2"/>
       <c r="I111" s="92"/>
@@ -8058,7 +8059,7 @@
         <v>212</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="92"/>
@@ -8066,7 +8067,7 @@
         <v>247</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H112" s="2"/>
       <c r="I112" s="92"/>
@@ -8079,7 +8080,7 @@
         <v>213</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="92"/>
@@ -8087,18 +8088,13 @@
         <v>248</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H113" s="2"/>
       <c r="I113" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="E2:E17"/>
-    <mergeCell ref="I2:I17"/>
-    <mergeCell ref="E18:E33"/>
-    <mergeCell ref="I18:I33"/>
-    <mergeCell ref="E34:E49"/>
     <mergeCell ref="E98:E113"/>
     <mergeCell ref="I98:I113"/>
     <mergeCell ref="F34:I49"/>
@@ -8108,6 +8104,11 @@
     <mergeCell ref="I82:I97"/>
     <mergeCell ref="E82:E97"/>
     <mergeCell ref="E50:E65"/>
+    <mergeCell ref="E2:E17"/>
+    <mergeCell ref="I2:I17"/>
+    <mergeCell ref="E18:E33"/>
+    <mergeCell ref="I18:I33"/>
+    <mergeCell ref="E34:E49"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8236,10 +8237,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8270,6 +8271,20 @@
         <v>178.33000000000004</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B11">
+        <v>20.568000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B12">
+        <v>199.58799999999999</v>
+      </c>
+      <c r="D12">
+        <f>B12-B11</f>
+        <v>179.01999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/副本泰国HB改造物料单及IO.xlsx
+++ b/副本泰国HB改造物料单及IO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="696" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="696" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="倍福IO表" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet4" sheetId="7" r:id="rId7"/>
+    <sheet name="TRAY逻辑" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="614">
   <si>
     <t>物料清单（电气）:</t>
   </si>
@@ -1598,14 +1599,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>撕膜电机吸膜负压表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>撕膜电机吸产品负压表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>左升降平移气缸SET</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1747,10 +1740,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>矫正电机撕膜上气缸的夹子</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>滑台真空吸1</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1804,10 +1793,6 @@
   </si>
   <si>
     <t>右升降真空吸</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>撕膜夹子撕膜上下气缸</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -2147,12 +2132,151 @@
     <t>X101_5</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>矫正电机撕膜夹子上下气缸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>矫正电机撕膜夹子左右气缸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕膜电机吸产品负压表1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>撕膜电机吸产品负压表2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liftin_Feed_Left_2</t>
+  </si>
+  <si>
+    <t>急停后</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>上位机下降命令</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过上限位（坐标）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>下降到底</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>分盘气缸置位，下降到底</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPC紧扣气缸置位，分盘气缸复位，开始往上升，光纤感应到，停</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>料盘空命令</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作2</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPC紧扣气缸复位</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>料盘被取走，上升，光纤感应到，停</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liftin_Feed_Left_1</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPC上升盘</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FPC下降盘</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过下限位（坐标）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>分盘气缸复位，开始往上升，光纤感应到，停</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>再往下走，光纤信号无，停</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>分盘气缸置位，下降到底</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>料盘放好，下降升，光纤信号无，停</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>分盘气缸复位，开始往上升，到上位置（坐标），停。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>（要求上升时，托盘上无料盘）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>（不间断上料，料盘会掉）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品上升盘</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liftin_Feed_Right_Up</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liftin_Feed_Right_Down</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作3</t>
+  </si>
+  <si>
+    <r>
+      <t>分盘气缸置位，下降到底，给出R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DY要求上料</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2252,6 +2376,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2557,7 +2689,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2748,6 +2880,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2810,6 +2945,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3524,12 +3664,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
       <c r="E1" s="5"/>
       <c r="F1" s="6" t="s">
         <v>1</v>
@@ -3549,10 +3689,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="11"/>
-      <c r="E2" s="95" t="s">
+      <c r="E2" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="95"/>
+      <c r="F2" s="96"/>
       <c r="G2" s="12"/>
       <c r="H2" s="13"/>
       <c r="I2" s="66"/>
@@ -3566,10 +3706,10 @@
         <v>7</v>
       </c>
       <c r="D3" s="14"/>
-      <c r="E3" s="95" t="s">
+      <c r="E3" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="95"/>
+      <c r="F3" s="96"/>
       <c r="G3" s="15"/>
       <c r="H3" s="16"/>
       <c r="I3" s="66"/>
@@ -3585,10 +3725,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="20"/>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="95"/>
+      <c r="F4" s="96"/>
       <c r="G4" s="18"/>
       <c r="H4" s="21"/>
       <c r="I4" s="66"/>
@@ -3605,7 +3745,7 @@
       <c r="I5" s="67"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="97" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="27" t="s">
@@ -3634,7 +3774,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="89"/>
+      <c r="A7" s="90"/>
       <c r="B7" s="31"/>
       <c r="C7" s="32" t="s">
         <v>21</v>
@@ -3657,7 +3797,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="89"/>
+      <c r="A8" s="90"/>
       <c r="B8" s="31"/>
       <c r="C8" s="32" t="s">
         <v>26</v>
@@ -3680,7 +3820,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="89"/>
+      <c r="A9" s="90"/>
       <c r="B9" s="31"/>
       <c r="C9" s="32" t="s">
         <v>30</v>
@@ -3703,7 +3843,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="97"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="35"/>
       <c r="C10" s="32" t="s">
         <v>33</v>
@@ -3726,7 +3866,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="89" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="37"/>
@@ -3763,7 +3903,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="89"/>
+      <c r="A12" s="90"/>
       <c r="B12" s="37"/>
       <c r="C12" s="3" t="s">
         <v>46</v>
@@ -3786,7 +3926,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="89"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="37"/>
       <c r="C13" s="42" t="s">
         <v>48</v>
@@ -3809,7 +3949,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="89"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="37"/>
       <c r="C14" s="42" t="s">
         <v>51</v>
@@ -3832,7 +3972,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="89"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="37"/>
       <c r="C15" s="43" t="s">
         <v>53</v>
@@ -3855,7 +3995,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="97"/>
+      <c r="A16" s="98"/>
       <c r="B16" s="35"/>
       <c r="C16" s="45" t="s">
         <v>56</v>
@@ -3878,7 +4018,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="89" t="s">
         <v>59</v>
       </c>
       <c r="B17" s="35"/>
@@ -3901,7 +4041,7 @@
       <c r="I17" s="68"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="89"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="36"/>
       <c r="C18" s="47" t="s">
         <v>63</v>
@@ -3922,7 +4062,7 @@
       <c r="I18" s="68"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="89"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="36"/>
       <c r="C19" s="49" t="s">
         <v>66</v>
@@ -3943,7 +4083,7 @@
       <c r="I19" s="68"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="89"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="36"/>
       <c r="C20" t="s">
         <v>69</v>
@@ -3984,7 +4124,7 @@
       <c r="I21" s="54"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="91" t="s">
         <v>74</v>
       </c>
       <c r="B22" s="35"/>
@@ -4007,7 +4147,7 @@
       <c r="I22" s="68"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="90"/>
+      <c r="A23" s="91"/>
       <c r="B23" s="2"/>
       <c r="C23" s="49" t="s">
         <v>77</v>
@@ -4028,7 +4168,7 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="91"/>
+      <c r="A24" s="92"/>
       <c r="B24" s="60"/>
       <c r="C24" s="61" t="s">
         <v>80</v>
@@ -4043,7 +4183,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="90" t="s">
+      <c r="A25" s="91" t="s">
         <v>82</v>
       </c>
       <c r="B25" s="2"/>
@@ -4062,7 +4202,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="92"/>
+      <c r="A26" s="93"/>
       <c r="B26" s="2"/>
       <c r="C26" s="48" t="s">
         <v>85</v>
@@ -4077,7 +4217,7 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="92"/>
+      <c r="A27" s="93"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -4088,7 +4228,7 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="92"/>
+      <c r="A28" s="93"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -4099,7 +4239,7 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="92"/>
+      <c r="A29" s="93"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -4110,7 +4250,7 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="92"/>
+      <c r="A30" s="93"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -4121,7 +4261,7 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="92"/>
+      <c r="A31" s="93"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -4132,7 +4272,7 @@
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="92"/>
+      <c r="A32" s="93"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4480,12 +4620,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.15">
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
       <c r="J1" s="77" t="s">
         <v>167</v>
       </c>
@@ -5141,7 +5281,7 @@
         <v>188</v>
       </c>
       <c r="G52" s="71" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="53" spans="3:7" x14ac:dyDescent="0.15">
@@ -5185,13 +5325,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="84" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B1" s="85" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C1" s="85" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D1" s="2"/>
     </row>
@@ -5200,7 +5340,7 @@
       <c r="B2" s="85"/>
       <c r="C2" s="85"/>
       <c r="D2" s="87" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -5209,7 +5349,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="87" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -5218,7 +5358,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -5228,7 +5368,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -5239,25 +5379,25 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="84" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B8" s="85" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C8" s="85" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D8" s="85" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E8" s="86" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -5267,7 +5407,7 @@
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
       <c r="D9" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="E9" s="86"/>
     </row>
@@ -5279,7 +5419,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -5289,7 +5429,7 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -5299,7 +5439,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -5311,7 +5451,7 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -5321,7 +5461,7 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -5331,14 +5471,14 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="87" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="36"/>
       <c r="B16" s="87" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="74"/>
@@ -5351,7 +5491,7 @@
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="3" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -5361,7 +5501,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -5373,7 +5513,7 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="3" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -5383,7 +5523,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -5395,7 +5535,7 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="3" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -5404,7 +5544,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="75" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -5417,7 +5557,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -5427,7 +5567,7 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -5439,7 +5579,7 @@
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -5449,7 +5589,7 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -5461,7 +5601,7 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -5471,7 +5611,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -5483,7 +5623,7 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -5493,7 +5633,7 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -5505,7 +5645,7 @@
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="3" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -5515,7 +5655,7 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -5585,8 +5725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5642,7 +5782,7 @@
       <c r="D2" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="93" t="s">
         <v>230</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -5652,9 +5792,9 @@
         <v>249</v>
       </c>
       <c r="H2" s="74" t="s">
-        <v>577</v>
-      </c>
-      <c r="I2" s="92" t="s">
+        <v>573</v>
+      </c>
+      <c r="I2" s="93" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5671,7 +5811,7 @@
       <c r="D3" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="E3" s="92"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="2" t="s">
         <v>234</v>
       </c>
@@ -5679,9 +5819,9 @@
         <v>250</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="I3" s="92"/>
+        <v>523</v>
+      </c>
+      <c r="I3" s="93"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
@@ -5696,7 +5836,7 @@
       <c r="D4" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="E4" s="92"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="2" t="s">
         <v>235</v>
       </c>
@@ -5704,9 +5844,9 @@
         <v>251</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="I4" s="92"/>
+        <v>481</v>
+      </c>
+      <c r="I4" s="93"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
@@ -5721,7 +5861,7 @@
       <c r="D5" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="E5" s="92"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="2" t="s">
         <v>236</v>
       </c>
@@ -5729,9 +5869,9 @@
         <v>252</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="I5" s="92"/>
+        <v>583</v>
+      </c>
+      <c r="I5" s="93"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
@@ -5746,7 +5886,7 @@
       <c r="D6" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="E6" s="92"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="2" t="s">
         <v>237</v>
       </c>
@@ -5754,9 +5894,9 @@
         <v>253</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="I6" s="92"/>
+        <v>482</v>
+      </c>
+      <c r="I6" s="93"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
@@ -5771,7 +5911,7 @@
       <c r="D7" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="E7" s="92"/>
+      <c r="E7" s="93"/>
       <c r="F7" s="2" t="s">
         <v>238</v>
       </c>
@@ -5779,9 +5919,9 @@
         <v>254</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="I7" s="92"/>
+        <v>483</v>
+      </c>
+      <c r="I7" s="93"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
@@ -5796,7 +5936,7 @@
       <c r="D8" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="E8" s="92"/>
+      <c r="E8" s="93"/>
       <c r="F8" s="2" t="s">
         <v>239</v>
       </c>
@@ -5804,9 +5944,9 @@
         <v>255</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="I8" s="92"/>
+        <v>484</v>
+      </c>
+      <c r="I8" s="93"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
@@ -5821,7 +5961,7 @@
       <c r="D9" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="E9" s="92"/>
+      <c r="E9" s="93"/>
       <c r="F9" s="2" t="s">
         <v>240</v>
       </c>
@@ -5829,9 +5969,9 @@
         <v>256</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="I9" s="92"/>
+        <v>485</v>
+      </c>
+      <c r="I9" s="93"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
@@ -5846,7 +5986,7 @@
       <c r="D10" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="E10" s="92"/>
+      <c r="E10" s="93"/>
       <c r="F10" s="2" t="s">
         <v>241</v>
       </c>
@@ -5854,7 +5994,7 @@
         <v>257</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="92"/>
+      <c r="I10" s="93"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
@@ -5869,7 +6009,7 @@
       <c r="D11" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="E11" s="92"/>
+      <c r="E11" s="93"/>
       <c r="F11" s="2" t="s">
         <v>242</v>
       </c>
@@ -5877,9 +6017,9 @@
         <v>258</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="I11" s="92"/>
+        <v>486</v>
+      </c>
+      <c r="I11" s="93"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
@@ -5894,7 +6034,7 @@
       <c r="D12" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E12" s="92"/>
+      <c r="E12" s="93"/>
       <c r="F12" s="2" t="s">
         <v>243</v>
       </c>
@@ -5902,9 +6042,9 @@
         <v>259</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="I12" s="92"/>
+        <v>487</v>
+      </c>
+      <c r="I12" s="93"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
@@ -5919,7 +6059,7 @@
       <c r="D13" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="E13" s="92"/>
+      <c r="E13" s="93"/>
       <c r="F13" s="2" t="s">
         <v>244</v>
       </c>
@@ -5927,9 +6067,9 @@
         <v>260</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="I13" s="92"/>
+        <v>488</v>
+      </c>
+      <c r="I13" s="93"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
@@ -5944,7 +6084,7 @@
       <c r="D14" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="E14" s="92"/>
+      <c r="E14" s="93"/>
       <c r="F14" s="2" t="s">
         <v>245</v>
       </c>
@@ -5952,9 +6092,9 @@
         <v>261</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="I14" s="92"/>
+        <v>489</v>
+      </c>
+      <c r="I14" s="93"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
@@ -5969,7 +6109,7 @@
       <c r="D15" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="E15" s="92"/>
+      <c r="E15" s="93"/>
       <c r="F15" s="2" t="s">
         <v>246</v>
       </c>
@@ -5977,9 +6117,9 @@
         <v>262</v>
       </c>
       <c r="H15" s="74" t="s">
-        <v>574</v>
-      </c>
-      <c r="I15" s="92"/>
+        <v>570</v>
+      </c>
+      <c r="I15" s="93"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
@@ -5994,7 +6134,7 @@
       <c r="D16" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="E16" s="92"/>
+      <c r="E16" s="93"/>
       <c r="F16" s="2" t="s">
         <v>247</v>
       </c>
@@ -6002,7 +6142,7 @@
         <v>263</v>
       </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="92"/>
+      <c r="I16" s="93"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
@@ -6015,7 +6155,7 @@
         <v>229</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="E17" s="92"/>
+      <c r="E17" s="93"/>
       <c r="F17" s="2" t="s">
         <v>248</v>
       </c>
@@ -6023,9 +6163,9 @@
         <v>264</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="I17" s="92"/>
+        <v>490</v>
+      </c>
+      <c r="I17" s="93"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
@@ -6038,20 +6178,20 @@
         <v>267</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="92" t="s">
+      <c r="E18" s="93" t="s">
         <v>265</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>233</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="I18" s="92" t="s">
-        <v>495</v>
+      <c r="I18" s="93" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
@@ -6065,7 +6205,7 @@
         <v>268</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="92"/>
+      <c r="E19" s="93"/>
       <c r="F19" s="2" t="s">
         <v>234</v>
       </c>
@@ -6073,9 +6213,9 @@
         <v>284</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="I19" s="92"/>
+        <v>495</v>
+      </c>
+      <c r="I19" s="93"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
@@ -6090,7 +6230,7 @@
       <c r="D20" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E20" s="92"/>
+      <c r="E20" s="93"/>
       <c r="F20" s="2" t="s">
         <v>235</v>
       </c>
@@ -6098,9 +6238,9 @@
         <v>285</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="I20" s="92"/>
+        <v>532</v>
+      </c>
+      <c r="I20" s="93"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
@@ -6115,7 +6255,7 @@
       <c r="D21" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E21" s="92"/>
+      <c r="E21" s="93"/>
       <c r="F21" s="2" t="s">
         <v>236</v>
       </c>
@@ -6123,9 +6263,9 @@
         <v>286</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="I21" s="92"/>
+        <v>582</v>
+      </c>
+      <c r="I21" s="93"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
@@ -6140,7 +6280,7 @@
       <c r="D22" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="E22" s="92"/>
+      <c r="E22" s="93"/>
       <c r="F22" s="2" t="s">
         <v>237</v>
       </c>
@@ -6148,9 +6288,9 @@
         <v>287</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="I22" s="92"/>
+        <v>496</v>
+      </c>
+      <c r="I22" s="93"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
@@ -6165,7 +6305,7 @@
       <c r="D23" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="E23" s="92"/>
+      <c r="E23" s="93"/>
       <c r="F23" s="2" t="s">
         <v>238</v>
       </c>
@@ -6173,9 +6313,9 @@
         <v>288</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="I23" s="92"/>
+        <v>497</v>
+      </c>
+      <c r="I23" s="93"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
@@ -6190,7 +6330,7 @@
       <c r="D24" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E24" s="92"/>
+      <c r="E24" s="93"/>
       <c r="F24" s="2" t="s">
         <v>239</v>
       </c>
@@ -6198,9 +6338,9 @@
         <v>289</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="I24" s="92"/>
+        <v>498</v>
+      </c>
+      <c r="I24" s="93"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
@@ -6215,7 +6355,7 @@
       <c r="D25" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="E25" s="92"/>
+      <c r="E25" s="93"/>
       <c r="F25" s="2" t="s">
         <v>240</v>
       </c>
@@ -6223,7 +6363,7 @@
         <v>290</v>
       </c>
       <c r="H25" s="2"/>
-      <c r="I25" s="92"/>
+      <c r="I25" s="93"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
@@ -6236,7 +6376,7 @@
         <v>275</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="92"/>
+      <c r="E26" s="93"/>
       <c r="F26" s="2" t="s">
         <v>241</v>
       </c>
@@ -6244,9 +6384,9 @@
         <v>291</v>
       </c>
       <c r="H26" s="74" t="s">
-        <v>578</v>
-      </c>
-      <c r="I26" s="92"/>
+        <v>574</v>
+      </c>
+      <c r="I26" s="93"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
@@ -6259,7 +6399,7 @@
         <v>276</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="E27" s="92"/>
+      <c r="E27" s="93"/>
       <c r="F27" s="2" t="s">
         <v>242</v>
       </c>
@@ -6267,9 +6407,9 @@
         <v>292</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="I27" s="92"/>
+        <v>499</v>
+      </c>
+      <c r="I27" s="93"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
@@ -6282,7 +6422,7 @@
         <v>277</v>
       </c>
       <c r="D28" s="2"/>
-      <c r="E28" s="92"/>
+      <c r="E28" s="93"/>
       <c r="F28" s="2" t="s">
         <v>243</v>
       </c>
@@ -6290,9 +6430,9 @@
         <v>293</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="I28" s="92"/>
+        <v>500</v>
+      </c>
+      <c r="I28" s="93"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
@@ -6307,7 +6447,7 @@
       <c r="D29" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="E29" s="92"/>
+      <c r="E29" s="93"/>
       <c r="F29" s="2" t="s">
         <v>244</v>
       </c>
@@ -6315,7 +6455,7 @@
         <v>294</v>
       </c>
       <c r="H29" s="2"/>
-      <c r="I29" s="92"/>
+      <c r="I29" s="93"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
@@ -6330,7 +6470,7 @@
       <c r="D30" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="E30" s="92"/>
+      <c r="E30" s="93"/>
       <c r="F30" s="2" t="s">
         <v>245</v>
       </c>
@@ -6338,9 +6478,9 @@
         <v>295</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="I30" s="92"/>
+        <v>501</v>
+      </c>
+      <c r="I30" s="93"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
@@ -6355,7 +6495,7 @@
       <c r="D31" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="E31" s="92"/>
+      <c r="E31" s="93"/>
       <c r="F31" s="2" t="s">
         <v>246</v>
       </c>
@@ -6363,9 +6503,9 @@
         <v>296</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="I31" s="92"/>
+        <v>502</v>
+      </c>
+      <c r="I31" s="93"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
@@ -6380,7 +6520,7 @@
       <c r="D32" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="E32" s="92"/>
+      <c r="E32" s="93"/>
       <c r="F32" s="2" t="s">
         <v>247</v>
       </c>
@@ -6388,9 +6528,9 @@
         <v>297</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="I32" s="92"/>
+        <v>503</v>
+      </c>
+      <c r="I32" s="93"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
@@ -6405,7 +6545,7 @@
       <c r="D33" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="E33" s="92"/>
+      <c r="E33" s="93"/>
       <c r="F33" s="2" t="s">
         <v>248</v>
       </c>
@@ -6413,9 +6553,9 @@
         <v>298</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>508</v>
-      </c>
-      <c r="I33" s="92"/>
+        <v>504</v>
+      </c>
+      <c r="I33" s="93"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
@@ -6428,15 +6568,15 @@
         <v>302</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="E34" s="92" t="s">
+        <v>521</v>
+      </c>
+      <c r="E34" s="93" t="s">
         <v>299</v>
       </c>
-      <c r="F34" s="100"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="102"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="103"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
@@ -6451,11 +6591,11 @@
       <c r="D35" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="E35" s="92"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="105"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="106"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
@@ -6470,11 +6610,11 @@
       <c r="D36" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="E36" s="92"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="105"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="106"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
@@ -6489,11 +6629,11 @@
       <c r="D37" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E37" s="92"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="104"/>
-      <c r="I37" s="105"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="104"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="105"/>
+      <c r="I37" s="106"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
@@ -6508,11 +6648,11 @@
       <c r="D38" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="E38" s="92"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="104"/>
-      <c r="H38" s="104"/>
-      <c r="I38" s="105"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="106"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
@@ -6525,11 +6665,11 @@
         <v>307</v>
       </c>
       <c r="D39" s="2"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="104"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="105"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="106"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
@@ -6542,13 +6682,13 @@
         <v>308</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="E40" s="92"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="105"/>
+        <v>584</v>
+      </c>
+      <c r="E40" s="93"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="105"/>
+      <c r="I40" s="106"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
@@ -6561,13 +6701,13 @@
         <v>309</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E41" s="92"/>
-      <c r="F41" s="103"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="105"/>
+        <v>585</v>
+      </c>
+      <c r="E41" s="93"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="105"/>
+      <c r="I41" s="106"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
@@ -6580,13 +6720,13 @@
         <v>310</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="E42" s="92"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="105"/>
+        <v>451</v>
+      </c>
+      <c r="E42" s="93"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="106"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
@@ -6599,13 +6739,13 @@
         <v>311</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="E43" s="92"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="104"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="105"/>
+        <v>446</v>
+      </c>
+      <c r="E43" s="93"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="105"/>
+      <c r="I43" s="106"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
@@ -6618,13 +6758,13 @@
         <v>312</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="E44" s="92"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="104"/>
-      <c r="H44" s="104"/>
-      <c r="I44" s="105"/>
+        <v>447</v>
+      </c>
+      <c r="E44" s="93"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="105"/>
+      <c r="I44" s="106"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
@@ -6637,13 +6777,13 @@
         <v>313</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="E45" s="92"/>
-      <c r="F45" s="103"/>
-      <c r="G45" s="104"/>
-      <c r="H45" s="104"/>
-      <c r="I45" s="105"/>
+        <v>448</v>
+      </c>
+      <c r="E45" s="93"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="106"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
@@ -6656,13 +6796,13 @@
         <v>314</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="E46" s="92"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="104"/>
-      <c r="H46" s="104"/>
-      <c r="I46" s="105"/>
+        <v>449</v>
+      </c>
+      <c r="E46" s="93"/>
+      <c r="F46" s="104"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="106"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
@@ -6675,13 +6815,13 @@
         <v>315</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="E47" s="92"/>
-      <c r="F47" s="103"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="104"/>
-      <c r="I47" s="105"/>
+        <v>450</v>
+      </c>
+      <c r="E47" s="93"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="106"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
@@ -6694,13 +6834,13 @@
         <v>316</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="E48" s="92"/>
-      <c r="F48" s="103"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="104"/>
-      <c r="I48" s="105"/>
+        <v>452</v>
+      </c>
+      <c r="E48" s="93"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="105"/>
+      <c r="I48" s="106"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
@@ -6713,13 +6853,13 @@
         <v>317</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="E49" s="92"/>
-      <c r="F49" s="106"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="107"/>
-      <c r="I49" s="108"/>
+        <v>453</v>
+      </c>
+      <c r="E49" s="93"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="108"/>
+      <c r="I49" s="109"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
@@ -6732,15 +6872,15 @@
         <v>318</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="E50" s="92" t="s">
+        <v>454</v>
+      </c>
+      <c r="E50" s="93" t="s">
         <v>300</v>
       </c>
-      <c r="F50" s="100"/>
-      <c r="G50" s="101"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="102"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="102"/>
+      <c r="I50" s="103"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
@@ -6753,11 +6893,11 @@
         <v>319</v>
       </c>
       <c r="D51" s="2"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="103"/>
-      <c r="G51" s="104"/>
-      <c r="H51" s="104"/>
-      <c r="I51" s="105"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="104"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="105"/>
+      <c r="I51" s="106"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
@@ -6770,11 +6910,11 @@
         <v>320</v>
       </c>
       <c r="D52" s="2"/>
-      <c r="E52" s="92"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="104"/>
-      <c r="H52" s="104"/>
-      <c r="I52" s="105"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="104"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="105"/>
+      <c r="I52" s="106"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
@@ -6787,13 +6927,13 @@
         <v>321</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="E53" s="92"/>
-      <c r="F53" s="103"/>
-      <c r="G53" s="104"/>
-      <c r="H53" s="104"/>
-      <c r="I53" s="105"/>
+        <v>455</v>
+      </c>
+      <c r="E53" s="93"/>
+      <c r="F53" s="104"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="106"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
@@ -6806,13 +6946,13 @@
         <v>322</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="E54" s="92"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="104"/>
-      <c r="H54" s="104"/>
-      <c r="I54" s="105"/>
+        <v>456</v>
+      </c>
+      <c r="E54" s="93"/>
+      <c r="F54" s="104"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="105"/>
+      <c r="I54" s="106"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
@@ -6825,13 +6965,13 @@
         <v>323</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="E55" s="92"/>
-      <c r="F55" s="103"/>
-      <c r="G55" s="104"/>
-      <c r="H55" s="104"/>
-      <c r="I55" s="105"/>
+        <v>457</v>
+      </c>
+      <c r="E55" s="93"/>
+      <c r="F55" s="104"/>
+      <c r="G55" s="105"/>
+      <c r="H55" s="105"/>
+      <c r="I55" s="106"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
@@ -6844,11 +6984,11 @@
         <v>324</v>
       </c>
       <c r="D56" s="2"/>
-      <c r="E56" s="92"/>
-      <c r="F56" s="103"/>
-      <c r="G56" s="104"/>
-      <c r="H56" s="104"/>
-      <c r="I56" s="105"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="105"/>
+      <c r="I56" s="106"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
@@ -6861,13 +7001,13 @@
         <v>325</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="E57" s="92"/>
-      <c r="F57" s="103"/>
-      <c r="G57" s="104"/>
-      <c r="H57" s="104"/>
-      <c r="I57" s="105"/>
+        <v>458</v>
+      </c>
+      <c r="E57" s="93"/>
+      <c r="F57" s="104"/>
+      <c r="G57" s="105"/>
+      <c r="H57" s="105"/>
+      <c r="I57" s="106"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
@@ -6880,13 +7020,13 @@
         <v>326</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="E58" s="92"/>
-      <c r="F58" s="103"/>
-      <c r="G58" s="104"/>
-      <c r="H58" s="104"/>
-      <c r="I58" s="105"/>
+        <v>459</v>
+      </c>
+      <c r="E58" s="93"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="105"/>
+      <c r="H58" s="105"/>
+      <c r="I58" s="106"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
@@ -6899,13 +7039,13 @@
         <v>327</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="E59" s="92"/>
-      <c r="F59" s="103"/>
-      <c r="G59" s="104"/>
-      <c r="H59" s="104"/>
-      <c r="I59" s="105"/>
+        <v>460</v>
+      </c>
+      <c r="E59" s="93"/>
+      <c r="F59" s="104"/>
+      <c r="G59" s="105"/>
+      <c r="H59" s="105"/>
+      <c r="I59" s="106"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
@@ -6918,13 +7058,13 @@
         <v>328</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="E60" s="92"/>
-      <c r="F60" s="103"/>
-      <c r="G60" s="104"/>
-      <c r="H60" s="104"/>
-      <c r="I60" s="105"/>
+        <v>461</v>
+      </c>
+      <c r="E60" s="93"/>
+      <c r="F60" s="104"/>
+      <c r="G60" s="105"/>
+      <c r="H60" s="105"/>
+      <c r="I60" s="106"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
@@ -6937,13 +7077,13 @@
         <v>329</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="E61" s="92"/>
-      <c r="F61" s="103"/>
-      <c r="G61" s="104"/>
-      <c r="H61" s="104"/>
-      <c r="I61" s="105"/>
+        <v>462</v>
+      </c>
+      <c r="E61" s="93"/>
+      <c r="F61" s="104"/>
+      <c r="G61" s="105"/>
+      <c r="H61" s="105"/>
+      <c r="I61" s="106"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
@@ -6956,13 +7096,13 @@
         <v>330</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="E62" s="92"/>
-      <c r="F62" s="103"/>
-      <c r="G62" s="104"/>
-      <c r="H62" s="104"/>
-      <c r="I62" s="105"/>
+        <v>463</v>
+      </c>
+      <c r="E62" s="93"/>
+      <c r="F62" s="104"/>
+      <c r="G62" s="105"/>
+      <c r="H62" s="105"/>
+      <c r="I62" s="106"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
@@ -6975,13 +7115,13 @@
         <v>331</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="E63" s="92"/>
-      <c r="F63" s="103"/>
-      <c r="G63" s="104"/>
-      <c r="H63" s="104"/>
-      <c r="I63" s="105"/>
+        <v>464</v>
+      </c>
+      <c r="E63" s="93"/>
+      <c r="F63" s="104"/>
+      <c r="G63" s="105"/>
+      <c r="H63" s="105"/>
+      <c r="I63" s="106"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
@@ -6994,13 +7134,13 @@
         <v>332</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="E64" s="92"/>
-      <c r="F64" s="103"/>
-      <c r="G64" s="104"/>
-      <c r="H64" s="104"/>
-      <c r="I64" s="105"/>
+        <v>465</v>
+      </c>
+      <c r="E64" s="93"/>
+      <c r="F64" s="104"/>
+      <c r="G64" s="105"/>
+      <c r="H64" s="105"/>
+      <c r="I64" s="106"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
@@ -7013,13 +7153,13 @@
         <v>333</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="E65" s="92"/>
-      <c r="F65" s="106"/>
-      <c r="G65" s="107"/>
-      <c r="H65" s="107"/>
-      <c r="I65" s="108"/>
+        <v>466</v>
+      </c>
+      <c r="E65" s="93"/>
+      <c r="F65" s="107"/>
+      <c r="G65" s="108"/>
+      <c r="H65" s="108"/>
+      <c r="I65" s="109"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
@@ -7032,15 +7172,15 @@
         <v>335</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="E66" s="92" t="s">
+        <v>467</v>
+      </c>
+      <c r="E66" s="93" t="s">
         <v>301</v>
       </c>
-      <c r="F66" s="100"/>
-      <c r="G66" s="101"/>
-      <c r="H66" s="101"/>
-      <c r="I66" s="102"/>
+      <c r="F66" s="101"/>
+      <c r="G66" s="102"/>
+      <c r="H66" s="102"/>
+      <c r="I66" s="103"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
@@ -7053,13 +7193,13 @@
         <v>336</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="E67" s="92"/>
-      <c r="F67" s="103"/>
-      <c r="G67" s="104"/>
-      <c r="H67" s="104"/>
-      <c r="I67" s="105"/>
+        <v>468</v>
+      </c>
+      <c r="E67" s="93"/>
+      <c r="F67" s="104"/>
+      <c r="G67" s="105"/>
+      <c r="H67" s="105"/>
+      <c r="I67" s="106"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
@@ -7072,13 +7212,13 @@
         <v>337</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="E68" s="92"/>
-      <c r="F68" s="103"/>
-      <c r="G68" s="104"/>
-      <c r="H68" s="104"/>
-      <c r="I68" s="105"/>
+        <v>469</v>
+      </c>
+      <c r="E68" s="93"/>
+      <c r="F68" s="104"/>
+      <c r="G68" s="105"/>
+      <c r="H68" s="105"/>
+      <c r="I68" s="106"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
@@ -7091,13 +7231,13 @@
         <v>338</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E69" s="92"/>
-      <c r="F69" s="103"/>
-      <c r="G69" s="104"/>
-      <c r="H69" s="104"/>
-      <c r="I69" s="105"/>
+        <v>470</v>
+      </c>
+      <c r="E69" s="93"/>
+      <c r="F69" s="104"/>
+      <c r="G69" s="105"/>
+      <c r="H69" s="105"/>
+      <c r="I69" s="106"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
@@ -7110,13 +7250,13 @@
         <v>339</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="E70" s="92"/>
-      <c r="F70" s="103"/>
-      <c r="G70" s="104"/>
-      <c r="H70" s="104"/>
-      <c r="I70" s="105"/>
+        <v>471</v>
+      </c>
+      <c r="E70" s="93"/>
+      <c r="F70" s="104"/>
+      <c r="G70" s="105"/>
+      <c r="H70" s="105"/>
+      <c r="I70" s="106"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
@@ -7129,13 +7269,13 @@
         <v>340</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="E71" s="92"/>
-      <c r="F71" s="103"/>
-      <c r="G71" s="104"/>
-      <c r="H71" s="104"/>
-      <c r="I71" s="105"/>
+        <v>472</v>
+      </c>
+      <c r="E71" s="93"/>
+      <c r="F71" s="104"/>
+      <c r="G71" s="105"/>
+      <c r="H71" s="105"/>
+      <c r="I71" s="106"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
@@ -7148,13 +7288,13 @@
         <v>341</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="E72" s="92"/>
-      <c r="F72" s="103"/>
-      <c r="G72" s="104"/>
-      <c r="H72" s="104"/>
-      <c r="I72" s="105"/>
+        <v>473</v>
+      </c>
+      <c r="E72" s="93"/>
+      <c r="F72" s="104"/>
+      <c r="G72" s="105"/>
+      <c r="H72" s="105"/>
+      <c r="I72" s="106"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
@@ -7167,13 +7307,13 @@
         <v>342</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="E73" s="92"/>
-      <c r="F73" s="103"/>
-      <c r="G73" s="104"/>
-      <c r="H73" s="104"/>
-      <c r="I73" s="105"/>
+        <v>474</v>
+      </c>
+      <c r="E73" s="93"/>
+      <c r="F73" s="104"/>
+      <c r="G73" s="105"/>
+      <c r="H73" s="105"/>
+      <c r="I73" s="106"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
@@ -7186,13 +7326,13 @@
         <v>343</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="E74" s="92"/>
-      <c r="F74" s="103"/>
-      <c r="G74" s="104"/>
-      <c r="H74" s="104"/>
-      <c r="I74" s="105"/>
+        <v>475</v>
+      </c>
+      <c r="E74" s="93"/>
+      <c r="F74" s="104"/>
+      <c r="G74" s="105"/>
+      <c r="H74" s="105"/>
+      <c r="I74" s="106"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
@@ -7205,13 +7345,13 @@
         <v>344</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="E75" s="92"/>
-      <c r="F75" s="103"/>
-      <c r="G75" s="104"/>
-      <c r="H75" s="104"/>
-      <c r="I75" s="105"/>
+        <v>476</v>
+      </c>
+      <c r="E75" s="93"/>
+      <c r="F75" s="104"/>
+      <c r="G75" s="105"/>
+      <c r="H75" s="105"/>
+      <c r="I75" s="106"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
@@ -7224,13 +7364,13 @@
         <v>345</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="E76" s="92"/>
-      <c r="F76" s="103"/>
-      <c r="G76" s="104"/>
-      <c r="H76" s="104"/>
-      <c r="I76" s="105"/>
+        <v>477</v>
+      </c>
+      <c r="E76" s="93"/>
+      <c r="F76" s="104"/>
+      <c r="G76" s="105"/>
+      <c r="H76" s="105"/>
+      <c r="I76" s="106"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
@@ -7243,13 +7383,13 @@
         <v>346</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="E77" s="92"/>
-      <c r="F77" s="103"/>
-      <c r="G77" s="104"/>
-      <c r="H77" s="104"/>
-      <c r="I77" s="105"/>
+        <v>478</v>
+      </c>
+      <c r="E77" s="93"/>
+      <c r="F77" s="104"/>
+      <c r="G77" s="105"/>
+      <c r="H77" s="105"/>
+      <c r="I77" s="106"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
@@ -7262,13 +7402,13 @@
         <v>347</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="E78" s="92"/>
-      <c r="F78" s="103"/>
-      <c r="G78" s="104"/>
-      <c r="H78" s="104"/>
-      <c r="I78" s="105"/>
+        <v>479</v>
+      </c>
+      <c r="E78" s="93"/>
+      <c r="F78" s="104"/>
+      <c r="G78" s="105"/>
+      <c r="H78" s="105"/>
+      <c r="I78" s="106"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
@@ -7281,13 +7421,13 @@
         <v>348</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="E79" s="92"/>
-      <c r="F79" s="103"/>
-      <c r="G79" s="104"/>
-      <c r="H79" s="104"/>
-      <c r="I79" s="105"/>
+        <v>480</v>
+      </c>
+      <c r="E79" s="93"/>
+      <c r="F79" s="104"/>
+      <c r="G79" s="105"/>
+      <c r="H79" s="105"/>
+      <c r="I79" s="106"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
@@ -7300,11 +7440,11 @@
         <v>349</v>
       </c>
       <c r="D80" s="2"/>
-      <c r="E80" s="92"/>
-      <c r="F80" s="103"/>
-      <c r="G80" s="104"/>
-      <c r="H80" s="104"/>
-      <c r="I80" s="105"/>
+      <c r="E80" s="93"/>
+      <c r="F80" s="104"/>
+      <c r="G80" s="105"/>
+      <c r="H80" s="105"/>
+      <c r="I80" s="106"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
@@ -7317,11 +7457,11 @@
         <v>350</v>
       </c>
       <c r="D81" s="2"/>
-      <c r="E81" s="92"/>
-      <c r="F81" s="106"/>
-      <c r="G81" s="107"/>
-      <c r="H81" s="107"/>
-      <c r="I81" s="108"/>
+      <c r="E81" s="93"/>
+      <c r="F81" s="107"/>
+      <c r="G81" s="108"/>
+      <c r="H81" s="108"/>
+      <c r="I81" s="109"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
@@ -7334,9 +7474,9 @@
         <v>354</v>
       </c>
       <c r="D82" s="74" t="s">
-        <v>520</v>
-      </c>
-      <c r="E82" s="92" t="s">
+        <v>516</v>
+      </c>
+      <c r="E82" s="93" t="s">
         <v>352</v>
       </c>
       <c r="F82" s="2" t="s">
@@ -7346,9 +7486,9 @@
         <v>386</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="I82" s="92" t="s">
+        <v>580</v>
+      </c>
+      <c r="I82" s="93" t="s">
         <v>385</v>
       </c>
     </row>
@@ -7363,9 +7503,9 @@
         <v>355</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>521</v>
-      </c>
-      <c r="E83" s="92"/>
+        <v>517</v>
+      </c>
+      <c r="E83" s="93"/>
       <c r="F83" s="2" t="s">
         <v>234</v>
       </c>
@@ -7373,7 +7513,7 @@
         <v>387</v>
       </c>
       <c r="H83" s="3"/>
-      <c r="I83" s="92"/>
+      <c r="I83" s="93"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
@@ -7386,9 +7526,9 @@
         <v>356</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="E84" s="92"/>
+        <v>518</v>
+      </c>
+      <c r="E84" s="93"/>
       <c r="F84" s="2" t="s">
         <v>235</v>
       </c>
@@ -7396,9 +7536,9 @@
         <v>388</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="I84" s="92"/>
+        <v>533</v>
+      </c>
+      <c r="I84" s="93"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
@@ -7411,9 +7551,9 @@
         <v>357</v>
       </c>
       <c r="D85" s="75" t="s">
-        <v>524</v>
-      </c>
-      <c r="E85" s="92"/>
+        <v>520</v>
+      </c>
+      <c r="E85" s="93"/>
       <c r="F85" s="2" t="s">
         <v>236</v>
       </c>
@@ -7421,9 +7561,9 @@
         <v>389</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="I85" s="92"/>
+        <v>534</v>
+      </c>
+      <c r="I85" s="93"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
@@ -7436,7 +7576,7 @@
         <v>358</v>
       </c>
       <c r="D86" s="75"/>
-      <c r="E86" s="92"/>
+      <c r="E86" s="93"/>
       <c r="F86" s="2" t="s">
         <v>237</v>
       </c>
@@ -7444,9 +7584,9 @@
         <v>390</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="I86" s="92"/>
+        <v>535</v>
+      </c>
+      <c r="I86" s="93"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
@@ -7461,7 +7601,7 @@
       <c r="D87" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="E87" s="92"/>
+      <c r="E87" s="93"/>
       <c r="F87" s="2" t="s">
         <v>238</v>
       </c>
@@ -7469,9 +7609,9 @@
         <v>391</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="I87" s="92"/>
+        <v>536</v>
+      </c>
+      <c r="I87" s="93"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
@@ -7484,9 +7624,9 @@
         <v>360</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="E88" s="92"/>
+        <v>519</v>
+      </c>
+      <c r="E88" s="93"/>
       <c r="F88" s="2" t="s">
         <v>239</v>
       </c>
@@ -7494,9 +7634,9 @@
         <v>392</v>
       </c>
       <c r="H88" s="75" t="s">
-        <v>575</v>
-      </c>
-      <c r="I88" s="92"/>
+        <v>571</v>
+      </c>
+      <c r="I88" s="93"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
@@ -7509,9 +7649,9 @@
         <v>361</v>
       </c>
       <c r="D89" s="74" t="s">
-        <v>515</v>
-      </c>
-      <c r="E89" s="92"/>
+        <v>511</v>
+      </c>
+      <c r="E89" s="93"/>
       <c r="F89" s="2" t="s">
         <v>240</v>
       </c>
@@ -7519,9 +7659,9 @@
         <v>393</v>
       </c>
       <c r="H89" s="75" t="s">
-        <v>576</v>
-      </c>
-      <c r="I89" s="92"/>
+        <v>572</v>
+      </c>
+      <c r="I89" s="93"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
@@ -7534,19 +7674,19 @@
         <v>362</v>
       </c>
       <c r="D90" s="74" t="s">
-        <v>516</v>
-      </c>
-      <c r="E90" s="92"/>
+        <v>512</v>
+      </c>
+      <c r="E90" s="93"/>
       <c r="F90" s="2" t="s">
         <v>241</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="I90" s="92"/>
+        <v>537</v>
+      </c>
+      <c r="I90" s="93"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
@@ -7559,9 +7699,9 @@
         <v>363</v>
       </c>
       <c r="D91" s="74" t="s">
-        <v>526</v>
-      </c>
-      <c r="E91" s="92"/>
+        <v>522</v>
+      </c>
+      <c r="E91" s="93"/>
       <c r="F91" s="2" t="s">
         <v>242</v>
       </c>
@@ -7569,9 +7709,9 @@
         <v>394</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="I91" s="92"/>
+        <v>538</v>
+      </c>
+      <c r="I91" s="93"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
@@ -7584,19 +7724,19 @@
         <v>364</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="E92" s="92"/>
+        <v>507</v>
+      </c>
+      <c r="E92" s="93"/>
       <c r="F92" s="2" t="s">
         <v>243</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="I92" s="92"/>
+        <v>539</v>
+      </c>
+      <c r="I92" s="93"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
@@ -7609,9 +7749,9 @@
         <v>365</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E93" s="92"/>
+        <v>508</v>
+      </c>
+      <c r="E93" s="93"/>
       <c r="F93" s="2" t="s">
         <v>244</v>
       </c>
@@ -7619,9 +7759,9 @@
         <v>395</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="I93" s="92"/>
+        <v>540</v>
+      </c>
+      <c r="I93" s="93"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
@@ -7634,9 +7774,9 @@
         <v>366</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="E94" s="92"/>
+        <v>509</v>
+      </c>
+      <c r="E94" s="93"/>
       <c r="F94" s="2" t="s">
         <v>245</v>
       </c>
@@ -7646,7 +7786,7 @@
       <c r="H94" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="I94" s="92"/>
+      <c r="I94" s="93"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
@@ -7659,9 +7799,9 @@
         <v>367</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="E95" s="92"/>
+        <v>510</v>
+      </c>
+      <c r="E95" s="93"/>
       <c r="F95" s="2" t="s">
         <v>246</v>
       </c>
@@ -7671,7 +7811,7 @@
       <c r="H95" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="I95" s="92"/>
+      <c r="I95" s="93"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
@@ -7684,7 +7824,7 @@
         <v>368</v>
       </c>
       <c r="D96" s="2"/>
-      <c r="E96" s="92"/>
+      <c r="E96" s="93"/>
       <c r="F96" s="2" t="s">
         <v>247</v>
       </c>
@@ -7694,7 +7834,7 @@
       <c r="H96" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="I96" s="92"/>
+      <c r="I96" s="93"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
@@ -7707,7 +7847,7 @@
         <v>369</v>
       </c>
       <c r="D97" s="2"/>
-      <c r="E97" s="92"/>
+      <c r="E97" s="93"/>
       <c r="F97" s="2" t="s">
         <v>248</v>
       </c>
@@ -7717,7 +7857,7 @@
       <c r="H97" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="I97" s="92"/>
+      <c r="I97" s="93"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
@@ -7732,7 +7872,7 @@
       <c r="D98" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="E98" s="92" t="s">
+      <c r="E98" s="93" t="s">
         <v>353</v>
       </c>
       <c r="F98" s="2" t="s">
@@ -7744,8 +7884,8 @@
       <c r="H98" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="I98" s="92" t="s">
-        <v>496</v>
+      <c r="I98" s="93" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.15">
@@ -7761,7 +7901,7 @@
       <c r="D99" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="E99" s="92"/>
+      <c r="E99" s="93"/>
       <c r="F99" s="2" t="s">
         <v>234</v>
       </c>
@@ -7769,9 +7909,9 @@
         <v>401</v>
       </c>
       <c r="H99" s="75" t="s">
-        <v>545</v>
-      </c>
-      <c r="I99" s="92"/>
+        <v>541</v>
+      </c>
+      <c r="I99" s="93"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
@@ -7786,7 +7926,7 @@
       <c r="D100" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="E100" s="92"/>
+      <c r="E100" s="93"/>
       <c r="F100" s="2" t="s">
         <v>235</v>
       </c>
@@ -7794,9 +7934,9 @@
         <v>402</v>
       </c>
       <c r="H100" s="75" t="s">
-        <v>546</v>
-      </c>
-      <c r="I100" s="92"/>
+        <v>542</v>
+      </c>
+      <c r="I100" s="93"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
@@ -7811,7 +7951,7 @@
       <c r="D101" s="81" t="s">
         <v>130</v>
       </c>
-      <c r="E101" s="92"/>
+      <c r="E101" s="93"/>
       <c r="F101" s="2" t="s">
         <v>236</v>
       </c>
@@ -7819,9 +7959,9 @@
         <v>403</v>
       </c>
       <c r="H101" s="75" t="s">
-        <v>547</v>
-      </c>
-      <c r="I101" s="92"/>
+        <v>543</v>
+      </c>
+      <c r="I101" s="93"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
@@ -7831,12 +7971,12 @@
         <v>202</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D102" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="E102" s="92"/>
+      <c r="E102" s="93"/>
       <c r="F102" s="2" t="s">
         <v>237</v>
       </c>
@@ -7844,9 +7984,9 @@
         <v>404</v>
       </c>
       <c r="H102" s="75" t="s">
-        <v>548</v>
-      </c>
-      <c r="I102" s="92"/>
+        <v>544</v>
+      </c>
+      <c r="I102" s="93"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
@@ -7859,7 +7999,7 @@
         <v>374</v>
       </c>
       <c r="D103" s="33"/>
-      <c r="E103" s="92"/>
+      <c r="E103" s="93"/>
       <c r="F103" s="2" t="s">
         <v>238</v>
       </c>
@@ -7869,7 +8009,7 @@
       <c r="H103" s="75" t="s">
         <v>187</v>
       </c>
-      <c r="I103" s="92"/>
+      <c r="I103" s="93"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
@@ -7882,9 +8022,9 @@
         <v>375</v>
       </c>
       <c r="D104" s="82" t="s">
-        <v>517</v>
-      </c>
-      <c r="E104" s="92"/>
+        <v>513</v>
+      </c>
+      <c r="E104" s="93"/>
       <c r="F104" s="2" t="s">
         <v>239</v>
       </c>
@@ -7892,7 +8032,7 @@
         <v>406</v>
       </c>
       <c r="H104" s="2"/>
-      <c r="I104" s="92"/>
+      <c r="I104" s="93"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
@@ -7905,9 +8045,9 @@
         <v>376</v>
       </c>
       <c r="D105" s="82" t="s">
-        <v>518</v>
-      </c>
-      <c r="E105" s="92"/>
+        <v>514</v>
+      </c>
+      <c r="E105" s="93"/>
       <c r="F105" s="2" t="s">
         <v>240</v>
       </c>
@@ -7915,7 +8055,7 @@
         <v>407</v>
       </c>
       <c r="H105" s="2"/>
-      <c r="I105" s="92"/>
+      <c r="I105" s="93"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
@@ -7928,9 +8068,9 @@
         <v>377</v>
       </c>
       <c r="D106" s="82" t="s">
-        <v>519</v>
-      </c>
-      <c r="E106" s="92"/>
+        <v>515</v>
+      </c>
+      <c r="E106" s="93"/>
       <c r="F106" s="2" t="s">
         <v>241</v>
       </c>
@@ -7938,7 +8078,7 @@
         <v>408</v>
       </c>
       <c r="H106" s="2"/>
-      <c r="I106" s="92"/>
+      <c r="I106" s="93"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
@@ -7951,9 +8091,9 @@
         <v>378</v>
       </c>
       <c r="D107" s="82" t="s">
-        <v>510</v>
-      </c>
-      <c r="E107" s="92"/>
+        <v>506</v>
+      </c>
+      <c r="E107" s="93"/>
       <c r="F107" s="2" t="s">
         <v>242</v>
       </c>
@@ -7961,7 +8101,7 @@
         <v>409</v>
       </c>
       <c r="H107" s="2"/>
-      <c r="I107" s="92"/>
+      <c r="I107" s="93"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
@@ -7976,7 +8116,7 @@
       <c r="D108" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="E108" s="92"/>
+      <c r="E108" s="93"/>
       <c r="F108" s="2" t="s">
         <v>243</v>
       </c>
@@ -7984,7 +8124,7 @@
         <v>410</v>
       </c>
       <c r="H108" s="2"/>
-      <c r="I108" s="92"/>
+      <c r="I108" s="93"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
@@ -7999,7 +8139,7 @@
       <c r="D109" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="E109" s="92"/>
+      <c r="E109" s="93"/>
       <c r="F109" s="2" t="s">
         <v>244</v>
       </c>
@@ -8007,7 +8147,7 @@
         <v>411</v>
       </c>
       <c r="H109" s="2"/>
-      <c r="I109" s="92"/>
+      <c r="I109" s="93"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
@@ -8020,7 +8160,7 @@
         <v>381</v>
       </c>
       <c r="D110" s="2"/>
-      <c r="E110" s="92"/>
+      <c r="E110" s="93"/>
       <c r="F110" s="2" t="s">
         <v>245</v>
       </c>
@@ -8028,7 +8168,7 @@
         <v>412</v>
       </c>
       <c r="H110" s="2"/>
-      <c r="I110" s="92"/>
+      <c r="I110" s="93"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
@@ -8041,7 +8181,7 @@
         <v>382</v>
       </c>
       <c r="D111" s="2"/>
-      <c r="E111" s="92"/>
+      <c r="E111" s="93"/>
       <c r="F111" s="2" t="s">
         <v>246</v>
       </c>
@@ -8049,7 +8189,7 @@
         <v>413</v>
       </c>
       <c r="H111" s="2"/>
-      <c r="I111" s="92"/>
+      <c r="I111" s="93"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
@@ -8062,7 +8202,7 @@
         <v>383</v>
       </c>
       <c r="D112" s="2"/>
-      <c r="E112" s="92"/>
+      <c r="E112" s="93"/>
       <c r="F112" s="2" t="s">
         <v>247</v>
       </c>
@@ -8070,7 +8210,7 @@
         <v>414</v>
       </c>
       <c r="H112" s="2"/>
-      <c r="I112" s="92"/>
+      <c r="I112" s="93"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
@@ -8083,7 +8223,7 @@
         <v>384</v>
       </c>
       <c r="D113" s="2"/>
-      <c r="E113" s="92"/>
+      <c r="E113" s="93"/>
       <c r="F113" s="2" t="s">
         <v>248</v>
       </c>
@@ -8091,7 +8231,7 @@
         <v>415</v>
       </c>
       <c r="H113" s="2"/>
-      <c r="I113" s="92"/>
+      <c r="I113" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -8112,15 +8252,16 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8226,6 +8367,22 @@
       <c r="F18">
         <f>9.28+0.45</f>
         <v>9.7299999999999986</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>96.19</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -8290,4 +8447,362 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="93" t="s">
+        <v>599</v>
+      </c>
+      <c r="B2" s="93" t="s">
+        <v>598</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D2" s="111" t="s">
+        <v>608</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D3" s="111" t="s">
+        <v>608</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="93"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D4" s="111"/>
+      <c r="E4" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="93"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D5" s="111"/>
+      <c r="E5" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="93" t="s">
+        <v>600</v>
+      </c>
+      <c r="B7" s="93" t="s">
+        <v>586</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D7" s="111" t="s">
+        <v>608</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="G7" s="110" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="93"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D8" s="111" t="s">
+        <v>607</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="93"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D9" s="111" t="s">
+        <v>607</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D10" s="111"/>
+      <c r="E10" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="112" t="s">
+        <v>609</v>
+      </c>
+      <c r="B13" s="112" t="s">
+        <v>610</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D13" s="111" t="s">
+        <v>608</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="F13" s="74" t="s">
+        <v>602</v>
+      </c>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="93"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D14" s="111" t="s">
+        <v>608</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="F14" s="74" t="s">
+        <v>602</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="93"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D15" s="111"/>
+      <c r="E15" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="F15" s="74" t="s">
+        <v>602</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="93"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D16" s="111"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="88"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="112" t="s">
+        <v>609</v>
+      </c>
+      <c r="B18" s="112" t="s">
+        <v>611</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D18" s="111" t="s">
+        <v>608</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="G18" s="110" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="93"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D19" s="111" t="s">
+        <v>607</v>
+      </c>
+      <c r="E19" s="74" t="s">
+        <v>613</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="93"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D20" s="111" t="s">
+        <v>607</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>613</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="93"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D21" s="111"/>
+      <c r="E21" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>